--- a/nodejs_svr/doc/잼라이브 기출문제.xlsx
+++ b/nodejs_svr/doc/잼라이브 기출문제.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1924">
   <si>
     <t>서태지, 양현성, 이주노가 멤버로 있었던 1세대 힙합 아이돌 그룹의 이름은?</t>
   </si>
@@ -12086,15 +12086,160 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 가요 'Sorry, Sorry'를 부른 가수는?</t>
-  </si>
-  <si>
     <t>A.  슈퍼주인이여</t>
   </si>
   <si>
     <t>B.  슈퍼마리오</t>
   </si>
   <si>
+    <t>A.  날방</t>
+  </si>
+  <si>
+    <t>B.  막방</t>
+  </si>
+  <si>
+    <t>A.  과학의 달</t>
+  </si>
+  <si>
+    <t>C.  호국 보훈의 달</t>
+  </si>
+  <si>
+    <t>B.  원자력</t>
+  </si>
+  <si>
+    <t>C.  천연가스</t>
+  </si>
+  <si>
+    <t>B.  음악캠프</t>
+  </si>
+  <si>
+    <t>C.  인기가요 베스트50</t>
+  </si>
+  <si>
+    <t>B.  고래</t>
+  </si>
+  <si>
+    <t>C.  박쥐</t>
+  </si>
+  <si>
+    <t>A.  독일</t>
+  </si>
+  <si>
+    <t>A.  만리장성 기념비 높이</t>
+  </si>
+  <si>
+    <t>C.  베이징 올림픽 개막 일시</t>
+  </si>
+  <si>
+    <t>A.  러시아어</t>
+  </si>
+  <si>
+    <t>B.  스페인어</t>
+  </si>
+  <si>
+    <t>B.  무팟퐁커리</t>
+  </si>
+  <si>
+    <t>C.  푸팟퐁커리</t>
+  </si>
+  <si>
+    <t>A.  중앙대학교</t>
+  </si>
+  <si>
+    <t>B.  한양대학교</t>
+  </si>
+  <si>
+    <t>A.  당숙모</t>
+  </si>
+  <si>
+    <t>C.  종수</t>
+  </si>
+  <si>
+    <t>C.  슈퍼주니어</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 출연진들이 누워서 진행하는 방식의 프로그램을 일컫는 말은?</t>
+  </si>
+  <si>
+    <t>C.  눕방</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5월은 무슨 달일까?</t>
+  </si>
+  <si>
+    <t>B.  가정의 달</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 고갈성 에너지가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>A.  수력</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 뮤직뱅크의 전신으로 8~90년대 큰 사랑을 받았던 KBS의 대표 가요 프로그램은?</t>
+  </si>
+  <si>
+    <t>A.  가요톱텐</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 포유류가 아닌 동물은?</t>
+  </si>
+  <si>
+    <t>A.  악어</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 세계 최초로 MP3 플레이어를 개발한 나라는?</t>
+  </si>
+  <si>
+    <t>B.  한국</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중국인의 숫자 8 사랑과 거리가 먼 것은?</t>
+  </si>
+  <si>
+    <t>B.  천안문 광장의 면적</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 국제연합 UN 공용어가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>C.  일본어</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 새우가 들어간 태국식 커리의 이름은?</t>
+  </si>
+  <si>
+    <t>A.  꿍팟퐁커리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 국내 최초로 대학 축제를 개최한 대학교는?</t>
+  </si>
+  <si>
+    <t>C.  경희대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아버지의 육촌형제의 부인을 칭하는 호칭은?</t>
+  </si>
+  <si>
+    <t>B.  재당숙모</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 가요 "Sorry, Sorry"를 부른 가수는?</t>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 미국 대통령이 생활하는 관저의 이름은?</t>
+  </si>
+  <si>
+    <t>A.  자금성</t>
+  </si>
+  <si>
+    <t>B.  알함브라 궁전</t>
+  </si>
+  <si>
     <r>
       <t>C.  </t>
     </r>
@@ -12105,17 +12250,63 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>슈퍼주니어</t>
-    </r>
-  </si>
-  <si>
-    <t>2. 출연진들이 누워서 진행하는 방식의 프로그램을 일컫는 말은?</t>
-  </si>
-  <si>
-    <t>A.  날방</t>
-  </si>
-  <si>
-    <t>B.  막방</t>
+      <t>백악관</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 현재 세계 금융시장에서 기준이 되는 기축통화는?</t>
+  </si>
+  <si>
+    <t>A.  페소</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>달러</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  비트코인</t>
+  </si>
+  <si>
+    <t>3. 인터넷 상에서 타인에게 공격적이고 불쾌한 내용으로 화를 일으키게 하는 행위는?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>트롤링</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  구글링</t>
+  </si>
+  <si>
+    <t>C.  저글링</t>
+  </si>
+  <si>
+    <t>4. 정부 민원 안내 콜센터 전화번호는?</t>
+  </si>
+  <si>
+    <t>A.  911</t>
+  </si>
+  <si>
+    <t>B.  119</t>
   </si>
   <si>
     <r>
@@ -12128,14 +12319,71 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>눕방</t>
-    </r>
-  </si>
-  <si>
-    <t>3. 5월은 무슨 달일까?</t>
-  </si>
-  <si>
-    <t>A.  과학의 달</t>
+      <t>110</t>
+    </r>
+  </si>
+  <si>
+    <t>5. '스승의 은혜는 (   ) 같아서 (   ) 볼수록 높아만 지네' 빈칸에 들어갈 가사는?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>하늘, 우러러</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  바늘, 들여다</t>
+  </si>
+  <si>
+    <t>C.  구름, 바라다</t>
+  </si>
+  <si>
+    <t>6. 세계 각국의 대표 디저트와 나라가 잘못 연결된 것은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>푸딩 - 프랑스</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  츄러스 - 스페인</t>
+  </si>
+  <si>
+    <t>C.  에그타르트 - 포르투갈</t>
+  </si>
+  <si>
+    <t>7. 다음 중 그림 형제의 작품은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>이상한 나라의 앨리스</t>
+    </r>
   </si>
   <si>
     <r>
@@ -12148,18 +12396,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>가정의 달</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  호국 보훈의 달</t>
-  </si>
-  <si>
-    <t>4. 다음 중 고갈성 에너지가 아닌 것은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>백설공주</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  인어공주</t>
+  </si>
+  <si>
+    <t>8. 순 우리말은?</t>
+  </si>
+  <si>
+    <t>A.  임시방편</t>
+  </si>
+  <si>
+    <t>B.  야단법석</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -12168,21 +12422,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>수력</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  원자력</t>
-  </si>
-  <si>
-    <t>C.  천연가스</t>
-  </si>
-  <si>
-    <t>5. 뮤직뱅크의 전신으로 8~90년대 큰 사랑을 받았던 KBS의 대표 가요 프로그램은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>진절머리</t>
+    </r>
+  </si>
+  <si>
+    <t>9. 경제 5단체 중 하나로, 주로 노사문제를 전담하는 사용자 대표 단체는?</t>
+  </si>
+  <si>
+    <t>A.  한국 노동 조합 총연맹</t>
+  </si>
+  <si>
+    <t>B.  대한 상공 회의소</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -12191,21 +12445,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>가요톱텐</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  음악캠프</t>
-  </si>
-  <si>
-    <t>C.  인기가요 베스트50</t>
-  </si>
-  <si>
-    <t>6. 포유류가 아닌 동물은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>한국 경영자 총협회</t>
+    </r>
+  </si>
+  <si>
+    <t>10. '의복을 경우에 맞게 착용한다'의 줄임말인 T.P.O에서 O가 의미하는 단어는?</t>
+  </si>
+  <si>
+    <t>A.  Official</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -12214,24 +12465,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>악어</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  고래</t>
-  </si>
-  <si>
-    <t>C.  박쥐</t>
-  </si>
-  <si>
-    <t>7. 세계 최초로 MP3 플레이어를 개발한 나라는?</t>
-  </si>
-  <si>
-    <t>A.  독일</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>Occasion</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  Origin</t>
+  </si>
+  <si>
+    <t>11. 뉴욕 메리스트 칼리지가 발표한 지난 해 미국인들이 꼽은 가장 짜증나는 말은?</t>
+  </si>
+  <si>
+    <t>A.  No offense, but</t>
+  </si>
+  <si>
+    <t>B.  Fack news</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -12240,18 +12491,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>한국</t>
-    </r>
-  </si>
-  <si>
-    <t>8. 중국인의 숫자 8 사랑과 거리가 먼 것은?</t>
-  </si>
-  <si>
-    <t>A.  만리장성 기념비 높이</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>Whatever</t>
+    </r>
+  </si>
+  <si>
+    <t>12. 우리나라 영화 상영등급은 총 몇 개 등급일까?</t>
+  </si>
+  <si>
+    <t>A.  3등급</t>
+  </si>
+  <si>
+    <t>B.  4등급</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -12260,175 +12514,87 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>천안문 광장의 면적</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  베이징 올림픽 개막 일시</t>
-  </si>
-  <si>
-    <t>9. 국제연합 UN 공용어가 아닌 것은?</t>
-  </si>
-  <si>
-    <t>A.  러시아어</t>
-  </si>
-  <si>
-    <t>B.  스페인어</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>일본어</t>
-    </r>
-  </si>
-  <si>
-    <t>10. 새우가 들어간 태국식 커리의 이름은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>꿍팟퐁커리</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  무팟퐁커리</t>
-  </si>
-  <si>
-    <t>C.  푸팟퐁커리</t>
-  </si>
-  <si>
-    <t>11. 국내 최초로 대학 축제를 개최한 대학교는?</t>
-  </si>
-  <si>
-    <t>A.  중앙대학교</t>
-  </si>
-  <si>
-    <t>B.  한양대학교</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>경희대학교</t>
-    </r>
-  </si>
-  <si>
-    <t>12. 아버지의 육촌형제의 부인을 칭하는 호칭은?</t>
-  </si>
-  <si>
-    <t>A.  당숙모</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>재당숙모</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  종수</t>
-  </si>
-  <si>
-    <t>C.  슈퍼주니어</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 출연진들이 누워서 진행하는 방식의 프로그램을 일컫는 말은?</t>
-  </si>
-  <si>
-    <t>C.  눕방</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5월은 무슨 달일까?</t>
-  </si>
-  <si>
-    <t>B.  가정의 달</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다음 중 고갈성 에너지가 아닌 것은?</t>
-  </si>
-  <si>
-    <t>A.  수력</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뮤직뱅크의 전신으로 8~90년대 큰 사랑을 받았던 KBS의 대표 가요 프로그램은?</t>
-  </si>
-  <si>
-    <t>A.  가요톱텐</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 포유류가 아닌 동물은?</t>
-  </si>
-  <si>
-    <t>A.  악어</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세계 최초로 MP3 플레이어를 개발한 나라는?</t>
-  </si>
-  <si>
-    <t>B.  한국</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 중국인의 숫자 8 사랑과 거리가 먼 것은?</t>
-  </si>
-  <si>
-    <t>B.  천안문 광장의 면적</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 국제연합 UN 공용어가 아닌 것은?</t>
-  </si>
-  <si>
-    <t>C.  일본어</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 새우가 들어간 태국식 커리의 이름은?</t>
-  </si>
-  <si>
-    <t>A.  꿍팟퐁커리</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 국내 최초로 대학 축제를 개최한 대학교는?</t>
-  </si>
-  <si>
-    <t>C.  경희대학교</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아버지의 육촌형제의 부인을 칭하는 호칭은?</t>
-  </si>
-  <si>
-    <t>B.  재당숙모</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 가요 "Sorry, Sorry"를 부른 가수는?</t>
+      <t>5등급</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 미국 대통령이 생활하는 관저의 이름은?</t>
+  </si>
+  <si>
+    <t>C.  백악관</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 현재 세계 금융시장에서 기준이 되는 기축통화는?</t>
+  </si>
+  <si>
+    <t>B.  달러</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 인터넷 상에서 타인에게 공격적이고 불쾌한 내용으로 화를 일으키게 하는 행위는?</t>
+  </si>
+  <si>
+    <t>A.  트롤링</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정부 민원 안내 콜센터 전화번호는?</t>
+  </si>
+  <si>
+    <t>C.  110</t>
+  </si>
+  <si>
+    <t>A.  하늘, 우러러</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 세계 각국의 대표 디저트와 나라가 잘못 연결된 것은?</t>
+  </si>
+  <si>
+    <t>A.  푸딩 - 프랑스</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 그림 형제의 작품은?</t>
+  </si>
+  <si>
+    <t>A.  이상한 나라의 앨리스</t>
+  </si>
+  <si>
+    <t>B.  백설공주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 순 우리말은?</t>
+  </si>
+  <si>
+    <t>C.  진절머리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경제 5단체 중 하나로, 주로 노사문제를 전담하는 사용자 대표 단체는?</t>
+  </si>
+  <si>
+    <t>C.  한국 경영자 총협회</t>
+  </si>
+  <si>
+    <t>B.  Occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 뉴욕 메리스트 칼리지가 발표한 지난 해 미국인들이 꼽은 가장 짜증나는 말은?</t>
+  </si>
+  <si>
+    <t>C.  Whatever</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우리나라 영화 상영등급은 총 몇 개 등급일까?</t>
+  </si>
+  <si>
+    <t>C.  5등급</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "스승의 은혜는 (   ) 같아서 (   ) 볼수록 높아만 지네" 빈칸에 들어갈 가사는?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "의복을 경우에 맞게 착용한다"의 줄임말인 T.P.O에서 O가 의미하는 단어는?</t>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12959,10 +13125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J532"/>
+  <dimension ref="A1:J560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J521" sqref="J521:J532"/>
+    <sheetView tabSelected="1" topLeftCell="A517" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22306,15 +22472,15 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F323" s="12" t="str">
-        <f t="shared" ref="F323:F336" si="67">IF( IFERROR(FIND("A.",C323), 0) &gt; 0, TRIM(MID( C323, SEARCH("A.", C323)+2, 100)),TRIM(C323))</f>
+        <f t="shared" ref="F323:F335" si="67">IF( IFERROR(FIND("A.",C323), 0) &gt; 0, TRIM(MID( C323, SEARCH("A.", C323)+2, 100)),TRIM(C323))</f>
         <v/>
       </c>
       <c r="G323" s="12" t="str">
-        <f t="shared" ref="G323:G336" si="68">IF( IFERROR(FIND("B.",D323), 0) &gt; 0, TRIM(MID( D323, SEARCH("B.", D323)+2, 100)),TRIM(D323))</f>
+        <f t="shared" ref="G323:G335" si="68">IF( IFERROR(FIND("B.",D323), 0) &gt; 0, TRIM(MID( D323, SEARCH("B.", D323)+2, 100)),TRIM(D323))</f>
         <v/>
       </c>
       <c r="H323" s="18" t="str">
-        <f t="shared" ref="H323:H336" si="69">IF( IFERROR(FIND("C.",E323), 0) &gt; 0, TRIM(MID( E323, SEARCH("C.", E323)+2, 100)),TRIM(E323))</f>
+        <f t="shared" ref="H323:H335" si="69">IF( IFERROR(FIND("C.",E323), 0) &gt; 0, TRIM(MID( E323, SEARCH("C.", E323)+2, 100)),TRIM(E323))</f>
         <v/>
       </c>
     </row>
@@ -28839,16 +29005,16 @@
         <v>1</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1872</v>
+        <v>1848</v>
       </c>
       <c r="C521" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D521" s="3" t="s">
         <v>1803</v>
       </c>
-      <c r="D521" s="3" t="s">
-        <v>1804</v>
-      </c>
       <c r="E521" s="3" t="s">
-        <v>1849</v>
+        <v>1825</v>
       </c>
       <c r="F521" s="12" t="str">
         <f t="shared" si="123"/>
@@ -28875,16 +29041,16 @@
         <v>2</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1850</v>
+        <v>1826</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>1851</v>
+        <v>1827</v>
       </c>
       <c r="F522" s="12" t="str">
         <f t="shared" si="123"/>
@@ -28911,16 +29077,16 @@
         <v>3</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1852</v>
+        <v>1828</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>1853</v>
+        <v>1829</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="F523" s="12" t="str">
         <f t="shared" si="123"/>
@@ -28947,16 +29113,16 @@
         <v>4</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1854</v>
+        <v>1830</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1855</v>
+        <v>1831</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="E524" s="3" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="F524" s="12" t="str">
         <f t="shared" si="123"/>
@@ -28983,16 +29149,16 @@
         <v>5</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1856</v>
+        <v>1832</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1857</v>
+        <v>1833</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>1821</v>
+        <v>1811</v>
       </c>
       <c r="F525" s="12" t="str">
         <f t="shared" si="123"/>
@@ -29019,16 +29185,16 @@
         <v>6</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1858</v>
+        <v>1834</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1859</v>
+        <v>1835</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>1825</v>
+        <v>1813</v>
       </c>
       <c r="F526" s="12" t="str">
         <f t="shared" si="123"/>
@@ -29055,13 +29221,13 @@
         <v>7</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1860</v>
+        <v>1836</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1827</v>
+        <v>1814</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>1861</v>
+        <v>1837</v>
       </c>
       <c r="E527" s="3" t="s">
         <v>1662</v>
@@ -29091,16 +29257,16 @@
         <v>8</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1862</v>
+        <v>1838</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1830</v>
+        <v>1815</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>1863</v>
+        <v>1839</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>1832</v>
+        <v>1816</v>
       </c>
       <c r="F528" s="12" t="str">
         <f t="shared" si="123"/>
@@ -29127,16 +29293,16 @@
         <v>9</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1864</v>
+        <v>1840</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1834</v>
+        <v>1817</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>1835</v>
+        <v>1818</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>1865</v>
+        <v>1841</v>
       </c>
       <c r="F529" s="12" t="str">
         <f t="shared" si="123"/>
@@ -29163,16 +29329,16 @@
         <v>10</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1866</v>
+        <v>1842</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1867</v>
+        <v>1843</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>1839</v>
+        <v>1819</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="F530" s="12" t="str">
         <f t="shared" si="123"/>
@@ -29199,16 +29365,16 @@
         <v>11</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1868</v>
+        <v>1844</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1842</v>
+        <v>1821</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>1843</v>
+        <v>1822</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>1869</v>
+        <v>1845</v>
       </c>
       <c r="F531" s="12" t="str">
         <f t="shared" si="123"/>
@@ -29235,16 +29401,16 @@
         <v>12</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1870</v>
+        <v>1846</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1846</v>
+        <v>1823</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>1871</v>
+        <v>1847</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>1848</v>
+        <v>1824</v>
       </c>
       <c r="F532" s="12" t="str">
         <f t="shared" si="123"/>
@@ -29264,6 +29430,540 @@
       <c r="J532" t="str">
         <f t="shared" si="126"/>
         <v>(40,12,' 아버지의 육촌형제의 부인을 칭하는 호칭은?','  당숙모','  재당숙모','  종수',1),</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F533" s="12" t="str">
+        <f t="shared" ref="F533:F546" si="127">IF( IFERROR(FIND("A.",C533), 0) &gt; 0, TRIM(MID( C533, SEARCH("A.", C533)+2, 100)),TRIM(C533))</f>
+        <v/>
+      </c>
+      <c r="G533" s="12" t="str">
+        <f t="shared" ref="G533:G546" si="128">IF( IFERROR(FIND("B.",D533), 0) &gt; 0, TRIM(MID( D533, SEARCH("B.", D533)+2, 100)),TRIM(D533))</f>
+        <v/>
+      </c>
+      <c r="H533" s="18" t="str">
+        <f t="shared" ref="H533:H546" si="129">IF( IFERROR(FIND("C.",E533), 0) &gt; 0, TRIM(MID( E533, SEARCH("C.", E533)+2, 100)),TRIM(E533))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A534" s="2">
+        <v>43234.520833333336</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F534" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="G534" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="H534" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>1</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F535" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  자금성</v>
+      </c>
+      <c r="G535" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  알함브라 궁전</v>
+      </c>
+      <c r="H535" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  백악관</v>
+      </c>
+      <c r="I535" s="29">
+        <v>2</v>
+      </c>
+      <c r="J535" t="str">
+        <f>"("&amp;$B$534&amp;","&amp;A535&amp;",'"&amp;B535&amp;"','"&amp;F535&amp;"','"&amp;G535&amp;"','"&amp;H535&amp;"',"&amp;I535&amp;"),"</f>
+        <v>(41,1,' 미국 대통령이 생활하는 관저의 이름은?','  자금성','  알함브라 궁전','  백악관',2),</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>2</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F536" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  페소</v>
+      </c>
+      <c r="G536" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  달러</v>
+      </c>
+      <c r="H536" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  비트코인</v>
+      </c>
+      <c r="I536" s="29">
+        <v>1</v>
+      </c>
+      <c r="J536" t="str">
+        <f t="shared" ref="J536:J546" si="130">"("&amp;$B$534&amp;","&amp;A536&amp;",'"&amp;B536&amp;"','"&amp;F536&amp;"','"&amp;G536&amp;"','"&amp;H536&amp;"',"&amp;I536&amp;"),"</f>
+        <v>(41,2,' 현재 세계 금융시장에서 기준이 되는 기축통화는?','  페소','  달러','  비트코인',1),</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>3</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F537" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  트롤링</v>
+      </c>
+      <c r="G537" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  구글링</v>
+      </c>
+      <c r="H537" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  저글링</v>
+      </c>
+      <c r="I537" s="29">
+        <v>0</v>
+      </c>
+      <c r="J537" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,3,' 인터넷 상에서 타인에게 공격적이고 불쾌한 내용으로 화를 일으키게 하는 행위는?','  트롤링','  구글링','  저글링',0),</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>4</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F538" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  911</v>
+      </c>
+      <c r="G538" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  119</v>
+      </c>
+      <c r="H538" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  110</v>
+      </c>
+      <c r="I538" s="29">
+        <v>2</v>
+      </c>
+      <c r="J538" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,4,' 정부 민원 안내 콜센터 전화번호는?','  911','  119','  110',2),</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>5</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F539" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  하늘, 우러러</v>
+      </c>
+      <c r="G539" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  바늘, 들여다</v>
+      </c>
+      <c r="H539" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  구름, 바라다</v>
+      </c>
+      <c r="I539" s="29">
+        <v>0</v>
+      </c>
+      <c r="J539" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,5,' "스승의 은혜는 (   ) 같아서 (   ) 볼수록 높아만 지네" 빈칸에 들어갈 가사는?','  하늘, 우러러','  바늘, 들여다','  구름, 바라다',0),</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>6</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F540" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  푸딩 - 프랑스</v>
+      </c>
+      <c r="G540" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  츄러스 - 스페인</v>
+      </c>
+      <c r="H540" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  에그타르트 - 포르투갈</v>
+      </c>
+      <c r="I540" s="29">
+        <v>0</v>
+      </c>
+      <c r="J540" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,6,' 세계 각국의 대표 디저트와 나라가 잘못 연결된 것은?','  푸딩 - 프랑스','  츄러스 - 스페인','  에그타르트 - 포르투갈',0),</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>7</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F541" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  이상한 나라의 앨리스</v>
+      </c>
+      <c r="G541" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  백설공주</v>
+      </c>
+      <c r="H541" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  인어공주</v>
+      </c>
+      <c r="I541" s="29">
+        <v>1</v>
+      </c>
+      <c r="J541" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,7,' 다음 중 그림 형제의 작품은?','  이상한 나라의 앨리스','  백설공주','  인어공주',1),</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>8</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F542" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  임시방편</v>
+      </c>
+      <c r="G542" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  야단법석</v>
+      </c>
+      <c r="H542" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  진절머리</v>
+      </c>
+      <c r="I542" s="29">
+        <v>2</v>
+      </c>
+      <c r="J542" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,8,' 순 우리말은?','  임시방편','  야단법석','  진절머리',2),</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>9</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F543" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  한국 노동 조합 총연맹</v>
+      </c>
+      <c r="G543" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  대한 상공 회의소</v>
+      </c>
+      <c r="H543" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  한국 경영자 총협회</v>
+      </c>
+      <c r="I543" s="29">
+        <v>2</v>
+      </c>
+      <c r="J543" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,9,' 경제 5단체 중 하나로, 주로 노사문제를 전담하는 사용자 대표 단체는?','  한국 노동 조합 총연맹','  대한 상공 회의소','  한국 경영자 총협회',2),</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>10</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F544" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  Official</v>
+      </c>
+      <c r="G544" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  Occasion</v>
+      </c>
+      <c r="H544" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  Origin</v>
+      </c>
+      <c r="I544" s="29">
+        <v>1</v>
+      </c>
+      <c r="J544" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,10,' "의복을 경우에 맞게 착용한다"의 줄임말인 T.P.O에서 O가 의미하는 단어는?','  Official','  Occasion','  Origin',1),</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>11</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F545" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  No offense, but</v>
+      </c>
+      <c r="G545" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  Fack news</v>
+      </c>
+      <c r="H545" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  Whatever</v>
+      </c>
+      <c r="I545" s="29">
+        <v>2</v>
+      </c>
+      <c r="J545" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,11,' 뉴욕 메리스트 칼리지가 발표한 지난 해 미국인들이 꼽은 가장 짜증나는 말은?','  No offense, but','  Fack news','  Whatever',2),</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>12</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F546" s="12" t="str">
+        <f t="shared" si="127"/>
+        <v>  3등급</v>
+      </c>
+      <c r="G546" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>  4등급</v>
+      </c>
+      <c r="H546" s="18" t="str">
+        <f t="shared" si="129"/>
+        <v>  5등급</v>
+      </c>
+      <c r="I546" s="29">
+        <v>2</v>
+      </c>
+      <c r="J546" t="str">
+        <f t="shared" si="130"/>
+        <v>(41,12,' 우리나라 영화 상영등급은 총 몇 개 등급일까?','  3등급','  4등급','  5등급',2),</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A548" s="2">
+        <v>43235.520833333336</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -29289,24 +29989,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>1802</v>
+        <v>1850</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="str">
         <f>MID(A1, FIND("1.", A1) + 2, 9999)</f>
-        <v xml:space="preserve"> 가요 'Sorry, Sorry'를 부른 가수는?</v>
+        <v xml:space="preserve"> 미국 대통령이 생활하는 관저의 이름은?</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>A3</f>
-        <v>A.  슈퍼주인이여</v>
+        <v>A.  자금성</v>
       </c>
       <c r="E1" s="28" t="str">
         <f>A4</f>
-        <v>B.  슈퍼마리오</v>
+        <v>B.  알함브라 궁전</v>
       </c>
       <c r="F1" s="27" t="str">
         <f>A5</f>
-        <v>C.  슈퍼주니어</v>
+        <v>C.  백악관</v>
       </c>
       <c r="G1" s="29">
         <v>2</v>
@@ -29317,266 +30017,266 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="str">
         <f>MID(A8, FIND("2.", A8) + 2, 9999)</f>
-        <v xml:space="preserve"> 출연진들이 누워서 진행하는 방식의 프로그램을 일컫는 말은?</v>
+        <v xml:space="preserve"> 현재 세계 금융시장에서 기준이 되는 기축통화는?</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>A10</f>
-        <v>A.  날방</v>
-      </c>
-      <c r="E2" s="7" t="str">
+        <v>A.  페소</v>
+      </c>
+      <c r="E2" s="6" t="str">
         <f>A11</f>
-        <v>B.  막방</v>
-      </c>
-      <c r="F2" s="6" t="str">
+        <v>B.  달러</v>
+      </c>
+      <c r="F2" s="7" t="str">
         <f>A12</f>
-        <v>C.  눕방</v>
+        <v>C.  비트코인</v>
       </c>
       <c r="G2" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>1803</v>
+        <v>1851</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="str">
         <f>MID(A15, FIND("3.", A15) + 2, 9999)</f>
-        <v xml:space="preserve"> 5월은 무슨 달일까?</v>
-      </c>
-      <c r="D3" s="7" t="str">
+        <v xml:space="preserve"> 인터넷 상에서 타인에게 공격적이고 불쾌한 내용으로 화를 일으키게 하는 행위는?</v>
+      </c>
+      <c r="D3" s="6" t="str">
         <f>A17</f>
-        <v>A.  과학의 달</v>
-      </c>
-      <c r="E3" s="6" t="str">
+        <v>A.  트롤링</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>A18</f>
-        <v>B.  가정의 달</v>
+        <v>B.  구글링</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>A19</f>
-        <v>C.  호국 보훈의 달</v>
+        <v>C.  저글링</v>
       </c>
       <c r="G3" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>1804</v>
+        <v>1852</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="str">
         <f>MID(A22, FIND("4.", A22) + 2, 9999)</f>
-        <v xml:space="preserve"> 다음 중 고갈성 에너지가 아닌 것은?</v>
-      </c>
-      <c r="D4" s="6" t="str">
+        <v xml:space="preserve"> 정부 민원 안내 콜센터 전화번호는?</v>
+      </c>
+      <c r="D4" s="7" t="str">
         <f>A24</f>
-        <v>A.  수력</v>
+        <v>A.  911</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>A25</f>
-        <v>B.  원자력</v>
-      </c>
-      <c r="F4" s="7" t="str">
+        <v>B.  119</v>
+      </c>
+      <c r="F4" s="6" t="str">
         <f>A26</f>
-        <v>C.  천연가스</v>
+        <v>C.  110</v>
       </c>
       <c r="G4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>1805</v>
+        <v>1853</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="str">
         <f>MID(A29, FIND("5.", A29) + 2, 9999)</f>
-        <v xml:space="preserve"> 뮤직뱅크의 전신으로 8~90년대 큰 사랑을 받았던 KBS의 대표 가요 프로그램은?</v>
+        <v xml:space="preserve"> '스승의 은혜는 (   ) 같아서 (   ) 볼수록 높아만 지네' 빈칸에 들어갈 가사는?</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>A31</f>
-        <v>A.  가요톱텐</v>
+        <v>A.  하늘, 우러러</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>A32</f>
-        <v>B.  음악캠프</v>
+        <v>B.  바늘, 들여다</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>A33</f>
-        <v>C.  인기가요 베스트50</v>
+        <v>C.  구름, 바라다</v>
       </c>
       <c r="G5" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="str">
         <f>MID(A36, FIND("6.", A36) + 2, 9999)</f>
-        <v xml:space="preserve"> 포유류가 아닌 동물은?</v>
+        <v xml:space="preserve"> 세계 각국의 대표 디저트와 나라가 잘못 연결된 것은?</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>A38</f>
-        <v>A.  악어</v>
+        <v>A.  푸딩 - 프랑스</v>
       </c>
       <c r="E6" s="7" t="str">
         <f>A39</f>
-        <v>B.  고래</v>
+        <v>B.  츄러스 - 스페인</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>A40</f>
-        <v>C.  박쥐</v>
+        <v>C.  에그타르트 - 포르투갈</v>
       </c>
       <c r="G6" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="str">
         <f>MID(A43, FIND("7.", A43) + 2, 9999)</f>
-        <v xml:space="preserve"> 세계 최초로 MP3 플레이어를 개발한 나라는?</v>
+        <v xml:space="preserve"> 다음 중 그림 형제의 작품은?</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>A45</f>
-        <v>A.  독일</v>
+        <v>A.  이상한 나라의 앨리스</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>A46</f>
-        <v>B.  한국</v>
+        <v>B.  백설공주</v>
       </c>
       <c r="F7" s="7" t="str">
         <f>A47</f>
-        <v>C.  대만</v>
+        <v>C.  인어공주</v>
       </c>
       <c r="G7" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>1806</v>
+        <v>1854</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
         <f>MID(A50, FIND("8.", A50) + 2, 9999)</f>
-        <v xml:space="preserve"> 중국인의 숫자 8 사랑과 거리가 먼 것은?</v>
+        <v xml:space="preserve"> 순 우리말은?</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>A52</f>
-        <v>A.  만리장성 기념비 높이</v>
-      </c>
-      <c r="E8" s="6" t="str">
+        <v>A.  임시방편</v>
+      </c>
+      <c r="E8" s="7" t="str">
         <f>A53</f>
-        <v>B.  천안문 광장의 면적</v>
-      </c>
-      <c r="F8" s="7" t="str">
+        <v>B.  야단법석</v>
+      </c>
+      <c r="F8" s="6" t="str">
         <f>A54</f>
-        <v>C.  베이징 올림픽 개막 일시</v>
+        <v>C.  진절머리</v>
       </c>
       <c r="G8" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
         <f>MID(A57, FIND("9.", A57) + 2, 9999)</f>
-        <v xml:space="preserve"> 국제연합 UN 공용어가 아닌 것은?</v>
+        <v xml:space="preserve"> 경제 5단체 중 하나로, 주로 노사문제를 전담하는 사용자 대표 단체는?</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>A59</f>
-        <v>A.  러시아어</v>
+        <v>A.  한국 노동 조합 총연맹</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>A60</f>
-        <v>B.  스페인어</v>
+        <v>B.  대한 상공 회의소</v>
       </c>
       <c r="F9" s="6" t="str">
         <f>A61</f>
-        <v>C.  일본어</v>
+        <v>C.  한국 경영자 총협회</v>
       </c>
       <c r="G9" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>1807</v>
+        <v>1855</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
         <f>MID(A64, FIND("10.", A64) + 3, 9999)</f>
-        <v xml:space="preserve"> 새우가 들어간 태국식 커리의 이름은?</v>
-      </c>
-      <c r="D10" s="6" t="str">
+        <v xml:space="preserve"> '의복을 경우에 맞게 착용한다'의 줄임말인 T.P.O에서 O가 의미하는 단어는?</v>
+      </c>
+      <c r="D10" s="7" t="str">
         <f>A66</f>
-        <v>A.  꿍팟퐁커리</v>
-      </c>
-      <c r="E10" s="7" t="str">
+        <v>A.  Official</v>
+      </c>
+      <c r="E10" s="6" t="str">
         <f>A67</f>
-        <v>B.  무팟퐁커리</v>
+        <v>B.  Occasion</v>
       </c>
       <c r="F10" s="7" t="str">
         <f>A68</f>
-        <v>C.  푸팟퐁커리</v>
+        <v>C.  Origin</v>
       </c>
       <c r="G10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>1808</v>
+        <v>1856</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
         <f>MID(A71, FIND("11.", A71) + 3, 9999)</f>
-        <v xml:space="preserve"> 국내 최초로 대학 축제를 개최한 대학교는?</v>
+        <v xml:space="preserve"> 뉴욕 메리스트 칼리지가 발표한 지난 해 미국인들이 꼽은 가장 짜증나는 말은?</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>A73</f>
-        <v>A.  중앙대학교</v>
+        <v>A.  No offense, but</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>A74</f>
-        <v>B.  한양대학교</v>
+        <v>B.  Fack news</v>
       </c>
       <c r="F11" s="6" t="str">
         <f>A75</f>
-        <v>C.  경희대학교</v>
+        <v>C.  Whatever</v>
       </c>
       <c r="G11" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>1809</v>
+        <v>1857</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="str">
         <f>MID(A78, FIND("12.", A78) + 3, 9999)</f>
-        <v xml:space="preserve"> 아버지의 육촌형제의 부인을 칭하는 호칭은?</v>
+        <v xml:space="preserve"> 우리나라 영화 상영등급은 총 몇 개 등급일까?</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>A80</f>
-        <v>A.  당숙모</v>
-      </c>
-      <c r="E12" s="6" t="str">
+        <v>A.  3등급</v>
+      </c>
+      <c r="E12" s="7" t="str">
         <f>A81</f>
-        <v>B.  재당숙모</v>
-      </c>
-      <c r="F12" s="7" t="str">
+        <v>B.  4등급</v>
+      </c>
+      <c r="F12" s="6" t="str">
         <f>A82</f>
-        <v>C.  종수</v>
+        <v>C.  5등급</v>
       </c>
       <c r="G12" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -29585,9 +30285,9 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>1810</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -29595,17 +30295,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>1811</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>1812</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>1813</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -29616,7 +30316,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>1814</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -29624,17 +30324,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>1815</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>1816</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>1817</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -29643,9 +30343,9 @@
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>1818</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -29653,17 +30353,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>1819</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>1820</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>1821</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -29674,7 +30374,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>1822</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -29682,17 +30382,17 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>1823</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>1824</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>1825</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -29703,7 +30403,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>1826</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -29711,17 +30411,17 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>1827</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>1828</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>1662</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
@@ -29732,7 +30432,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>1829</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
@@ -29740,17 +30440,17 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
-        <v>1830</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
-        <v>1831</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
-        <v>1832</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
@@ -29761,7 +30461,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>1833</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
@@ -29769,17 +30469,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
-        <v>1834</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>1835</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
-        <v>1836</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
@@ -29788,9 +30488,9 @@
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>1837</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
@@ -29798,17 +30498,17 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
-        <v>1838</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>1839</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>1840</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -29817,9 +30517,9 @@
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>1841</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -29827,17 +30527,17 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
-        <v>1842</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>1843</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>1844</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
@@ -29848,7 +30548,7 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>1845</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -29856,17 +30556,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
-        <v>1846</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
-        <v>1847</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
-        <v>1848</v>
+        <v>1897</v>
       </c>
     </row>
   </sheetData>

--- a/nodejs_svr/doc/잼라이브 기출문제.xlsx
+++ b/nodejs_svr/doc/잼라이브 기출문제.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitProjects\jamlive_Git\jamlive\nodejs_svr\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitHubProject\jamlive_git\nodejs_svr\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="2016">
   <si>
     <t>서태지, 양현성, 이주노가 멤버로 있었던 1세대 힙합 아이돌 그룹의 이름은?</t>
   </si>
@@ -12231,15 +12231,330 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 미국 대통령이 생활하는 관저의 이름은?</t>
-  </si>
-  <si>
     <t>A.  자금성</t>
   </si>
   <si>
     <t>B.  알함브라 궁전</t>
   </si>
   <si>
+    <t>A.  페소</t>
+  </si>
+  <si>
+    <t>C.  비트코인</t>
+  </si>
+  <si>
+    <t>B.  구글링</t>
+  </si>
+  <si>
+    <t>C.  저글링</t>
+  </si>
+  <si>
+    <t>A.  911</t>
+  </si>
+  <si>
+    <t>B.  119</t>
+  </si>
+  <si>
+    <t>B.  바늘, 들여다</t>
+  </si>
+  <si>
+    <t>C.  구름, 바라다</t>
+  </si>
+  <si>
+    <t>B.  츄러스 - 스페인</t>
+  </si>
+  <si>
+    <t>C.  에그타르트 - 포르투갈</t>
+  </si>
+  <si>
+    <t>C.  인어공주</t>
+  </si>
+  <si>
+    <t>A.  임시방편</t>
+  </si>
+  <si>
+    <t>B.  야단법석</t>
+  </si>
+  <si>
+    <t>A.  한국 노동 조합 총연맹</t>
+  </si>
+  <si>
+    <t>B.  대한 상공 회의소</t>
+  </si>
+  <si>
+    <t>A.  Official</t>
+  </si>
+  <si>
+    <t>C.  Origin</t>
+  </si>
+  <si>
+    <t>A.  No offense, but</t>
+  </si>
+  <si>
+    <t>B.  Fack news</t>
+  </si>
+  <si>
+    <t>A.  3등급</t>
+  </si>
+  <si>
+    <t>B.  4등급</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 미국 대통령이 생활하는 관저의 이름은?</t>
+  </si>
+  <si>
+    <t>C.  백악관</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 현재 세계 금융시장에서 기준이 되는 기축통화는?</t>
+  </si>
+  <si>
+    <t>B.  달러</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 인터넷 상에서 타인에게 공격적이고 불쾌한 내용으로 화를 일으키게 하는 행위는?</t>
+  </si>
+  <si>
+    <t>A.  트롤링</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정부 민원 안내 콜센터 전화번호는?</t>
+  </si>
+  <si>
+    <t>C.  110</t>
+  </si>
+  <si>
+    <t>A.  하늘, 우러러</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 세계 각국의 대표 디저트와 나라가 잘못 연결된 것은?</t>
+  </si>
+  <si>
+    <t>A.  푸딩 - 프랑스</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 그림 형제의 작품은?</t>
+  </si>
+  <si>
+    <t>A.  이상한 나라의 앨리스</t>
+  </si>
+  <si>
+    <t>B.  백설공주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 순 우리말은?</t>
+  </si>
+  <si>
+    <t>C.  진절머리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경제 5단체 중 하나로, 주로 노사문제를 전담하는 사용자 대표 단체는?</t>
+  </si>
+  <si>
+    <t>C.  한국 경영자 총협회</t>
+  </si>
+  <si>
+    <t>B.  Occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 뉴욕 메리스트 칼리지가 발표한 지난 해 미국인들이 꼽은 가장 짜증나는 말은?</t>
+  </si>
+  <si>
+    <t>C.  Whatever</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우리나라 영화 상영등급은 총 몇 개 등급일까?</t>
+  </si>
+  <si>
+    <t>C.  5등급</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "스승의 은혜는 (   ) 같아서 (   ) 볼수록 높아만 지네" 빈칸에 들어갈 가사는?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "의복을 경우에 맞게 착용한다"의 줄임말인 T.P.O에서 O가 의미하는 단어는?</t>
+  </si>
+  <si>
+    <t>A.  CokeLIVE</t>
+  </si>
+  <si>
+    <t>B.  CokeSTAR</t>
+  </si>
+  <si>
+    <t>A.  치커리</t>
+  </si>
+  <si>
+    <t>C.  샐러리</t>
+  </si>
+  <si>
+    <t>B.  실증</t>
+  </si>
+  <si>
+    <t>C.  허언증</t>
+  </si>
+  <si>
+    <t>A.  북극곰의 개체수 감소</t>
+  </si>
+  <si>
+    <t>B.  사막화의 촉진</t>
+  </si>
+  <si>
+    <t>A.  모델은 방탄소년단이다.</t>
+  </si>
+  <si>
+    <t>B.  2018 러시아월드컵 공식 파트너다.</t>
+  </si>
+  <si>
+    <t>A.  터져볼래? 블링블링!</t>
+  </si>
+  <si>
+    <t>C.  맞아볼래? 상큼하게!</t>
+  </si>
+  <si>
+    <t>A.  환타 +C레몬</t>
+  </si>
+  <si>
+    <t>C.  환타 젤리소다</t>
+  </si>
+  <si>
+    <t>A.  마딛따</t>
+  </si>
+  <si>
+    <t>B.  마싣따</t>
+  </si>
+  <si>
+    <t>A.  8가지</t>
+  </si>
+  <si>
+    <t>C.  12가지</t>
+  </si>
+  <si>
+    <t>B.  퍼플스톰</t>
+  </si>
+  <si>
+    <t>C.  마운틴블러스트</t>
+  </si>
+  <si>
+    <t>A.  리본보틀</t>
+  </si>
+  <si>
+    <t>C.  커브드보틀</t>
+  </si>
+  <si>
+    <t>B.  Asian wave</t>
+  </si>
+  <si>
+    <t>C.  British wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 코카-콜라에서 운영하는 음료 멤버십 앱의 이름은?</t>
+  </si>
+  <si>
+    <t>C.  CokePLAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 샐러드용 채소가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>B.  들러리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 몸 안에 수분이 부족해 수분 섭취를 갈구하는 상태를 뜻하는 말은?</t>
+  </si>
+  <si>
+    <t>A.  갈증</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 지구온난화의 징후와 거리가 먼 것은?</t>
+  </si>
+  <si>
+    <t>C.  태풍 발생 감소</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 영상 내용과 일치하지 않는 것은? (방탄소년단의 코카콜라 광고 영상이 나왔어요)</t>
+  </si>
+  <si>
+    <t>C.  모두 캔콜라를 들고있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 미닛메이드 스파클링 광고에서 마동석이 하는 말로 옳은 것은?</t>
+  </si>
+  <si>
+    <t>B.  터져볼래? 상큼하게!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 환타 제품 중 출시되지 않은 제품은?</t>
+  </si>
+  <si>
+    <t>B.  환타 트위스트</t>
+  </si>
+  <si>
+    <t>C.  둘다 맞다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 토레타에 함유된 과채 수분은 몇 가지일까?</t>
+  </si>
+  <si>
+    <t>B.  10가지</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 파워에이드의 종류가 아닌것은?</t>
+  </si>
+  <si>
+    <t>A.  익스트림</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다른 음료와 확연하게 구별되는 코카-콜라만의 병 디자인의 이름은?</t>
+  </si>
+  <si>
+    <t>B.  컨투어보틀</t>
+  </si>
+  <si>
+    <t>A.  Mexican wave</t>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "맛있다"의 올바른 발음은?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 영국에서는 파도타기응원을 "이것" 이라고 부른다. "이것"은 무엇인가?</t>
+  </si>
+  <si>
+    <t>1. P2P 등 온라인을 통해 영리적 목적으로 불법 저작물을 전송해 이득을 챙기는 사람은?</t>
+  </si>
+  <si>
+    <t>A.  헤비메탈</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>헤비업로더</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  헤비급챔피언</t>
+  </si>
+  <si>
+    <t>2. '독백' 또는'솔리로퀴'와 같은 의미의 단어는?</t>
+  </si>
+  <si>
+    <t>A.  에필로그</t>
+  </si>
+  <si>
+    <t>B.  프롤로그</t>
+  </si>
+  <si>
     <r>
       <t>C.  </t>
     </r>
@@ -12250,14 +12565,140 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>백악관</t>
-    </r>
-  </si>
-  <si>
-    <t>2. 현재 세계 금융시장에서 기준이 되는 기축통화는?</t>
-  </si>
-  <si>
-    <t>A.  페소</t>
+      <t>모놀로그</t>
+    </r>
+  </si>
+  <si>
+    <t>3. 지구 대기의 약 78% 정도를 차지하는 지구 생명체의 구성 성분은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>질소</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  이산화탄소</t>
+  </si>
+  <si>
+    <t>4. 서양식 테이블 매너로 올바른 것은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>식사시 냅킨을 무릎에 올린다</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  왼쪽에 있는 물잔을마신다</t>
+  </si>
+  <si>
+    <t>C.  포크와 나이프는 안쪽 것부터 사용한다</t>
+  </si>
+  <si>
+    <t>5. 성년의 날은 매년 5월 (   ) 월요일이다.</t>
+  </si>
+  <si>
+    <t>A.  첫째 주</t>
+  </si>
+  <si>
+    <t>B.  둘째 주</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>셋째 주</t>
+    </r>
+  </si>
+  <si>
+    <t>6. 한국과 국교를 수립한 최초의 공산주의 국가는?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>헝가리</t>
+    </r>
+  </si>
+  <si>
+    <t>7. 90년대 후반부터 방영돼 전 국민적인 사랑을 받았던 'SBS 시트콤'은?</t>
+  </si>
+  <si>
+    <t>A.  올드미스다이어리</t>
+  </si>
+  <si>
+    <t>B.  남자셋여자셋</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>순풍산부인과</t>
+    </r>
+  </si>
+  <si>
+    <t>8. 대표적인 스포츠 의류 브랜드 아디다스는 어느 나라의 브랜드일까?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>독일</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  캐나다</t>
+  </si>
+  <si>
+    <t>9. 다음 음식 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
+  </si>
+  <si>
+    <t>A.  시저 샐러드</t>
   </si>
   <si>
     <r>
@@ -12270,18 +12711,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>달러</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  비트코인</t>
-  </si>
-  <si>
-    <t>3. 인터넷 상에서 타인에게 공격적이고 불쾌한 내용으로 화를 일으키게 하는 행위는?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>버펄로 윙</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  에그 베네딕트</t>
+  </si>
+  <si>
+    <t>10. 다음 프로그래밍 언어 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
+  </si>
+  <si>
+    <t>A.  리눅스</t>
+  </si>
+  <si>
+    <t>B.  파스칼</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -12290,27 +12737,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>트롤링</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  구글링</t>
-  </si>
-  <si>
-    <t>C.  저글링</t>
-  </si>
-  <si>
-    <t>4. 정부 민원 안내 콜센터 전화번호는?</t>
-  </si>
-  <si>
-    <t>A.  911</t>
-  </si>
-  <si>
-    <t>B.  119</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
+      <t>자바</t>
+    </r>
+  </si>
+  <si>
+    <t>11. 뮤지컬 &lt;그리스&gt;에서 그리스가 뜻하는 것은?</t>
+  </si>
+  <si>
+    <t>A.  자유 </t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -12319,15 +12757,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>110</t>
-    </r>
-  </si>
-  <si>
-    <t>5. '스승의 은혜는 (   ) 같아서 (   ) 볼수록 높아만 지네' 빈칸에 들어갈 가사는?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>기름</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  나라이름</t>
+  </si>
+  <si>
+    <t>12. 희토류가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>A.  니켈</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -12336,271 +12780,93 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>하늘, 우러러</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  바늘, 들여다</t>
-  </si>
-  <si>
-    <t>C.  구름, 바라다</t>
-  </si>
-  <si>
-    <t>6. 세계 각국의 대표 디저트와 나라가 잘못 연결된 것은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>푸딩 - 프랑스</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  츄러스 - 스페인</t>
-  </si>
-  <si>
-    <t>C.  에그타르트 - 포르투갈</t>
-  </si>
-  <si>
-    <t>7. 다음 중 그림 형제의 작품은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>이상한 나라의 앨리스</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>백설공주</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  인어공주</t>
-  </si>
-  <si>
-    <t>8. 순 우리말은?</t>
-  </si>
-  <si>
-    <t>A.  임시방편</t>
-  </si>
-  <si>
-    <t>B.  야단법석</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>진절머리</t>
-    </r>
-  </si>
-  <si>
-    <t>9. 경제 5단체 중 하나로, 주로 노사문제를 전담하는 사용자 대표 단체는?</t>
-  </si>
-  <si>
-    <t>A.  한국 노동 조합 총연맹</t>
-  </si>
-  <si>
-    <t>B.  대한 상공 회의소</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>한국 경영자 총협회</t>
-    </r>
-  </si>
-  <si>
-    <t>10. '의복을 경우에 맞게 착용한다'의 줄임말인 T.P.O에서 O가 의미하는 단어는?</t>
-  </si>
-  <si>
-    <t>A.  Official</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Occasion</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  Origin</t>
-  </si>
-  <si>
-    <t>11. 뉴욕 메리스트 칼리지가 발표한 지난 해 미국인들이 꼽은 가장 짜증나는 말은?</t>
-  </si>
-  <si>
-    <t>A.  No offense, but</t>
-  </si>
-  <si>
-    <t>B.  Fack news</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Whatever</t>
-    </r>
-  </si>
-  <si>
-    <t>12. 우리나라 영화 상영등급은 총 몇 개 등급일까?</t>
-  </si>
-  <si>
-    <t>A.  3등급</t>
-  </si>
-  <si>
-    <t>B.  4등급</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5등급</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 미국 대통령이 생활하는 관저의 이름은?</t>
-  </si>
-  <si>
-    <t>C.  백악관</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 현재 세계 금융시장에서 기준이 되는 기축통화는?</t>
-  </si>
-  <si>
-    <t>B.  달러</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 인터넷 상에서 타인에게 공격적이고 불쾌한 내용으로 화를 일으키게 하는 행위는?</t>
-  </si>
-  <si>
-    <t>A.  트롤링</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 정부 민원 안내 콜센터 전화번호는?</t>
-  </si>
-  <si>
-    <t>C.  110</t>
-  </si>
-  <si>
-    <t>A.  하늘, 우러러</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세계 각국의 대표 디저트와 나라가 잘못 연결된 것은?</t>
-  </si>
-  <si>
-    <t>A.  푸딩 - 프랑스</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다음 중 그림 형제의 작품은?</t>
-  </si>
-  <si>
-    <t>A.  이상한 나라의 앨리스</t>
-  </si>
-  <si>
-    <t>B.  백설공주</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 순 우리말은?</t>
-  </si>
-  <si>
-    <t>C.  진절머리</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 경제 5단체 중 하나로, 주로 노사문제를 전담하는 사용자 대표 단체는?</t>
-  </si>
-  <si>
-    <t>C.  한국 경영자 총협회</t>
-  </si>
-  <si>
-    <t>B.  Occasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뉴욕 메리스트 칼리지가 발표한 지난 해 미국인들이 꼽은 가장 짜증나는 말은?</t>
-  </si>
-  <si>
-    <t>C.  Whatever</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 우리나라 영화 상영등급은 총 몇 개 등급일까?</t>
-  </si>
-  <si>
-    <t>C.  5등급</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "스승의 은혜는 (   ) 같아서 (   ) 볼수록 높아만 지네" 빈칸에 들어갈 가사는?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "의복을 경우에 맞게 착용한다"의 줄임말인 T.P.O에서 O가 의미하는 단어는?</t>
-  </si>
-  <si>
-    <t>42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>구리</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  우라늄</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P2P 등 온라인을 통해 영리적 목적으로 불법 저작물을 전송해 이득을 챙기는 사람은?</t>
+  </si>
+  <si>
+    <t>B.  헤비업로더</t>
+  </si>
+  <si>
+    <t>C.  모놀로그</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 지구 대기의 약 78% 정도를 차지하는 지구 생명체의 구성 성분은?</t>
+  </si>
+  <si>
+    <t>A.  질소</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서양식 테이블 매너로 올바른 것은?</t>
+  </si>
+  <si>
+    <t>A.  식사시 냅킨을 무릎에 올린다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 성년의 날은 매년 5월 (   ) 월요일이다.</t>
+  </si>
+  <si>
+    <t>C.  셋째 주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한국과 국교를 수립한 최초의 공산주의 국가는?</t>
+  </si>
+  <si>
+    <t>A.  헝가리</t>
+  </si>
+  <si>
+    <t>C.  순풍산부인과</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대표적인 스포츠 의류 브랜드 아디다스는 어느 나라의 브랜드일까?</t>
+  </si>
+  <si>
+    <t>A.  독일</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 음식 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
+  </si>
+  <si>
+    <t>B.  버펄로 윙</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 프로그래밍 언어 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
+  </si>
+  <si>
+    <t>C.  자바</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 뮤지컬 &lt;그리스&gt;에서 그리스가 뜻하는 것은?</t>
+  </si>
+  <si>
+    <t>B.  기름</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 희토류가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>B.  구리</t>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "독백" 또는"솔리로퀴"와 같은 의미의 단어는?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90년대 후반부터 방영돼 전 국민적인 사랑을 받았던 "SBS 시트콤"은?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -13125,10 +13391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J560"/>
+  <dimension ref="A1:J574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B549" sqref="B549"/>
+    <sheetView tabSelected="1" topLeftCell="A532" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G570" sqref="G570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29471,16 +29737,16 @@
         <v>1</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1898</v>
+        <v>1873</v>
       </c>
       <c r="C535" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D535" s="3" t="s">
         <v>1851</v>
       </c>
-      <c r="D535" s="3" t="s">
-        <v>1852</v>
-      </c>
       <c r="E535" s="3" t="s">
-        <v>1899</v>
+        <v>1874</v>
       </c>
       <c r="F535" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29507,16 +29773,16 @@
         <v>2</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1900</v>
+        <v>1875</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>1901</v>
+        <v>1876</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="F536" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29543,16 +29809,16 @@
         <v>3</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1902</v>
+        <v>1877</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1903</v>
+        <v>1878</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="F537" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29579,16 +29845,16 @@
         <v>4</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1904</v>
+        <v>1879</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>1905</v>
+        <v>1880</v>
       </c>
       <c r="F538" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29615,16 +29881,16 @@
         <v>5</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1921</v>
+        <v>1896</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1906</v>
+        <v>1881</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>1868</v>
+        <v>1858</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>1869</v>
+        <v>1859</v>
       </c>
       <c r="F539" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29651,16 +29917,16 @@
         <v>6</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1907</v>
+        <v>1882</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1908</v>
+        <v>1883</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>1872</v>
+        <v>1860</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
       <c r="F540" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29687,16 +29953,16 @@
         <v>7</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1909</v>
+        <v>1884</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1910</v>
+        <v>1885</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>1911</v>
+        <v>1886</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>1877</v>
+        <v>1862</v>
       </c>
       <c r="F541" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29723,16 +29989,16 @@
         <v>8</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1912</v>
+        <v>1887</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1879</v>
+        <v>1863</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>1880</v>
+        <v>1864</v>
       </c>
       <c r="E542" s="3" t="s">
-        <v>1913</v>
+        <v>1888</v>
       </c>
       <c r="F542" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29759,16 +30025,16 @@
         <v>9</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1914</v>
+        <v>1889</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1883</v>
+        <v>1865</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>1884</v>
+        <v>1866</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>1915</v>
+        <v>1890</v>
       </c>
       <c r="F543" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29795,16 +30061,16 @@
         <v>10</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1922</v>
+        <v>1897</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1887</v>
+        <v>1867</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>1916</v>
+        <v>1891</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>1889</v>
+        <v>1868</v>
       </c>
       <c r="F544" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29831,16 +30097,16 @@
         <v>11</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1917</v>
+        <v>1892</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1891</v>
+        <v>1869</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>1892</v>
+        <v>1870</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>1918</v>
+        <v>1893</v>
       </c>
       <c r="F545" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29867,16 +30133,16 @@
         <v>12</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1919</v>
+        <v>1894</v>
       </c>
       <c r="C546" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E546" s="3" t="s">
         <v>1895</v>
-      </c>
-      <c r="D546" s="3" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E546" s="3" t="s">
-        <v>1920</v>
       </c>
       <c r="F546" s="12" t="str">
         <f t="shared" si="127"/>
@@ -29898,72 +30164,936 @@
         <v>(41,12,' 우리나라 영화 상영등급은 총 몇 개 등급일까?','  3등급','  4등급','  5등급',2),</v>
       </c>
     </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F547" s="12" t="str">
+        <f t="shared" ref="F547:F560" si="131">IF( IFERROR(FIND("A.",C547), 0) &gt; 0, TRIM(MID( C547, SEARCH("A.", C547)+2, 100)),TRIM(C547))</f>
+        <v/>
+      </c>
+      <c r="G547" s="12" t="str">
+        <f t="shared" ref="G547:G560" si="132">IF( IFERROR(FIND("B.",D547), 0) &gt; 0, TRIM(MID( D547, SEARCH("B.", D547)+2, 100)),TRIM(D547))</f>
+        <v/>
+      </c>
+      <c r="H547" s="18" t="str">
+        <f t="shared" ref="H547:H560" si="133">IF( IFERROR(FIND("C.",E547), 0) &gt; 0, TRIM(MID( E547, SEARCH("C.", E547)+2, 100)),TRIM(E547))</f>
+        <v/>
+      </c>
+    </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
-        <v>43235.520833333336</v>
+        <v>43240.833333333336</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1923</v>
+        <v>1944</v>
+      </c>
+      <c r="F548" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="G548" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="H548" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v/>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>1</v>
       </c>
+      <c r="B549" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F549" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  CokeLIVE</v>
+      </c>
+      <c r="G549" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  CokeSTAR</v>
+      </c>
+      <c r="H549" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  CokePLAY</v>
+      </c>
+      <c r="I549" s="29">
+        <v>2</v>
+      </c>
+      <c r="J549" t="str">
+        <f>"("&amp;$B$548&amp;","&amp;A549&amp;",'"&amp;B549&amp;"','"&amp;F549&amp;"','"&amp;G549&amp;"','"&amp;H549&amp;"',"&amp;I549&amp;"),"</f>
+        <v>(48,1,' 코카-콜라에서 운영하는 음료 멤버십 앱의 이름은?','  CokeLIVE','  CokeSTAR','  CokePLAY',2),</v>
+      </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2</v>
       </c>
+      <c r="B550" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F550" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  치커리</v>
+      </c>
+      <c r="G550" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  들러리</v>
+      </c>
+      <c r="H550" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  샐러리</v>
+      </c>
+      <c r="I550" s="29">
+        <v>1</v>
+      </c>
+      <c r="J550" t="str">
+        <f t="shared" ref="J550:J560" si="134">"("&amp;$B$548&amp;","&amp;A550&amp;",'"&amp;B550&amp;"','"&amp;F550&amp;"','"&amp;G550&amp;"','"&amp;H550&amp;"',"&amp;I550&amp;"),"</f>
+        <v>(48,2,' 샐러드용 채소가 아닌 것은?','  치커리','  들러리','  샐러리',1),</v>
+      </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>3</v>
       </c>
+      <c r="B551" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F551" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  갈증</v>
+      </c>
+      <c r="G551" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  실증</v>
+      </c>
+      <c r="H551" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  허언증</v>
+      </c>
+      <c r="I551" s="29">
+        <v>0</v>
+      </c>
+      <c r="J551" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,3,' 몸 안에 수분이 부족해 수분 섭취를 갈구하는 상태를 뜻하는 말은?','  갈증','  실증','  허언증',0),</v>
+      </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>4</v>
       </c>
+      <c r="B552" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F552" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  북극곰의 개체수 감소</v>
+      </c>
+      <c r="G552" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  사막화의 촉진</v>
+      </c>
+      <c r="H552" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  태풍 발생 감소</v>
+      </c>
+      <c r="I552" s="29">
+        <v>2</v>
+      </c>
+      <c r="J552" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,4,' 지구온난화의 징후와 거리가 먼 것은?','  북극곰의 개체수 감소','  사막화의 촉진','  태풍 발생 감소',2),</v>
+      </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>5</v>
       </c>
+      <c r="B553" s="3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F553" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  모델은 방탄소년단이다.</v>
+      </c>
+      <c r="G553" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  2018 러시아월드컵 공식 파트너다.</v>
+      </c>
+      <c r="H553" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  모두 캔콜라를 들고있다.</v>
+      </c>
+      <c r="I553" s="29">
+        <v>2</v>
+      </c>
+      <c r="J553" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,5,' 영상 내용과 일치하지 않는 것은? (방탄소년단의 코카콜라 광고 영상이 나왔어요)','  모델은 방탄소년단이다.','  2018 러시아월드컵 공식 파트너다.','  모두 캔콜라를 들고있다.',2),</v>
+      </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>6</v>
       </c>
+      <c r="B554" s="3" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F554" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  터져볼래? 블링블링!</v>
+      </c>
+      <c r="G554" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  터져볼래? 상큼하게!</v>
+      </c>
+      <c r="H554" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  맞아볼래? 상큼하게!</v>
+      </c>
+      <c r="I554" s="29">
+        <v>1</v>
+      </c>
+      <c r="J554" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,6,' 미닛메이드 스파클링 광고에서 마동석이 하는 말로 옳은 것은?','  터져볼래? 블링블링!','  터져볼래? 상큼하게!','  맞아볼래? 상큼하게!',1),</v>
+      </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>7</v>
       </c>
+      <c r="B555" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F555" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  환타 +C레몬</v>
+      </c>
+      <c r="G555" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  환타 트위스트</v>
+      </c>
+      <c r="H555" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  환타 젤리소다</v>
+      </c>
+      <c r="I555" s="29">
+        <v>1</v>
+      </c>
+      <c r="J555" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,7,' 다음 환타 제품 중 출시되지 않은 제품은?','  환타 +C레몬','  환타 트위스트','  환타 젤리소다',1),</v>
+      </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>8</v>
       </c>
+      <c r="B556" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F556" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  마딛따</v>
+      </c>
+      <c r="G556" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  마싣따</v>
+      </c>
+      <c r="H556" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  둘다 맞다</v>
+      </c>
+      <c r="I556" s="29">
+        <v>2</v>
+      </c>
+      <c r="J556" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,8,' "맛있다"의 올바른 발음은?','  마딛따','  마싣따','  둘다 맞다',2),</v>
+      </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>9</v>
       </c>
+      <c r="B557" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F557" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  8가지</v>
+      </c>
+      <c r="G557" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  10가지</v>
+      </c>
+      <c r="H557" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  12가지</v>
+      </c>
+      <c r="I557" s="29">
+        <v>1</v>
+      </c>
+      <c r="J557" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,9,' 토레타에 함유된 과채 수분은 몇 가지일까?','  8가지','  10가지','  12가지',1),</v>
+      </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>10</v>
       </c>
+      <c r="B558" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F558" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  익스트림</v>
+      </c>
+      <c r="G558" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  퍼플스톰</v>
+      </c>
+      <c r="H558" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  마운틴블러스트</v>
+      </c>
+      <c r="I558" s="29">
+        <v>0</v>
+      </c>
+      <c r="J558" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,10,' 파워에이드의 종류가 아닌것은?','  익스트림','  퍼플스톰','  마운틴블러스트',0),</v>
+      </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>11</v>
       </c>
+      <c r="B559" s="3" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F559" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  리본보틀</v>
+      </c>
+      <c r="G559" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  컨투어보틀</v>
+      </c>
+      <c r="H559" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  커브드보틀</v>
+      </c>
+      <c r="I559" s="29">
+        <v>1</v>
+      </c>
+      <c r="J559" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,11,' 다른 음료와 확연하게 구별되는 코카-콜라만의 병 디자인의 이름은?','  리본보틀','  컨투어보틀','  커브드보틀',1),</v>
+      </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>12</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F560" s="12" t="str">
+        <f t="shared" si="131"/>
+        <v>  Mexican wave</v>
+      </c>
+      <c r="G560" s="12" t="str">
+        <f t="shared" si="132"/>
+        <v>  Asian wave</v>
+      </c>
+      <c r="H560" s="18" t="str">
+        <f t="shared" si="133"/>
+        <v>  British wave</v>
+      </c>
+      <c r="I560" s="29">
+        <v>0</v>
+      </c>
+      <c r="J560" t="str">
+        <f t="shared" si="134"/>
+        <v>(48,12,' 영국에서는 파도타기응원을 "이것" 이라고 부른다. "이것"은 무엇인가?','  Mexican wave','  Asian wave','  British wave',0),</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F561" s="12" t="str">
+        <f t="shared" ref="F561:F574" si="135">IF( IFERROR(FIND("A.",C561), 0) &gt; 0, TRIM(MID( C561, SEARCH("A.", C561)+2, 100)),TRIM(C561))</f>
+        <v/>
+      </c>
+      <c r="G561" s="12" t="str">
+        <f t="shared" ref="G561:G574" si="136">IF( IFERROR(FIND("B.",D561), 0) &gt; 0, TRIM(MID( D561, SEARCH("B.", D561)+2, 100)),TRIM(D561))</f>
+        <v/>
+      </c>
+      <c r="H561" s="18" t="str">
+        <f t="shared" ref="H561:H574" si="137">IF( IFERROR(FIND("C.",E561), 0) &gt; 0, TRIM(MID( E561, SEARCH("C.", E561)+2, 100)),TRIM(E561))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A562" s="2">
+        <v>43241.520833333336</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F562" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="G562" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v/>
+      </c>
+      <c r="H562" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v/>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>1</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F563" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  헤비메탈</v>
+      </c>
+      <c r="G563" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  헤비업로더</v>
+      </c>
+      <c r="H563" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  헤비급챔피언</v>
+      </c>
+      <c r="I563" s="29">
+        <v>1</v>
+      </c>
+      <c r="J563" t="str">
+        <f>"("&amp;$B$562&amp;","&amp;A563&amp;",'"&amp;B563&amp;"','"&amp;F563&amp;"','"&amp;G563&amp;"','"&amp;H563&amp;"',"&amp;I563&amp;"),"</f>
+        <v>(49,1,' P2P 등 온라인을 통해 영리적 목적으로 불법 저작물을 전송해 이득을 챙기는 사람은?','  헤비메탈','  헤비업로더','  헤비급챔피언',1),</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>2</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F564" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  에필로그</v>
+      </c>
+      <c r="G564" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  프롤로그</v>
+      </c>
+      <c r="H564" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  모놀로그</v>
+      </c>
+      <c r="I564" s="29">
+        <v>2</v>
+      </c>
+      <c r="J564" t="str">
+        <f t="shared" ref="J564:J574" si="138">"("&amp;$B$562&amp;","&amp;A564&amp;",'"&amp;B564&amp;"','"&amp;F564&amp;"','"&amp;G564&amp;"','"&amp;H564&amp;"',"&amp;I564&amp;"),"</f>
+        <v>(49,2,' "독백" 또는"솔리로퀴"와 같은 의미의 단어는?','  에필로그','  프롤로그','  모놀로그',2),</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>3</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="F565" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  질소</v>
+      </c>
+      <c r="G565" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  이산화탄소</v>
+      </c>
+      <c r="H565" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  수소</v>
+      </c>
+      <c r="I565" s="29">
+        <v>0</v>
+      </c>
+      <c r="J565" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,3,' 지구 대기의 약 78% 정도를 차지하는 지구 생명체의 구성 성분은?','  질소','  이산화탄소','  수소',0),</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>4</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F566" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  식사시 냅킨을 무릎에 올린다</v>
+      </c>
+      <c r="G566" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  왼쪽에 있는 물잔을마신다</v>
+      </c>
+      <c r="H566" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  포크와 나이프는 안쪽 것부터 사용한다</v>
+      </c>
+      <c r="I566" s="29">
+        <v>0</v>
+      </c>
+      <c r="J566" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,4,' 서양식 테이블 매너로 올바른 것은?','  식사시 냅킨을 무릎에 올린다','  왼쪽에 있는 물잔을마신다','  포크와 나이프는 안쪽 것부터 사용한다',0),</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>5</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F567" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  첫째 주</v>
+      </c>
+      <c r="G567" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  둘째 주</v>
+      </c>
+      <c r="H567" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  셋째 주</v>
+      </c>
+      <c r="I567" s="29">
+        <v>2</v>
+      </c>
+      <c r="J567" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,5,' 성년의 날은 매년 5월 (   ) 월요일이다.','  첫째 주','  둘째 주','  셋째 주',2),</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>6</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F568" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  헝가리</v>
+      </c>
+      <c r="G568" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  중국</v>
+      </c>
+      <c r="H568" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  북한</v>
+      </c>
+      <c r="I568" s="29">
+        <v>0</v>
+      </c>
+      <c r="J568" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,6,' 한국과 국교를 수립한 최초의 공산주의 국가는?','  헝가리','  중국','  북한',0),</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>7</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F569" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  올드미스다이어리</v>
+      </c>
+      <c r="G569" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  남자셋여자셋</v>
+      </c>
+      <c r="H569" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  순풍산부인과</v>
+      </c>
+      <c r="I569" s="29">
+        <v>2</v>
+      </c>
+      <c r="J569" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,7,' 90년대 후반부터 방영돼 전 국민적인 사랑을 받았던 "SBS 시트콤"은?','  올드미스다이어리','  남자셋여자셋','  순풍산부인과',2),</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>8</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F570" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  독일</v>
+      </c>
+      <c r="G570" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  캐나다</v>
+      </c>
+      <c r="H570" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  미국</v>
+      </c>
+      <c r="I570" s="29">
+        <v>0</v>
+      </c>
+      <c r="J570" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,8,' 대표적인 스포츠 의류 브랜드 아디다스는 어느 나라의 브랜드일까?','  독일','  캐나다','  미국',0),</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>9</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F571" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  시저 샐러드</v>
+      </c>
+      <c r="G571" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  버펄로 윙</v>
+      </c>
+      <c r="H571" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  에그 베네딕트</v>
+      </c>
+      <c r="I571" s="29">
+        <v>1</v>
+      </c>
+      <c r="J571" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,9,' 다음 음식 중 명칭이 사람 이름에서 유래하지 않은 것은?','  시저 샐러드','  버펄로 윙','  에그 베네딕트',1),</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>10</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F572" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  리눅스</v>
+      </c>
+      <c r="G572" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  파스칼</v>
+      </c>
+      <c r="H572" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  자바</v>
+      </c>
+      <c r="I572" s="29">
+        <v>2</v>
+      </c>
+      <c r="J572" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,10,' 다음 프로그래밍 언어 중 명칭이 사람 이름에서 유래하지 않은 것은?','  리눅스','  파스칼','  자바',2),</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>11</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F573" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  자유 </v>
+      </c>
+      <c r="G573" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  기름</v>
+      </c>
+      <c r="H573" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  나라이름</v>
+      </c>
+      <c r="I573" s="29">
+        <v>1</v>
+      </c>
+      <c r="J573" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,11,' 뮤지컬 &lt;그리스&gt;에서 그리스가 뜻하는 것은?','  자유 ','  기름','  나라이름',1),</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>12</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F574" s="12" t="str">
+        <f t="shared" si="135"/>
+        <v>  니켈</v>
+      </c>
+      <c r="G574" s="12" t="str">
+        <f t="shared" si="136"/>
+        <v>  구리</v>
+      </c>
+      <c r="H574" s="18" t="str">
+        <f t="shared" si="137"/>
+        <v>  우라늄</v>
+      </c>
+      <c r="I574" s="29">
+        <v>1</v>
+      </c>
+      <c r="J574" t="str">
+        <f t="shared" si="138"/>
+        <v>(49,12,' 희토류가 아닌 것은?','  니켈','  구리','  우라늄',1),</v>
       </c>
     </row>
   </sheetData>
@@ -29987,296 +31117,296 @@
     <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>1850</v>
+        <v>1947</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="str">
         <f>MID(A1, FIND("1.", A1) + 2, 9999)</f>
-        <v xml:space="preserve"> 미국 대통령이 생활하는 관저의 이름은?</v>
+        <v xml:space="preserve"> P2P 등 온라인을 통해 영리적 목적으로 불법 저작물을 전송해 이득을 챙기는 사람은?</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>A3</f>
-        <v>A.  자금성</v>
-      </c>
-      <c r="E1" s="28" t="str">
+        <v>A.  헤비메탈</v>
+      </c>
+      <c r="E1" s="27" t="str">
         <f>A4</f>
-        <v>B.  알함브라 궁전</v>
-      </c>
-      <c r="F1" s="27" t="str">
+        <v>B.  헤비업로더</v>
+      </c>
+      <c r="F1" s="28" t="str">
         <f>A5</f>
-        <v>C.  백악관</v>
+        <v>C.  헤비급챔피언</v>
       </c>
       <c r="G1" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="str">
         <f>MID(A8, FIND("2.", A8) + 2, 9999)</f>
-        <v xml:space="preserve"> 현재 세계 금융시장에서 기준이 되는 기축통화는?</v>
+        <v xml:space="preserve"> '독백' 또는'솔리로퀴'와 같은 의미의 단어는?</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>A10</f>
-        <v>A.  페소</v>
-      </c>
-      <c r="E2" s="6" t="str">
+        <v>A.  에필로그</v>
+      </c>
+      <c r="E2" s="7" t="str">
         <f>A11</f>
-        <v>B.  달러</v>
-      </c>
-      <c r="F2" s="7" t="str">
+        <v>B.  프롤로그</v>
+      </c>
+      <c r="F2" s="6" t="str">
         <f>A12</f>
-        <v>C.  비트코인</v>
+        <v>C.  모놀로그</v>
       </c>
       <c r="G2" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>1851</v>
+        <v>1948</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="str">
         <f>MID(A15, FIND("3.", A15) + 2, 9999)</f>
-        <v xml:space="preserve"> 인터넷 상에서 타인에게 공격적이고 불쾌한 내용으로 화를 일으키게 하는 행위는?</v>
+        <v xml:space="preserve"> 지구 대기의 약 78% 정도를 차지하는 지구 생명체의 구성 성분은?</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>A17</f>
-        <v>A.  트롤링</v>
+        <v>A.  질소</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>A18</f>
-        <v>B.  구글링</v>
+        <v>B.  이산화탄소</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>A19</f>
-        <v>C.  저글링</v>
+        <v>C.  수소</v>
       </c>
       <c r="G3" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>1852</v>
+        <v>1949</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="str">
         <f>MID(A22, FIND("4.", A22) + 2, 9999)</f>
-        <v xml:space="preserve"> 정부 민원 안내 콜센터 전화번호는?</v>
-      </c>
-      <c r="D4" s="7" t="str">
+        <v xml:space="preserve"> 서양식 테이블 매너로 올바른 것은?</v>
+      </c>
+      <c r="D4" s="6" t="str">
         <f>A24</f>
-        <v>A.  911</v>
+        <v>A.  식사시 냅킨을 무릎에 올린다</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>A25</f>
-        <v>B.  119</v>
-      </c>
-      <c r="F4" s="6" t="str">
+        <v>B.  왼쪽에 있는 물잔을마신다</v>
+      </c>
+      <c r="F4" s="7" t="str">
         <f>A26</f>
-        <v>C.  110</v>
+        <v>C.  포크와 나이프는 안쪽 것부터 사용한다</v>
       </c>
       <c r="G4" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>1853</v>
+        <v>1950</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="str">
         <f>MID(A29, FIND("5.", A29) + 2, 9999)</f>
-        <v xml:space="preserve"> '스승의 은혜는 (   ) 같아서 (   ) 볼수록 높아만 지네' 빈칸에 들어갈 가사는?</v>
-      </c>
-      <c r="D5" s="6" t="str">
+        <v xml:space="preserve"> 성년의 날은 매년 5월 (   ) 월요일이다.</v>
+      </c>
+      <c r="D5" s="7" t="str">
         <f>A31</f>
-        <v>A.  하늘, 우러러</v>
+        <v>A.  첫째 주</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>A32</f>
-        <v>B.  바늘, 들여다</v>
-      </c>
-      <c r="F5" s="7" t="str">
+        <v>B.  둘째 주</v>
+      </c>
+      <c r="F5" s="6" t="str">
         <f>A33</f>
-        <v>C.  구름, 바라다</v>
+        <v>C.  셋째 주</v>
       </c>
       <c r="G5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="str">
         <f>MID(A36, FIND("6.", A36) + 2, 9999)</f>
-        <v xml:space="preserve"> 세계 각국의 대표 디저트와 나라가 잘못 연결된 것은?</v>
+        <v xml:space="preserve"> 한국과 국교를 수립한 최초의 공산주의 국가는?</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>A38</f>
-        <v>A.  푸딩 - 프랑스</v>
+        <v>A.  헝가리</v>
       </c>
       <c r="E6" s="7" t="str">
         <f>A39</f>
-        <v>B.  츄러스 - 스페인</v>
+        <v>B.  중국</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>A40</f>
-        <v>C.  에그타르트 - 포르투갈</v>
+        <v>C.  북한</v>
       </c>
       <c r="G6" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="str">
         <f>MID(A43, FIND("7.", A43) + 2, 9999)</f>
-        <v xml:space="preserve"> 다음 중 그림 형제의 작품은?</v>
+        <v xml:space="preserve"> 90년대 후반부터 방영돼 전 국민적인 사랑을 받았던 'SBS 시트콤'은?</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>A45</f>
-        <v>A.  이상한 나라의 앨리스</v>
-      </c>
-      <c r="E7" s="6" t="str">
+        <v>A.  올드미스다이어리</v>
+      </c>
+      <c r="E7" s="7" t="str">
         <f>A46</f>
-        <v>B.  백설공주</v>
-      </c>
-      <c r="F7" s="7" t="str">
+        <v>B.  남자셋여자셋</v>
+      </c>
+      <c r="F7" s="6" t="str">
         <f>A47</f>
-        <v>C.  인어공주</v>
+        <v>C.  순풍산부인과</v>
       </c>
       <c r="G7" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>1854</v>
+        <v>1951</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
         <f>MID(A50, FIND("8.", A50) + 2, 9999)</f>
-        <v xml:space="preserve"> 순 우리말은?</v>
-      </c>
-      <c r="D8" s="7" t="str">
+        <v xml:space="preserve"> 대표적인 스포츠 의류 브랜드 아디다스는 어느 나라의 브랜드일까?</v>
+      </c>
+      <c r="D8" s="6" t="str">
         <f>A52</f>
-        <v>A.  임시방편</v>
+        <v>A.  독일</v>
       </c>
       <c r="E8" s="7" t="str">
         <f>A53</f>
-        <v>B.  야단법석</v>
-      </c>
-      <c r="F8" s="6" t="str">
+        <v>B.  캐나다</v>
+      </c>
+      <c r="F8" s="7" t="str">
         <f>A54</f>
-        <v>C.  진절머리</v>
+        <v>C.  미국</v>
       </c>
       <c r="G8" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
         <f>MID(A57, FIND("9.", A57) + 2, 9999)</f>
-        <v xml:space="preserve"> 경제 5단체 중 하나로, 주로 노사문제를 전담하는 사용자 대표 단체는?</v>
+        <v xml:space="preserve"> 다음 음식 중 명칭이 사람 이름에서 유래하지 않은 것은?</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>A59</f>
-        <v>A.  한국 노동 조합 총연맹</v>
-      </c>
-      <c r="E9" s="7" t="str">
+        <v>A.  시저 샐러드</v>
+      </c>
+      <c r="E9" s="6" t="str">
         <f>A60</f>
-        <v>B.  대한 상공 회의소</v>
-      </c>
-      <c r="F9" s="6" t="str">
+        <v>B.  버펄로 윙</v>
+      </c>
+      <c r="F9" s="7" t="str">
         <f>A61</f>
-        <v>C.  한국 경영자 총협회</v>
+        <v>C.  에그 베네딕트</v>
       </c>
       <c r="G9" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>1855</v>
+        <v>1952</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
         <f>MID(A64, FIND("10.", A64) + 3, 9999)</f>
-        <v xml:space="preserve"> '의복을 경우에 맞게 착용한다'의 줄임말인 T.P.O에서 O가 의미하는 단어는?</v>
+        <v xml:space="preserve"> 다음 프로그래밍 언어 중 명칭이 사람 이름에서 유래하지 않은 것은?</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>A66</f>
-        <v>A.  Official</v>
-      </c>
-      <c r="E10" s="6" t="str">
+        <v>A.  리눅스</v>
+      </c>
+      <c r="E10" s="7" t="str">
         <f>A67</f>
-        <v>B.  Occasion</v>
-      </c>
-      <c r="F10" s="7" t="str">
+        <v>B.  파스칼</v>
+      </c>
+      <c r="F10" s="6" t="str">
         <f>A68</f>
-        <v>C.  Origin</v>
+        <v>C.  자바</v>
       </c>
       <c r="G10" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>1856</v>
+        <v>1953</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
         <f>MID(A71, FIND("11.", A71) + 3, 9999)</f>
-        <v xml:space="preserve"> 뉴욕 메리스트 칼리지가 발표한 지난 해 미국인들이 꼽은 가장 짜증나는 말은?</v>
+        <v xml:space="preserve"> 뮤지컬 &lt;그리스&gt;에서 그리스가 뜻하는 것은?</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>A73</f>
-        <v>A.  No offense, but</v>
-      </c>
-      <c r="E11" s="7" t="str">
+        <v>A.  자유 </v>
+      </c>
+      <c r="E11" s="6" t="str">
         <f>A74</f>
-        <v>B.  Fack news</v>
-      </c>
-      <c r="F11" s="6" t="str">
+        <v>B.  기름</v>
+      </c>
+      <c r="F11" s="7" t="str">
         <f>A75</f>
-        <v>C.  Whatever</v>
+        <v>C.  나라이름</v>
       </c>
       <c r="G11" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>1857</v>
+        <v>1954</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="str">
         <f>MID(A78, FIND("12.", A78) + 3, 9999)</f>
-        <v xml:space="preserve"> 우리나라 영화 상영등급은 총 몇 개 등급일까?</v>
+        <v xml:space="preserve"> 희토류가 아닌 것은?</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>A80</f>
-        <v>A.  3등급</v>
-      </c>
-      <c r="E12" s="7" t="str">
+        <v>A.  니켈</v>
+      </c>
+      <c r="E12" s="6" t="str">
         <f>A81</f>
-        <v>B.  4등급</v>
-      </c>
-      <c r="F12" s="6" t="str">
+        <v>B.  구리</v>
+      </c>
+      <c r="F12" s="7" t="str">
         <f>A82</f>
-        <v>C.  5등급</v>
+        <v>C.  우라늄</v>
       </c>
       <c r="G12" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -30285,9 +31415,9 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>1858</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -30295,17 +31425,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>1859</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>1860</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>1861</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -30316,7 +31446,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>1862</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -30324,17 +31454,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>1863</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>1864</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>1865</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -30345,7 +31475,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>1866</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -30353,17 +31483,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>1867</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>1868</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>1869</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -30374,7 +31504,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>1870</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -30382,17 +31512,17 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>1871</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>1872</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>1873</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -30403,7 +31533,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>1874</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -30411,17 +31541,17 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>1875</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>1876</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>1877</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
@@ -30432,7 +31562,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>1878</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
@@ -30440,17 +31570,17 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
-        <v>1879</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
-        <v>1880</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
-        <v>1881</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
@@ -30461,7 +31591,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>1882</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
@@ -30469,17 +31599,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
-        <v>1883</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>1884</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
-        <v>1885</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
@@ -30488,9 +31618,9 @@
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>1886</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
@@ -30498,17 +31628,17 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
-        <v>1887</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>1888</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>1889</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -30517,9 +31647,9 @@
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>1890</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -30527,17 +31657,17 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
-        <v>1891</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>1892</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>1893</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
@@ -30548,7 +31678,7 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>1894</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -30556,17 +31686,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
-        <v>1895</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
-        <v>1896</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
-        <v>1897</v>
+        <v>1990</v>
       </c>
     </row>
   </sheetData>

--- a/nodejs_svr/doc/잼라이브 기출문제.xlsx
+++ b/nodejs_svr/doc/잼라이브 기출문제.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitHubProject\jamlive_git\nodejs_svr\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitProjects\jamlive_Git\jamlive\nodejs_svr\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="2260">
   <si>
     <t>서태지, 양현성, 이주노가 멤버로 있었던 1세대 힙합 아이돌 그룹의 이름은?</t>
   </si>
@@ -12523,14 +12523,588 @@
     <t xml:space="preserve"> 영국에서는 파도타기응원을 "이것" 이라고 부른다. "이것"은 무엇인가?</t>
   </si>
   <si>
-    <t>1. P2P 등 온라인을 통해 영리적 목적으로 불법 저작물을 전송해 이득을 챙기는 사람은?</t>
-  </si>
-  <si>
     <t>A.  헤비메탈</t>
   </si>
   <si>
-    <r>
-      <t>B.  </t>
+    <t>C.  헤비급챔피언</t>
+  </si>
+  <si>
+    <t>A.  에필로그</t>
+  </si>
+  <si>
+    <t>B.  프롤로그</t>
+  </si>
+  <si>
+    <t>B.  이산화탄소</t>
+  </si>
+  <si>
+    <t>B.  왼쪽에 있는 물잔을마신다</t>
+  </si>
+  <si>
+    <t>C.  포크와 나이프는 안쪽 것부터 사용한다</t>
+  </si>
+  <si>
+    <t>A.  첫째 주</t>
+  </si>
+  <si>
+    <t>B.  둘째 주</t>
+  </si>
+  <si>
+    <t>A.  올드미스다이어리</t>
+  </si>
+  <si>
+    <t>B.  남자셋여자셋</t>
+  </si>
+  <si>
+    <t>B.  캐나다</t>
+  </si>
+  <si>
+    <t>A.  시저 샐러드</t>
+  </si>
+  <si>
+    <t>C.  에그 베네딕트</t>
+  </si>
+  <si>
+    <t>A.  리눅스</t>
+  </si>
+  <si>
+    <t>B.  파스칼</t>
+  </si>
+  <si>
+    <t>A.  자유 </t>
+  </si>
+  <si>
+    <t>C.  나라이름</t>
+  </si>
+  <si>
+    <t>A.  니켈</t>
+  </si>
+  <si>
+    <t>C.  우라늄</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P2P 등 온라인을 통해 영리적 목적으로 불법 저작물을 전송해 이득을 챙기는 사람은?</t>
+  </si>
+  <si>
+    <t>B.  헤비업로더</t>
+  </si>
+  <si>
+    <t>C.  모놀로그</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 지구 대기의 약 78% 정도를 차지하는 지구 생명체의 구성 성분은?</t>
+  </si>
+  <si>
+    <t>A.  질소</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서양식 테이블 매너로 올바른 것은?</t>
+  </si>
+  <si>
+    <t>A.  식사시 냅킨을 무릎에 올린다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 성년의 날은 매년 5월 (   ) 월요일이다.</t>
+  </si>
+  <si>
+    <t>C.  셋째 주</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한국과 국교를 수립한 최초의 공산주의 국가는?</t>
+  </si>
+  <si>
+    <t>A.  헝가리</t>
+  </si>
+  <si>
+    <t>C.  순풍산부인과</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대표적인 스포츠 의류 브랜드 아디다스는 어느 나라의 브랜드일까?</t>
+  </si>
+  <si>
+    <t>A.  독일</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 음식 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
+  </si>
+  <si>
+    <t>B.  버펄로 윙</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 프로그래밍 언어 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
+  </si>
+  <si>
+    <t>C.  자바</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 뮤지컬 &lt;그리스&gt;에서 그리스가 뜻하는 것은?</t>
+  </si>
+  <si>
+    <t>B.  기름</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 희토류가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>B.  구리</t>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "독백" 또는"솔리로퀴"와 같은 의미의 단어는?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90년대 후반부터 방영돼 전 국민적인 사랑을 받았던 "SBS 시트콤"은?</t>
+  </si>
+  <si>
+    <t>B.  크리스마스</t>
+  </si>
+  <si>
+    <t>C.  잼누나 생일</t>
+  </si>
+  <si>
+    <t>A.  상형문자</t>
+  </si>
+  <si>
+    <t>B.  이모티콘</t>
+  </si>
+  <si>
+    <t>B.  바게트</t>
+  </si>
+  <si>
+    <t>C.  마들렌</t>
+  </si>
+  <si>
+    <t>A.  우체국</t>
+  </si>
+  <si>
+    <t>C.  한국은행</t>
+  </si>
+  <si>
+    <t>B.  핌투현상</t>
+  </si>
+  <si>
+    <t>C.  핌피현상</t>
+  </si>
+  <si>
+    <t>A.  기원전 2년</t>
+  </si>
+  <si>
+    <t>B.  기원후 0년</t>
+  </si>
+  <si>
+    <t>A.  서라벌</t>
+  </si>
+  <si>
+    <t>B.  빛고을</t>
+  </si>
+  <si>
+    <t>A.  비숑 프리제</t>
+  </si>
+  <si>
+    <t>C.  풍산개</t>
+  </si>
+  <si>
+    <t>A.  덩굴</t>
+  </si>
+  <si>
+    <t>B.  넝쿨</t>
+  </si>
+  <si>
+    <t>A.  숙부</t>
+  </si>
+  <si>
+    <t>B.  외할아버지</t>
+  </si>
+  <si>
+    <t>A.  고슴도치 속털</t>
+  </si>
+  <si>
+    <t>C.  도깨비풀</t>
+  </si>
+  <si>
+    <t>A.  도시화 현상</t>
+  </si>
+  <si>
+    <t>C.  공동화 현상</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오늘(2018년 5월 22일)은 무슨 날일까요?</t>
+  </si>
+  <si>
+    <t>A.  부처님 오신 날</t>
+  </si>
+  <si>
+    <t>C.  캘리그라피</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아몬드가루, 달걀흰자, 설탕이 재료인 지름 5cm 정도의 겉은 바삭하고 속은 부드러운 프랑스 고급과자는?</t>
+  </si>
+  <si>
+    <t>A.  마카롱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 훼손된 지폐를 정식으로 교환할 수 없는 곳은?</t>
+  </si>
+  <si>
+    <t>B.  편의점</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 자신이 속한 지역에 이익이 되지 않는 일을 반대하는 이기적인 행동을 뜻하는 용어는?</t>
+  </si>
+  <si>
+    <t>A.  님비현상</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 기원전 1년 다음은 무엇일까?</t>
+  </si>
+  <si>
+    <t>C.  기원후 1년</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대전을 지칭하는 순우리말은?</t>
+  </si>
+  <si>
+    <t>C.  한밭</t>
+  </si>
+  <si>
+    <t>C.  덩쿨</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 빙부상은 누구의 상일까?</t>
+  </si>
+  <si>
+    <t>C.  장인어른</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일본은 (   )을 모티브로 아픔 없이 주사를 놓을 수 있는 주사 바늘을 개발했다.</t>
+  </si>
+  <si>
+    <t>B.  모기의 침</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 도시의 급격한 발전으로 도시 주변이 무질서하게 확대되는 현상은?</t>
+  </si>
+  <si>
+    <t>B.  스프롤 현상</t>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "손으로 그린 그림문자"라는 뜻으로 기계적인 표현이 아닌 손으로 쓴 아름답고 개성있는 글자체를 가리키는 말은?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 만화 캐릭터 "스누피"의 견종은?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 "식물의 줄기"를 뜻하는 표준어가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>B.  유남생</t>
+  </si>
+  <si>
+    <t>C.  십장생</t>
+  </si>
+  <si>
+    <t>A.  졸음방지</t>
+  </si>
+  <si>
+    <t>B.  소화기능 촉진</t>
+  </si>
+  <si>
+    <t>A.  잔나비 띠</t>
+  </si>
+  <si>
+    <t>B.  타이탄의 벨트</t>
+  </si>
+  <si>
+    <t>B.  진주성</t>
+  </si>
+  <si>
+    <t>C.  감수성</t>
+  </si>
+  <si>
+    <t>A.  밭</t>
+  </si>
+  <si>
+    <t>C.  박</t>
+  </si>
+  <si>
+    <t>A.  우왕</t>
+  </si>
+  <si>
+    <t>C.  공민왕</t>
+  </si>
+  <si>
+    <t>A.  베이스</t>
+  </si>
+  <si>
+    <t>B.  바리톤</t>
+  </si>
+  <si>
+    <t>A.  공연의 쉬는 시간</t>
+  </si>
+  <si>
+    <t>C.  틈새 내지 작은 구멍</t>
+  </si>
+  <si>
+    <t>B.  운명(運命)</t>
+  </si>
+  <si>
+    <t>C.  붕어(崩御)</t>
+  </si>
+  <si>
+    <t>A.  동백꽃</t>
+  </si>
+  <si>
+    <t>B.  장미꽃</t>
+  </si>
+  <si>
+    <t>B.  대구공항</t>
+  </si>
+  <si>
+    <t>C.  양양공항</t>
+  </si>
+  <si>
+    <t>B.  불</t>
+  </si>
+  <si>
+    <t>C.  땅</t>
+  </si>
+  <si>
+    <t>A.  학생</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 껌의 효능이 아닌 것은?</t>
+  </si>
+  <si>
+    <t>C.  전투력 상승</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 길게 자른 종이를 180° 비틀어 붙인 띠를 무엇이라고 할까?</t>
+  </si>
+  <si>
+    <t>C.  뫼비우스의 띠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정조가 아버지인 사도세자의 묘를 옮기며 축조한 성으로, 거중기 등을 활용해 만든 성은?</t>
+  </si>
+  <si>
+    <t>A.  수원 화성</t>
+  </si>
+  <si>
+    <t>B.  밖</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고려의 마지막 왕은?</t>
+  </si>
+  <si>
+    <t>B.  공양왕</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 성악에서 가장 높은 음을 노래하는 가수는?</t>
+  </si>
+  <si>
+    <t>C.  테너</t>
+  </si>
+  <si>
+    <t>B.  하인 내지 고용인</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 뜻이 다른 하나는?</t>
+  </si>
+  <si>
+    <t>A.  영전(榮轉)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 남자가 많은 곳에 여자가 한 명인 것을 홍일점이라 한다. 그럼 홍일점을 지칭하는 이 꽃의 이름은?</t>
+  </si>
+  <si>
+    <t>C.  석류꽃</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 국제공항이 아닌 곳은?</t>
+  </si>
+  <si>
+    <t>A.  여수공항</t>
+  </si>
+  <si>
+    <t>A.  물</t>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "초등OO, 중OO, 고등OO" "OO" 안에 공통으로 들어갈 말은?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "동구O 과수원길 아카시아꽃이 활짝 폈네~" "O" 안의 가사는?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대리주차를 뜻하는 단어 "발렛파킹"에서 발렛의 뜻은 무엇일까?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 태극기 네 모서리의 4괘 중 하나인 "감괘"는 어떤 것을 상징하는가?</t>
+  </si>
+  <si>
+    <t>A.  요술공주 밍키 </t>
+  </si>
+  <si>
+    <t>B.  세일러문</t>
+  </si>
+  <si>
+    <t>A.  1</t>
+  </si>
+  <si>
+    <t>B.  10</t>
+  </si>
+  <si>
+    <t>A.  상공의 날</t>
+  </si>
+  <si>
+    <t>C.  바다의 날</t>
+  </si>
+  <si>
+    <t>B.  똑같다</t>
+  </si>
+  <si>
+    <t>B.  크라켄</t>
+  </si>
+  <si>
+    <t>C.  레비아탄</t>
+  </si>
+  <si>
+    <t>A.  신채호</t>
+  </si>
+  <si>
+    <t>C.  김두한</t>
+  </si>
+  <si>
+    <t>B.  무리수</t>
+  </si>
+  <si>
+    <t>C.  초월수</t>
+  </si>
+  <si>
+    <t>A.  잭 더 리퍼</t>
+  </si>
+  <si>
+    <t>B.  알레그리아</t>
+  </si>
+  <si>
+    <t>A.  프리프라이스제</t>
+  </si>
+  <si>
+    <t>C.  권장소비자가격제</t>
+  </si>
+  <si>
+    <t>B.  편저(片楮)</t>
+  </si>
+  <si>
+    <t>C.  서찰(書札)</t>
+  </si>
+  <si>
+    <t>A.  Joypong</t>
+  </si>
+  <si>
+    <t>B.  Joipung</t>
+  </si>
+  <si>
+    <t>A.  작다</t>
+  </si>
+  <si>
+    <t>B.  같다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 방금 본 영상은 어떤 만화의 오프닝 영상일까? ( 기차가~ 어둠을 헤치고 은하수를 건너어면~ )</t>
+  </si>
+  <si>
+    <t>C.  은하철도999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000의 10%는 얼마인가?</t>
+  </si>
+  <si>
+    <t>C.  100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 자연에 대한 경각심을 높이고 교육과 홍보를 통해 자연재해 피해 최소화를 목적으로 제정된 기념일은?</t>
+  </si>
+  <si>
+    <t>B.  방재의 날</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 빗속에서 같은 시간 동안 움직인다면 걷는 것과 뛰는 것 중 어느 쪽이 비를 더 맞을까?</t>
+  </si>
+  <si>
+    <t>A.  뛰는 것</t>
+  </si>
+  <si>
+    <t>C.  걷는 것</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아름다운 목소리로 선원들을 유혹해 배를 난파시키는 전설 속의 바다 요괴는?</t>
+  </si>
+  <si>
+    <t>A.  세이렌</t>
+  </si>
+  <si>
+    <t>B.  안중근</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 원주율(π)의 특성이 아닌 것은?</t>
+  </si>
+  <si>
+    <t>A.  정수</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17세기 프랑스를 배경으로 기사들의 우정과 활약상을 그린 뮤지컬 작품은?</t>
+  </si>
+  <si>
+    <t>C.  삼총사</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최종 판매 업자가 제품 가격을 결정해 판매하는 방식은?</t>
+  </si>
+  <si>
+    <t>B.  오픈프라이스제</t>
+  </si>
+  <si>
+    <t>A.  해서(楷書)</t>
+  </si>
+  <si>
+    <t>C.  Jollypong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 바둑알 검은 돌이 흰 돌보다 크기가 (   ).</t>
+  </si>
+  <si>
+    <t>C.  크다</t>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "하루라도 책을 읽지 않으면 입속에 가시가 돋는다"라는 명언을 남긴 독립운동가는?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "편지"를 뜻하는 한자가 아닌 것은?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 크라운제과의 대표 과자 "죠리퐁"의 영어 이름은?</t>
+  </si>
+  <si>
+    <t>1. '자기 나라가 아닌 다른 나라에 특징적인'이란 뜻으로 쓰이는 말은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
     </r>
     <r>
       <rPr>
@@ -12539,24 +13113,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>헤비업로더</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  헤비급챔피언</t>
-  </si>
-  <si>
-    <t>2. '독백' 또는'솔리로퀴'와 같은 의미의 단어는?</t>
-  </si>
-  <si>
-    <t>A.  에필로그</t>
-  </si>
-  <si>
-    <t>B.  프롤로그</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
+      <t>이국적</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  이북적</t>
+  </si>
+  <si>
+    <t>C.  이기적</t>
+  </si>
+  <si>
+    <t>2. 컴퓨터간 정보를 주고받을 때 통신방법에 대한 규칙과 약속을 의미하는 것은?</t>
+  </si>
+  <si>
+    <t>A.  포로포즈</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -12565,15 +13139,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>모놀로그</t>
-    </r>
-  </si>
-  <si>
-    <t>3. 지구 대기의 약 78% 정도를 차지하는 지구 생명체의 구성 성분은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>프로토콜</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  프로포폴</t>
+  </si>
+  <si>
+    <t>3. '축하하기 위해 벌이는 공연'이란 뜻으로 주로 클래식 음악, 피겨스케이팅 분야에서 열리는 이 행사는?</t>
+  </si>
+  <si>
+    <t>A.  퍼레이드</t>
+  </si>
+  <si>
+    <t>B.  카니발</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -12582,18 +13165,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>질소</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  이산화탄소</t>
-  </si>
-  <si>
-    <t>4. 서양식 테이블 매너로 올바른 것은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>갈라쇼</t>
+    </r>
+  </si>
+  <si>
+    <t>4. &lt;세계 3대 영화제&gt;가 열리지 않는 도시는?</t>
+  </si>
+  <si>
+    <t>A.  베를린</t>
+  </si>
+  <si>
+    <t>B.  베니스</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -12602,27 +13188,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>식사시 냅킨을 무릎에 올린다</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  왼쪽에 있는 물잔을마신다</t>
-  </si>
-  <si>
-    <t>C.  포크와 나이프는 안쪽 것부터 사용한다</t>
-  </si>
-  <si>
-    <t>5. 성년의 날은 매년 5월 (   ) 월요일이다.</t>
-  </si>
-  <si>
-    <t>A.  첫째 주</t>
-  </si>
-  <si>
-    <t>B.  둘째 주</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
+      <t>할리우드</t>
+    </r>
+  </si>
+  <si>
+    <t>5. 우리나라에서 가장 높은 건물은?</t>
+  </si>
+  <si>
+    <t>A.  송도 동북아무역센터</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -12631,11 +13208,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>셋째 주</t>
-    </r>
-  </si>
-  <si>
-    <t>6. 한국과 국교를 수립한 최초의 공산주의 국가는?</t>
+      <t>롯데월드타워</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  63빌딩</t>
+  </si>
+  <si>
+    <t>6. &lt;등자뼈, 청소골, 망치뼈&gt; 다음과 가장 관련이 깊은 신체기관은?</t>
   </si>
   <si>
     <r>
@@ -12648,21 +13228,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>헝가리</t>
-    </r>
-  </si>
-  <si>
-    <t>7. 90년대 후반부터 방영돼 전 국민적인 사랑을 받았던 'SBS 시트콤'은?</t>
-  </si>
-  <si>
-    <t>A.  올드미스다이어리</t>
-  </si>
-  <si>
-    <t>B.  남자셋여자셋</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
+      <t>귀</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  발</t>
+  </si>
+  <si>
+    <t>C.  머리</t>
+  </si>
+  <si>
+    <t>7. 중복된 표현이 아닌 것은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
     </r>
     <r>
       <rPr>
@@ -12671,15 +13251,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>순풍산부인과</t>
-    </r>
-  </si>
-  <si>
-    <t>8. 대표적인 스포츠 의류 브랜드 아디다스는 어느 나라의 브랜드일까?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>오랜 소원</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  하얀 백발</t>
+  </si>
+  <si>
+    <t>C.  남은 여생</t>
+  </si>
+  <si>
+    <t>8. 다음 보기 중 고려시대의 금속 화폐로 사용되었던 것은?</t>
+  </si>
+  <si>
+    <t>A.  상평통보</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -12688,17 +13277,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>독일</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  캐나다</t>
-  </si>
-  <si>
-    <t>9. 다음 음식 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
-  </si>
-  <si>
-    <t>A.  시저 샐러드</t>
+      <t>해동통보</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  해고통보</t>
+  </si>
+  <si>
+    <t>9. 본명이 잘못 짝지어진 가수는?</t>
+  </si>
+  <si>
+    <t>A.  남진-김남진</t>
   </si>
   <si>
     <r>
@@ -12711,20 +13300,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>버펄로 윙</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  에그 베네딕트</t>
-  </si>
-  <si>
-    <t>10. 다음 프로그래밍 언어 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
-  </si>
-  <si>
-    <t>A.  리눅스</t>
-  </si>
-  <si>
-    <t>B.  파스칼</t>
+      <t>패티김-김희자</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  인순이-김인순</t>
+  </si>
+  <si>
+    <t>10. 1940-1950년 할리우드에서 큰 인기를 끌었던 패션 트렌드는?</t>
+  </si>
+  <si>
+    <t>A.  보석 치아</t>
+  </si>
+  <si>
+    <t>B.  호블 스커트</t>
   </si>
   <si>
     <r>
@@ -12737,18 +13326,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>자바</t>
-    </r>
-  </si>
-  <si>
-    <t>11. 뮤지컬 &lt;그리스&gt;에서 그리스가 뜻하는 것은?</t>
-  </si>
-  <si>
-    <t>A.  자유 </t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>총알 브래지어</t>
+    </r>
+  </si>
+  <si>
+    <t>11. 일차방정식의 근을 구하는 동양 전래의 계산법은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
     </r>
     <r>
       <rPr>
@@ -12757,17 +13343,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>기름</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  나라이름</t>
-  </si>
-  <si>
-    <t>12. 희토류가 아닌 것은?</t>
-  </si>
-  <si>
-    <t>A.  니켈</t>
+      <t>천원술</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  혼돈술</t>
+  </si>
+  <si>
+    <t>C.  동방술</t>
+  </si>
+  <si>
+    <t>12. 발매된 적이 없는 가요제목은?</t>
+  </si>
+  <si>
+    <t>A.  나 군대 간다</t>
   </si>
   <si>
     <r>
@@ -12780,93 +13369,289 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>구리</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  우라늄</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P2P 등 온라인을 통해 영리적 목적으로 불법 저작물을 전송해 이득을 챙기는 사람은?</t>
-  </si>
-  <si>
-    <t>B.  헤비업로더</t>
-  </si>
-  <si>
-    <t>C.  모놀로그</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 지구 대기의 약 78% 정도를 차지하는 지구 생명체의 구성 성분은?</t>
-  </si>
-  <si>
-    <t>A.  질소</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 서양식 테이블 매너로 올바른 것은?</t>
-  </si>
-  <si>
-    <t>A.  식사시 냅킨을 무릎에 올린다</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성년의 날은 매년 5월 (   ) 월요일이다.</t>
-  </si>
-  <si>
-    <t>C.  셋째 주</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 한국과 국교를 수립한 최초의 공산주의 국가는?</t>
-  </si>
-  <si>
-    <t>A.  헝가리</t>
-  </si>
-  <si>
-    <t>C.  순풍산부인과</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 대표적인 스포츠 의류 브랜드 아디다스는 어느 나라의 브랜드일까?</t>
-  </si>
-  <si>
-    <t>A.  독일</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다음 음식 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
-  </si>
-  <si>
-    <t>B.  버펄로 윙</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다음 프로그래밍 언어 중 명칭이 사람 이름에서 유래하지 않은 것은?</t>
-  </si>
-  <si>
-    <t>C.  자바</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뮤지컬 &lt;그리스&gt;에서 그리스가 뜻하는 것은?</t>
-  </si>
-  <si>
-    <t>B.  기름</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 희토류가 아닌 것은?</t>
-  </si>
-  <si>
-    <t>B.  구리</t>
-  </si>
-  <si>
-    <t>49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "독백" 또는"솔리로퀴"와 같은 의미의 단어는?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90년대 후반부터 방영돼 전 국민적인 사랑을 받았던 "SBS 시트콤"은?</t>
+      <t>회사에서 쓰는 노래</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  그 놈의 결혼식</t>
+  </si>
+  <si>
+    <t>A.  이국적</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 컴퓨터간 정보를 주고받을 때 통신방법에 대한 규칙과 약속을 의미하는 것은?</t>
+  </si>
+  <si>
+    <t>B.  프로토콜</t>
+  </si>
+  <si>
+    <t>C.  갈라쇼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;세계 3대 영화제&gt;가 열리지 않는 도시는?</t>
+  </si>
+  <si>
+    <t>C.  할리우드</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우리나라에서 가장 높은 건물은?</t>
+  </si>
+  <si>
+    <t>B.  롯데월드타워</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;등자뼈, 청소골, 망치뼈&gt; 다음과 가장 관련이 깊은 신체기관은?</t>
+  </si>
+  <si>
+    <t>A.  귀</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중복된 표현이 아닌 것은?</t>
+  </si>
+  <si>
+    <t>A.  오랜 소원</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 보기 중 고려시대의 금속 화폐로 사용되었던 것은?</t>
+  </si>
+  <si>
+    <t>B.  해동통보</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 본명이 잘못 짝지어진 가수는?</t>
+  </si>
+  <si>
+    <t>B.  패티김-김희자</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1940-1950년 할리우드에서 큰 인기를 끌었던 패션 트렌드는?</t>
+  </si>
+  <si>
+    <t>C.  총알 브래지어</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일차방정식의 근을 구하는 동양 전래의 계산법은?</t>
+  </si>
+  <si>
+    <t>A.  천원술</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 발매된 적이 없는 가요제목은?</t>
+  </si>
+  <si>
+    <t>B.  회사에서 쓰는 노래</t>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "자기 나라가 아닌 다른 나라에 특징적인"이란 뜻으로 쓰이는 말은?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "축하하기 위해 벌이는 공연"이란 뜻으로 주로 클래식 음악, 피겨스케이팅 분야에서 열리는 이 행사는?</t>
+  </si>
+  <si>
+    <t>&lt;설탕,과일,퀴즈&gt; 다음 단어에서 연상되는 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초콜릿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국 지명이 아닌 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만우절의 영문 표기로 올바른 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April Liar's Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April Fool's Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Souls Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;슈퍼마리오&gt;에서 '마리오'의 모델이 된 실존인물의 직업은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조물주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배관공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선시대에는 어떤 날을 만우절로 정했을까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫눈이 내리는 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감나무 열매가 열리는 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕자가 태어난 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경복궁의 이름을 지은 사람은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이방원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정도전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"방귀"는 어느 나라에서 온 말일까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르투갈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한과의 시차는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만화 영화 &lt;톰과 제리&gt;가 우리나라에서 처음 방송될 때 제목은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐돌이와 야옹이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미련한 야옹이와 깐돌이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이겨라 깐돌이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물 가격이 상승하는 영향으로 물가가 오르는 현상을 일컫는 말은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애그플레이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태그플레이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코플레이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1년 중 가장 먼저 오는 기념일은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국군의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 대한민국에 현존하지 않는 역 이름은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고사리역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괘법 르네시떼역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도미노역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -13102,13 +13887,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13391,10 +14176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J574"/>
+  <dimension ref="A1:J644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G570" sqref="G570"/>
+    <sheetView tabSelected="1" topLeftCell="A606" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J641" sqref="J641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27899,7 +28684,7 @@
         <f t="shared" si="113"/>
         <v>  꽈당두부</v>
       </c>
-      <c r="I479" s="29">
+      <c r="I479" s="28">
         <v>0</v>
       </c>
       <c r="J479" t="str">
@@ -27935,7 +28720,7 @@
         <f t="shared" si="113"/>
         <v>  로키</v>
       </c>
-      <c r="I480" s="29">
+      <c r="I480" s="28">
         <v>2</v>
       </c>
       <c r="J480" t="str">
@@ -27971,7 +28756,7 @@
         <f t="shared" si="113"/>
         <v>  성년의 날</v>
       </c>
-      <c r="I481" s="29">
+      <c r="I481" s="28">
         <v>2</v>
       </c>
       <c r="J481" t="str">
@@ -28007,7 +28792,7 @@
         <f t="shared" si="113"/>
         <v>  대만</v>
       </c>
-      <c r="I482" s="29">
+      <c r="I482" s="28">
         <v>1</v>
       </c>
       <c r="J482" t="str">
@@ -28043,7 +28828,7 @@
         <f t="shared" si="113"/>
         <v>  변비</v>
       </c>
-      <c r="I483" s="29">
+      <c r="I483" s="28">
         <v>0</v>
       </c>
       <c r="J483" t="str">
@@ -28079,7 +28864,7 @@
         <f t="shared" si="113"/>
         <v>  철제 농기구</v>
       </c>
-      <c r="I484" s="29">
+      <c r="I484" s="28">
         <v>2</v>
       </c>
       <c r="J484" t="str">
@@ -28115,7 +28900,7 @@
         <f t="shared" si="113"/>
         <v>  앙갚음</v>
       </c>
-      <c r="I485" s="29">
+      <c r="I485" s="28">
         <v>1</v>
       </c>
       <c r="J485" t="str">
@@ -28151,7 +28936,7 @@
         <f t="shared" si="113"/>
         <v>  귤</v>
       </c>
-      <c r="I486" s="29">
+      <c r="I486" s="28">
         <v>1</v>
       </c>
       <c r="J486" t="str">
@@ -28187,7 +28972,7 @@
         <f t="shared" si="113"/>
         <v>  둘 다 맞다</v>
       </c>
-      <c r="I487" s="29">
+      <c r="I487" s="28">
         <v>2</v>
       </c>
       <c r="J487" t="str">
@@ -28223,7 +29008,7 @@
         <f t="shared" si="113"/>
         <v>  펩타이드</v>
       </c>
-      <c r="I488" s="29">
+      <c r="I488" s="28">
         <v>0</v>
       </c>
       <c r="J488" t="str">
@@ -28259,7 +29044,7 @@
         <f t="shared" si="113"/>
         <v>  해피</v>
       </c>
-      <c r="I489" s="29">
+      <c r="I489" s="28">
         <v>1</v>
       </c>
       <c r="J489" t="str">
@@ -28295,7 +29080,7 @@
         <f t="shared" si="113"/>
         <v>  정</v>
       </c>
-      <c r="I490" s="29">
+      <c r="I490" s="28">
         <v>2</v>
       </c>
       <c r="J490" t="str">
@@ -28365,7 +29150,7 @@
         <f t="shared" si="117"/>
         <v>  옥편</v>
       </c>
-      <c r="I493" s="29">
+      <c r="I493" s="28">
         <v>2</v>
       </c>
       <c r="J493" t="str">
@@ -28401,7 +29186,7 @@
         <f t="shared" si="117"/>
         <v>  에버랜드</v>
       </c>
-      <c r="I494" s="29">
+      <c r="I494" s="28">
         <v>1</v>
       </c>
       <c r="J494" t="str">
@@ -28437,7 +29222,7 @@
         <f t="shared" si="117"/>
         <v>  안네의 일기</v>
       </c>
-      <c r="I495" s="29">
+      <c r="I495" s="28">
         <v>0</v>
       </c>
       <c r="J495" t="str">
@@ -28473,7 +29258,7 @@
         <f t="shared" si="117"/>
         <v>  이정재</v>
       </c>
-      <c r="I496" s="29">
+      <c r="I496" s="28">
         <v>2</v>
       </c>
       <c r="J496" t="str">
@@ -28509,7 +29294,7 @@
         <f t="shared" si="117"/>
         <v>  용양봉저정</v>
       </c>
-      <c r="I497" s="29">
+      <c r="I497" s="28">
         <v>1</v>
       </c>
       <c r="J497" t="str">
@@ -28545,7 +29330,7 @@
         <f t="shared" si="117"/>
         <v>  블라인드 채용</v>
       </c>
-      <c r="I498" s="29">
+      <c r="I498" s="28">
         <v>2</v>
       </c>
       <c r="J498" t="str">
@@ -28581,7 +29366,7 @@
         <f t="shared" si="117"/>
         <v>  여리박빙</v>
       </c>
-      <c r="I499" s="29">
+      <c r="I499" s="28">
         <v>0</v>
       </c>
       <c r="J499" t="str">
@@ -28617,7 +29402,7 @@
         <f t="shared" si="117"/>
         <v>  프리메라리가</v>
       </c>
-      <c r="I500" s="29">
+      <c r="I500" s="28">
         <v>1</v>
       </c>
       <c r="J500" t="str">
@@ -28653,7 +29438,7 @@
         <f t="shared" si="117"/>
         <v>  사람의 이름</v>
       </c>
-      <c r="I501" s="29">
+      <c r="I501" s="28">
         <v>2</v>
       </c>
       <c r="J501" t="str">
@@ -28689,7 +29474,7 @@
         <f t="shared" si="117"/>
         <v>  pH 7.2 미만</v>
       </c>
-      <c r="I502" s="29">
+      <c r="I502" s="28">
         <v>0</v>
       </c>
       <c r="J502" t="str">
@@ -28725,7 +29510,7 @@
         <f t="shared" si="117"/>
         <v>  현실주의 투자자</v>
       </c>
-      <c r="I503" s="29">
+      <c r="I503" s="28">
         <v>1</v>
       </c>
       <c r="J503" t="str">
@@ -28761,7 +29546,7 @@
         <f t="shared" si="117"/>
         <v>  문화재청</v>
       </c>
-      <c r="I504" s="29">
+      <c r="I504" s="28">
         <v>0</v>
       </c>
       <c r="J504" t="str">
@@ -28828,7 +29613,7 @@
         <f t="shared" si="121"/>
         <v>  한조</v>
       </c>
-      <c r="I507" s="29">
+      <c r="I507" s="28">
         <v>2</v>
       </c>
       <c r="J507" t="str">
@@ -28864,7 +29649,7 @@
         <f t="shared" si="121"/>
         <v>  중절모</v>
       </c>
-      <c r="I508" s="29">
+      <c r="I508" s="28">
         <v>0</v>
       </c>
       <c r="J508" t="str">
@@ -28900,7 +29685,7 @@
         <f t="shared" si="121"/>
         <v>  105</v>
       </c>
-      <c r="I509" s="29">
+      <c r="I509" s="28">
         <v>1</v>
       </c>
       <c r="J509" t="str">
@@ -28936,7 +29721,7 @@
         <f t="shared" si="121"/>
         <v>  풀꽃</v>
       </c>
-      <c r="I510" s="29">
+      <c r="I510" s="28">
         <v>2</v>
       </c>
       <c r="J510" t="str">
@@ -28972,7 +29757,7 @@
         <f t="shared" si="121"/>
         <v>  마린매스</v>
       </c>
-      <c r="I511" s="29">
+      <c r="I511" s="28">
         <v>1</v>
       </c>
       <c r="J511" t="str">
@@ -29008,7 +29793,7 @@
         <f t="shared" si="121"/>
         <v>  블라디미르 푸틴</v>
       </c>
-      <c r="I512" s="29">
+      <c r="I512" s="28">
         <v>1</v>
       </c>
       <c r="J512" t="str">
@@ -29044,7 +29829,7 @@
         <f t="shared" si="121"/>
         <v>  중국</v>
       </c>
-      <c r="I513" s="29">
+      <c r="I513" s="28">
         <v>2</v>
       </c>
       <c r="J513" t="str">
@@ -29080,7 +29865,7 @@
         <f t="shared" si="121"/>
         <v>  꺾을 좌(挫)</v>
       </c>
-      <c r="I514" s="29">
+      <c r="I514" s="28">
         <v>1</v>
       </c>
       <c r="J514" t="str">
@@ -29116,7 +29901,7 @@
         <f t="shared" si="121"/>
         <v>  다리</v>
       </c>
-      <c r="I515" s="29">
+      <c r="I515" s="28">
         <v>0</v>
       </c>
       <c r="J515" t="str">
@@ -29152,7 +29937,7 @@
         <f t="shared" si="121"/>
         <v>  히딩크</v>
       </c>
-      <c r="I516" s="29">
+      <c r="I516" s="28">
         <v>1</v>
       </c>
       <c r="J516" t="str">
@@ -29188,7 +29973,7 @@
         <f t="shared" si="121"/>
         <v>  경상남도</v>
       </c>
-      <c r="I517" s="29">
+      <c r="I517" s="28">
         <v>0</v>
       </c>
       <c r="J517" t="str">
@@ -29224,7 +30009,7 @@
         <f t="shared" si="121"/>
         <v>  30일</v>
       </c>
-      <c r="I518" s="29">
+      <c r="I518" s="28">
         <v>2</v>
       </c>
       <c r="J518" t="str">
@@ -29294,7 +30079,7 @@
         <f t="shared" si="125"/>
         <v>  슈퍼주니어</v>
       </c>
-      <c r="I521" s="29">
+      <c r="I521" s="28">
         <v>2</v>
       </c>
       <c r="J521" t="str">
@@ -29330,7 +30115,7 @@
         <f t="shared" si="125"/>
         <v>  눕방</v>
       </c>
-      <c r="I522" s="29">
+      <c r="I522" s="28">
         <v>2</v>
       </c>
       <c r="J522" t="str">
@@ -29366,7 +30151,7 @@
         <f t="shared" si="125"/>
         <v>  호국 보훈의 달</v>
       </c>
-      <c r="I523" s="29">
+      <c r="I523" s="28">
         <v>1</v>
       </c>
       <c r="J523" t="str">
@@ -29402,7 +30187,7 @@
         <f t="shared" si="125"/>
         <v>  천연가스</v>
       </c>
-      <c r="I524" s="29">
+      <c r="I524" s="28">
         <v>0</v>
       </c>
       <c r="J524" t="str">
@@ -29438,7 +30223,7 @@
         <f t="shared" si="125"/>
         <v>  인기가요 베스트50</v>
       </c>
-      <c r="I525" s="29">
+      <c r="I525" s="28">
         <v>0</v>
       </c>
       <c r="J525" t="str">
@@ -29474,7 +30259,7 @@
         <f t="shared" si="125"/>
         <v>  박쥐</v>
       </c>
-      <c r="I526" s="29">
+      <c r="I526" s="28">
         <v>0</v>
       </c>
       <c r="J526" t="str">
@@ -29510,7 +30295,7 @@
         <f t="shared" si="125"/>
         <v>  대만</v>
       </c>
-      <c r="I527" s="29">
+      <c r="I527" s="28">
         <v>1</v>
       </c>
       <c r="J527" t="str">
@@ -29546,7 +30331,7 @@
         <f t="shared" si="125"/>
         <v>  베이징 올림픽 개막 일시</v>
       </c>
-      <c r="I528" s="29">
+      <c r="I528" s="28">
         <v>1</v>
       </c>
       <c r="J528" t="str">
@@ -29582,7 +30367,7 @@
         <f t="shared" si="125"/>
         <v>  일본어</v>
       </c>
-      <c r="I529" s="29">
+      <c r="I529" s="28">
         <v>2</v>
       </c>
       <c r="J529" t="str">
@@ -29618,7 +30403,7 @@
         <f t="shared" si="125"/>
         <v>  푸팟퐁커리</v>
       </c>
-      <c r="I530" s="29">
+      <c r="I530" s="28">
         <v>0</v>
       </c>
       <c r="J530" t="str">
@@ -29654,7 +30439,7 @@
         <f t="shared" si="125"/>
         <v>  경희대학교</v>
       </c>
-      <c r="I531" s="29">
+      <c r="I531" s="28">
         <v>2</v>
       </c>
       <c r="J531" t="str">
@@ -29690,7 +30475,7 @@
         <f t="shared" si="125"/>
         <v>  종수</v>
       </c>
-      <c r="I532" s="29">
+      <c r="I532" s="28">
         <v>1</v>
       </c>
       <c r="J532" t="str">
@@ -29760,7 +30545,7 @@
         <f t="shared" si="129"/>
         <v>  백악관</v>
       </c>
-      <c r="I535" s="29">
+      <c r="I535" s="28">
         <v>2</v>
       </c>
       <c r="J535" t="str">
@@ -29796,7 +30581,7 @@
         <f t="shared" si="129"/>
         <v>  비트코인</v>
       </c>
-      <c r="I536" s="29">
+      <c r="I536" s="28">
         <v>1</v>
       </c>
       <c r="J536" t="str">
@@ -29832,7 +30617,7 @@
         <f t="shared" si="129"/>
         <v>  저글링</v>
       </c>
-      <c r="I537" s="29">
+      <c r="I537" s="28">
         <v>0</v>
       </c>
       <c r="J537" t="str">
@@ -29868,7 +30653,7 @@
         <f t="shared" si="129"/>
         <v>  110</v>
       </c>
-      <c r="I538" s="29">
+      <c r="I538" s="28">
         <v>2</v>
       </c>
       <c r="J538" t="str">
@@ -29904,7 +30689,7 @@
         <f t="shared" si="129"/>
         <v>  구름, 바라다</v>
       </c>
-      <c r="I539" s="29">
+      <c r="I539" s="28">
         <v>0</v>
       </c>
       <c r="J539" t="str">
@@ -29940,7 +30725,7 @@
         <f t="shared" si="129"/>
         <v>  에그타르트 - 포르투갈</v>
       </c>
-      <c r="I540" s="29">
+      <c r="I540" s="28">
         <v>0</v>
       </c>
       <c r="J540" t="str">
@@ -29976,7 +30761,7 @@
         <f t="shared" si="129"/>
         <v>  인어공주</v>
       </c>
-      <c r="I541" s="29">
+      <c r="I541" s="28">
         <v>1</v>
       </c>
       <c r="J541" t="str">
@@ -30012,7 +30797,7 @@
         <f t="shared" si="129"/>
         <v>  진절머리</v>
       </c>
-      <c r="I542" s="29">
+      <c r="I542" s="28">
         <v>2</v>
       </c>
       <c r="J542" t="str">
@@ -30048,7 +30833,7 @@
         <f t="shared" si="129"/>
         <v>  한국 경영자 총협회</v>
       </c>
-      <c r="I543" s="29">
+      <c r="I543" s="28">
         <v>2</v>
       </c>
       <c r="J543" t="str">
@@ -30084,7 +30869,7 @@
         <f t="shared" si="129"/>
         <v>  Origin</v>
       </c>
-      <c r="I544" s="29">
+      <c r="I544" s="28">
         <v>1</v>
       </c>
       <c r="J544" t="str">
@@ -30120,7 +30905,7 @@
         <f t="shared" si="129"/>
         <v>  Whatever</v>
       </c>
-      <c r="I545" s="29">
+      <c r="I545" s="28">
         <v>2</v>
       </c>
       <c r="J545" t="str">
@@ -30156,7 +30941,7 @@
         <f t="shared" si="129"/>
         <v>  5등급</v>
       </c>
-      <c r="I546" s="29">
+      <c r="I546" s="28">
         <v>2</v>
       </c>
       <c r="J546" t="str">
@@ -30226,7 +31011,7 @@
         <f t="shared" si="133"/>
         <v>  CokePLAY</v>
       </c>
-      <c r="I549" s="29">
+      <c r="I549" s="28">
         <v>2</v>
       </c>
       <c r="J549" t="str">
@@ -30262,7 +31047,7 @@
         <f t="shared" si="133"/>
         <v>  샐러리</v>
       </c>
-      <c r="I550" s="29">
+      <c r="I550" s="28">
         <v>1</v>
       </c>
       <c r="J550" t="str">
@@ -30298,7 +31083,7 @@
         <f t="shared" si="133"/>
         <v>  허언증</v>
       </c>
-      <c r="I551" s="29">
+      <c r="I551" s="28">
         <v>0</v>
       </c>
       <c r="J551" t="str">
@@ -30334,7 +31119,7 @@
         <f t="shared" si="133"/>
         <v>  태풍 발생 감소</v>
       </c>
-      <c r="I552" s="29">
+      <c r="I552" s="28">
         <v>2</v>
       </c>
       <c r="J552" t="str">
@@ -30370,7 +31155,7 @@
         <f t="shared" si="133"/>
         <v>  모두 캔콜라를 들고있다.</v>
       </c>
-      <c r="I553" s="29">
+      <c r="I553" s="28">
         <v>2</v>
       </c>
       <c r="J553" t="str">
@@ -30406,7 +31191,7 @@
         <f t="shared" si="133"/>
         <v>  맞아볼래? 상큼하게!</v>
       </c>
-      <c r="I554" s="29">
+      <c r="I554" s="28">
         <v>1</v>
       </c>
       <c r="J554" t="str">
@@ -30442,7 +31227,7 @@
         <f t="shared" si="133"/>
         <v>  환타 젤리소다</v>
       </c>
-      <c r="I555" s="29">
+      <c r="I555" s="28">
         <v>1</v>
       </c>
       <c r="J555" t="str">
@@ -30478,7 +31263,7 @@
         <f t="shared" si="133"/>
         <v>  둘다 맞다</v>
       </c>
-      <c r="I556" s="29">
+      <c r="I556" s="28">
         <v>2</v>
       </c>
       <c r="J556" t="str">
@@ -30514,7 +31299,7 @@
         <f t="shared" si="133"/>
         <v>  12가지</v>
       </c>
-      <c r="I557" s="29">
+      <c r="I557" s="28">
         <v>1</v>
       </c>
       <c r="J557" t="str">
@@ -30550,7 +31335,7 @@
         <f t="shared" si="133"/>
         <v>  마운틴블러스트</v>
       </c>
-      <c r="I558" s="29">
+      <c r="I558" s="28">
         <v>0</v>
       </c>
       <c r="J558" t="str">
@@ -30586,7 +31371,7 @@
         <f t="shared" si="133"/>
         <v>  커브드보틀</v>
       </c>
-      <c r="I559" s="29">
+      <c r="I559" s="28">
         <v>1</v>
       </c>
       <c r="J559" t="str">
@@ -30622,7 +31407,7 @@
         <f t="shared" si="133"/>
         <v>  British wave</v>
       </c>
-      <c r="I560" s="29">
+      <c r="I560" s="28">
         <v>0</v>
       </c>
       <c r="J560" t="str">
@@ -30649,7 +31434,7 @@
         <v>43241.520833333336</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>2013</v>
+        <v>1989</v>
       </c>
       <c r="F562" s="12" t="str">
         <f t="shared" si="135"/>
@@ -30669,16 +31454,16 @@
         <v>1</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1991</v>
+        <v>1967</v>
       </c>
       <c r="C563" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E563" s="3" t="s">
         <v>1948</v>
-      </c>
-      <c r="D563" s="3" t="s">
-        <v>1992</v>
-      </c>
-      <c r="E563" s="3" t="s">
-        <v>1950</v>
       </c>
       <c r="F563" s="12" t="str">
         <f t="shared" si="135"/>
@@ -30692,7 +31477,7 @@
         <f t="shared" si="137"/>
         <v>  헤비급챔피언</v>
       </c>
-      <c r="I563" s="29">
+      <c r="I563" s="28">
         <v>1</v>
       </c>
       <c r="J563" t="str">
@@ -30705,16 +31490,16 @@
         <v>2</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>1993</v>
+        <v>1969</v>
       </c>
       <c r="F564" s="12" t="str">
         <f t="shared" si="135"/>
@@ -30728,7 +31513,7 @@
         <f t="shared" si="137"/>
         <v>  모놀로그</v>
       </c>
-      <c r="I564" s="29">
+      <c r="I564" s="28">
         <v>2</v>
       </c>
       <c r="J564" t="str">
@@ -30741,13 +31526,13 @@
         <v>3</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1994</v>
+        <v>1970</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1995</v>
+        <v>1971</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>985</v>
@@ -30764,7 +31549,7 @@
         <f t="shared" si="137"/>
         <v>  수소</v>
       </c>
-      <c r="I565" s="29">
+      <c r="I565" s="28">
         <v>0</v>
       </c>
       <c r="J565" t="str">
@@ -30777,16 +31562,16 @@
         <v>4</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1996</v>
+        <v>1972</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1997</v>
+        <v>1973</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="F566" s="12" t="str">
         <f t="shared" si="135"/>
@@ -30800,7 +31585,7 @@
         <f t="shared" si="137"/>
         <v>  포크와 나이프는 안쪽 것부터 사용한다</v>
       </c>
-      <c r="I566" s="29">
+      <c r="I566" s="28">
         <v>0</v>
       </c>
       <c r="J566" t="str">
@@ -30813,16 +31598,16 @@
         <v>5</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1998</v>
+        <v>1974</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1963</v>
+        <v>1954</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="E567" s="3" t="s">
-        <v>1999</v>
+        <v>1975</v>
       </c>
       <c r="F567" s="12" t="str">
         <f t="shared" si="135"/>
@@ -30836,7 +31621,7 @@
         <f t="shared" si="137"/>
         <v>  셋째 주</v>
       </c>
-      <c r="I567" s="29">
+      <c r="I567" s="28">
         <v>2</v>
       </c>
       <c r="J567" t="str">
@@ -30849,10 +31634,10 @@
         <v>6</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>2000</v>
+        <v>1976</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>2001</v>
+        <v>1977</v>
       </c>
       <c r="D568" s="3" t="s">
         <v>1520</v>
@@ -30872,7 +31657,7 @@
         <f t="shared" si="137"/>
         <v>  북한</v>
       </c>
-      <c r="I568" s="29">
+      <c r="I568" s="28">
         <v>0</v>
       </c>
       <c r="J568" t="str">
@@ -30885,16 +31670,16 @@
         <v>7</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>2015</v>
+        <v>1991</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1969</v>
+        <v>1956</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1970</v>
+        <v>1957</v>
       </c>
       <c r="E569" s="3" t="s">
-        <v>2002</v>
+        <v>1978</v>
       </c>
       <c r="F569" s="12" t="str">
         <f t="shared" si="135"/>
@@ -30908,7 +31693,7 @@
         <f t="shared" si="137"/>
         <v>  순풍산부인과</v>
       </c>
-      <c r="I569" s="29">
+      <c r="I569" s="28">
         <v>2</v>
       </c>
       <c r="J569" t="str">
@@ -30921,13 +31706,13 @@
         <v>8</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>2003</v>
+        <v>1979</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1974</v>
+        <v>1958</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>1141</v>
@@ -30944,7 +31729,7 @@
         <f t="shared" si="137"/>
         <v>  미국</v>
       </c>
-      <c r="I570" s="29">
+      <c r="I570" s="28">
         <v>0</v>
       </c>
       <c r="J570" t="str">
@@ -30957,16 +31742,16 @@
         <v>9</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>2005</v>
+        <v>1981</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>1976</v>
+        <v>1959</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="E571" s="3" t="s">
-        <v>1978</v>
+        <v>1960</v>
       </c>
       <c r="F571" s="12" t="str">
         <f t="shared" si="135"/>
@@ -30980,7 +31765,7 @@
         <f t="shared" si="137"/>
         <v>  에그 베네딕트</v>
       </c>
-      <c r="I571" s="29">
+      <c r="I571" s="28">
         <v>1</v>
       </c>
       <c r="J571" t="str">
@@ -30993,16 +31778,16 @@
         <v>10</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>2007</v>
+        <v>1983</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>1980</v>
+        <v>1961</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1981</v>
+        <v>1962</v>
       </c>
       <c r="E572" s="3" t="s">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="F572" s="12" t="str">
         <f t="shared" si="135"/>
@@ -31016,7 +31801,7 @@
         <f t="shared" si="137"/>
         <v>  자바</v>
       </c>
-      <c r="I572" s="29">
+      <c r="I572" s="28">
         <v>2</v>
       </c>
       <c r="J572" t="str">
@@ -31029,16 +31814,16 @@
         <v>11</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>1984</v>
+        <v>1963</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>1986</v>
+        <v>1964</v>
       </c>
       <c r="F573" s="12" t="str">
         <f t="shared" si="135"/>
@@ -31052,7 +31837,7 @@
         <f t="shared" si="137"/>
         <v>  나라이름</v>
       </c>
-      <c r="I573" s="29">
+      <c r="I573" s="28">
         <v>1</v>
       </c>
       <c r="J573" t="str">
@@ -31065,16 +31850,16 @@
         <v>12</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>2011</v>
+        <v>1987</v>
       </c>
       <c r="C574" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D574" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="D574" s="3" t="s">
-        <v>2012</v>
-      </c>
       <c r="E574" s="3" t="s">
-        <v>1990</v>
+        <v>1966</v>
       </c>
       <c r="F574" s="12" t="str">
         <f t="shared" si="135"/>
@@ -31088,12 +31873,2327 @@
         <f t="shared" si="137"/>
         <v>  우라늄</v>
       </c>
-      <c r="I574" s="29">
+      <c r="I574" s="28">
         <v>1</v>
       </c>
       <c r="J574" t="str">
         <f t="shared" si="138"/>
         <v>(49,12,' 희토류가 아닌 것은?','  니켈','  구리','  우라늄',1),</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F575" s="12" t="str">
+        <f t="shared" ref="F575:F588" si="139">IF( IFERROR(FIND("A.",C575), 0) &gt; 0, TRIM(MID( C575, SEARCH("A.", C575)+2, 100)),TRIM(C575))</f>
+        <v/>
+      </c>
+      <c r="G575" s="12" t="str">
+        <f t="shared" ref="G575:G588" si="140">IF( IFERROR(FIND("B.",D575), 0) &gt; 0, TRIM(MID( D575, SEARCH("B.", D575)+2, 100)),TRIM(D575))</f>
+        <v/>
+      </c>
+      <c r="H575" s="18" t="str">
+        <f t="shared" ref="H575:H588" si="141">IF( IFERROR(FIND("C.",E575), 0) &gt; 0, TRIM(MID( E575, SEARCH("C.", E575)+2, 100)),TRIM(E575))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B576" s="3" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F576" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v/>
+      </c>
+      <c r="G576" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v/>
+      </c>
+      <c r="H576" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v/>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>1</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F577" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  부처님 오신 날</v>
+      </c>
+      <c r="G577" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  크리스마스</v>
+      </c>
+      <c r="H577" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  잼누나 생일</v>
+      </c>
+      <c r="I577" s="28">
+        <v>0</v>
+      </c>
+      <c r="J577" t="str">
+        <f>"("&amp;$B$576&amp;","&amp;A577&amp;",'"&amp;B577&amp;"','"&amp;F577&amp;"','"&amp;G577&amp;"','"&amp;H577&amp;"',"&amp;I577&amp;"),"</f>
+        <v>(50,1,' 오늘(2018년 5월 22일)은 무슨 날일까요?','  부처님 오신 날','  크리스마스','  잼누나 생일',0),</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>2</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F578" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  상형문자</v>
+      </c>
+      <c r="G578" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  이모티콘</v>
+      </c>
+      <c r="H578" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  캘리그라피</v>
+      </c>
+      <c r="I578" s="28">
+        <v>2</v>
+      </c>
+      <c r="J578" t="str">
+        <f t="shared" ref="J578:J588" si="142">"("&amp;$B$576&amp;","&amp;A578&amp;",'"&amp;B578&amp;"','"&amp;F578&amp;"','"&amp;G578&amp;"','"&amp;H578&amp;"',"&amp;I578&amp;"),"</f>
+        <v>(50,2,' "손으로 그린 그림문자"라는 뜻으로 기계적인 표현이 아닌 손으로 쓴 아름답고 개성있는 글자체를 가리키는 말은?','  상형문자','  이모티콘','  캘리그라피',2),</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>3</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F579" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  마카롱</v>
+      </c>
+      <c r="G579" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  바게트</v>
+      </c>
+      <c r="H579" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  마들렌</v>
+      </c>
+      <c r="I579" s="28">
+        <v>0</v>
+      </c>
+      <c r="J579" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,3,' 아몬드가루, 달걀흰자, 설탕이 재료인 지름 5cm 정도의 겉은 바삭하고 속은 부드러운 프랑스 고급과자는?','  마카롱','  바게트','  마들렌',0),</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>4</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F580" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  우체국</v>
+      </c>
+      <c r="G580" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  편의점</v>
+      </c>
+      <c r="H580" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  한국은행</v>
+      </c>
+      <c r="I580" s="28">
+        <v>1</v>
+      </c>
+      <c r="J580" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,4,' 훼손된 지폐를 정식으로 교환할 수 없는 곳은?','  우체국','  편의점','  한국은행',1),</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>5</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F581" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  님비현상</v>
+      </c>
+      <c r="G581" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  핌투현상</v>
+      </c>
+      <c r="H581" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  핌피현상</v>
+      </c>
+      <c r="I581" s="28">
+        <v>0</v>
+      </c>
+      <c r="J581" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,5,' 자신이 속한 지역에 이익이 되지 않는 일을 반대하는 이기적인 행동을 뜻하는 용어는?','  님비현상','  핌투현상','  핌피현상',0),</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>6</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F582" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  기원전 2년</v>
+      </c>
+      <c r="G582" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  기원후 0년</v>
+      </c>
+      <c r="H582" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  기원후 1년</v>
+      </c>
+      <c r="I582" s="28">
+        <v>2</v>
+      </c>
+      <c r="J582" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,6,' 기원전 1년 다음은 무엇일까?','  기원전 2년','  기원후 0년','  기원후 1년',2),</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>7</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F583" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  서라벌</v>
+      </c>
+      <c r="G583" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  빛고을</v>
+      </c>
+      <c r="H583" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  한밭</v>
+      </c>
+      <c r="I583" s="28">
+        <v>2</v>
+      </c>
+      <c r="J583" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,7,' 대전을 지칭하는 순우리말은?','  서라벌','  빛고을','  한밭',2),</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>8</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F584" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  비숑 프리제</v>
+      </c>
+      <c r="G584" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  비글</v>
+      </c>
+      <c r="H584" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  풍산개</v>
+      </c>
+      <c r="I584" s="28">
+        <v>1</v>
+      </c>
+      <c r="J584" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,8,' 만화 캐릭터 "스누피"의 견종은?','  비숑 프리제','  비글','  풍산개',1),</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>9</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F585" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  덩굴</v>
+      </c>
+      <c r="G585" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  넝쿨</v>
+      </c>
+      <c r="H585" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  덩쿨</v>
+      </c>
+      <c r="I585" s="28">
+        <v>2</v>
+      </c>
+      <c r="J585" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,9,' 다음 중 "식물의 줄기"를 뜻하는 표준어가 아닌 것은?','  덩굴','  넝쿨','  덩쿨',2),</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>10</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F586" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  숙부</v>
+      </c>
+      <c r="G586" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  외할아버지</v>
+      </c>
+      <c r="H586" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  장인어른</v>
+      </c>
+      <c r="I586" s="28">
+        <v>2</v>
+      </c>
+      <c r="J586" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,10,' 빙부상은 누구의 상일까?','  숙부','  외할아버지','  장인어른',2),</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>11</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F587" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  고슴도치 속털</v>
+      </c>
+      <c r="G587" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  모기의 침</v>
+      </c>
+      <c r="H587" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  도깨비풀</v>
+      </c>
+      <c r="I587" s="28">
+        <v>1</v>
+      </c>
+      <c r="J587" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,11,' 일본은 (   )을 모티브로 아픔 없이 주사를 놓을 수 있는 주사 바늘을 개발했다.','  고슴도치 속털','  모기의 침','  도깨비풀',1),</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>12</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F588" s="12" t="str">
+        <f t="shared" si="139"/>
+        <v>  도시화 현상</v>
+      </c>
+      <c r="G588" s="12" t="str">
+        <f t="shared" si="140"/>
+        <v>  스프롤 현상</v>
+      </c>
+      <c r="H588" s="18" t="str">
+        <f t="shared" si="141"/>
+        <v>  공동화 현상</v>
+      </c>
+      <c r="I588" s="28">
+        <v>1</v>
+      </c>
+      <c r="J588" t="str">
+        <f t="shared" si="142"/>
+        <v>(50,12,' 도시의 급격한 발전으로 도시 주변이 무질서하게 확대되는 현상은?','  도시화 현상','  스프롤 현상','  공동화 현상',1),</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F589" s="12" t="str">
+        <f t="shared" ref="F589:F602" si="143">IF( IFERROR(FIND("A.",C589), 0) &gt; 0, TRIM(MID( C589, SEARCH("A.", C589)+2, 100)),TRIM(C589))</f>
+        <v/>
+      </c>
+      <c r="G589" s="12" t="str">
+        <f t="shared" ref="G589:G602" si="144">IF( IFERROR(FIND("B.",D589), 0) &gt; 0, TRIM(MID( D589, SEARCH("B.", D589)+2, 100)),TRIM(D589))</f>
+        <v/>
+      </c>
+      <c r="H589" s="18" t="str">
+        <f t="shared" ref="H589:H602" si="145">IF( IFERROR(FIND("C.",E589), 0) &gt; 0, TRIM(MID( E589, SEARCH("C.", E589)+2, 100)),TRIM(E589))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B590" s="3" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F590" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v/>
+      </c>
+      <c r="G590" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v/>
+      </c>
+      <c r="H590" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>1</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F591" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  학생</v>
+      </c>
+      <c r="G591" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  유남생</v>
+      </c>
+      <c r="H591" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  십장생</v>
+      </c>
+      <c r="I591" s="28">
+        <v>0</v>
+      </c>
+      <c r="J591" t="str">
+        <f>"("&amp;$B$590&amp;","&amp;A591&amp;",'"&amp;B591&amp;"','"&amp;F591&amp;"','"&amp;G591&amp;"','"&amp;H591&amp;"',"&amp;I591&amp;"),"</f>
+        <v>(51,1,' "초등OO, 중OO, 고등OO" "OO" 안에 공통으로 들어갈 말은?','  학생','  유남생','  십장생',0),</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>2</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F592" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  졸음방지</v>
+      </c>
+      <c r="G592" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  소화기능 촉진</v>
+      </c>
+      <c r="H592" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  전투력 상승</v>
+      </c>
+      <c r="I592" s="28">
+        <v>2</v>
+      </c>
+      <c r="J592" t="str">
+        <f t="shared" ref="J592:J602" si="146">"("&amp;$B$590&amp;","&amp;A592&amp;",'"&amp;B592&amp;"','"&amp;F592&amp;"','"&amp;G592&amp;"','"&amp;H592&amp;"',"&amp;I592&amp;"),"</f>
+        <v>(51,2,' 껌의 효능이 아닌 것은?','  졸음방지','  소화기능 촉진','  전투력 상승',2),</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>3</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F593" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  잔나비 띠</v>
+      </c>
+      <c r="G593" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  타이탄의 벨트</v>
+      </c>
+      <c r="H593" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  뫼비우스의 띠</v>
+      </c>
+      <c r="I593" s="28">
+        <v>2</v>
+      </c>
+      <c r="J593" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,3,' 길게 자른 종이를 180° 비틀어 붙인 띠를 무엇이라고 할까?','  잔나비 띠','  타이탄의 벨트','  뫼비우스의 띠',2),</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>4</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F594" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  수원 화성</v>
+      </c>
+      <c r="G594" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  진주성</v>
+      </c>
+      <c r="H594" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  감수성</v>
+      </c>
+      <c r="I594" s="28">
+        <v>0</v>
+      </c>
+      <c r="J594" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,4,' 정조가 아버지인 사도세자의 묘를 옮기며 축조한 성으로, 거중기 등을 활용해 만든 성은?','  수원 화성','  진주성','  감수성',0),</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>5</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F595" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  밭</v>
+      </c>
+      <c r="G595" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  밖</v>
+      </c>
+      <c r="H595" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  박</v>
+      </c>
+      <c r="I595" s="28">
+        <v>1</v>
+      </c>
+      <c r="J595" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,5,' "동구O 과수원길 아카시아꽃이 활짝 폈네~" "O" 안의 가사는?','  밭','  밖','  박',1),</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>6</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F596" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  우왕</v>
+      </c>
+      <c r="G596" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  공양왕</v>
+      </c>
+      <c r="H596" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  공민왕</v>
+      </c>
+      <c r="I596" s="28">
+        <v>1</v>
+      </c>
+      <c r="J596" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,6,' 고려의 마지막 왕은?','  우왕','  공양왕','  공민왕',1),</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>7</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F597" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  베이스</v>
+      </c>
+      <c r="G597" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  바리톤</v>
+      </c>
+      <c r="H597" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  테너</v>
+      </c>
+      <c r="I597" s="28">
+        <v>2</v>
+      </c>
+      <c r="J597" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,7,' 다음 중 성악에서 가장 높은 음을 노래하는 가수는?','  베이스','  바리톤','  테너',2),</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>8</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F598" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  공연의 쉬는 시간</v>
+      </c>
+      <c r="G598" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  하인 내지 고용인</v>
+      </c>
+      <c r="H598" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  틈새 내지 작은 구멍</v>
+      </c>
+      <c r="I598" s="28">
+        <v>1</v>
+      </c>
+      <c r="J598" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,8,' 대리주차를 뜻하는 단어 "발렛파킹"에서 발렛의 뜻은 무엇일까?','  공연의 쉬는 시간','  하인 내지 고용인','  틈새 내지 작은 구멍',1),</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>9</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F599" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  영전(榮轉)</v>
+      </c>
+      <c r="G599" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  운명(運命)</v>
+      </c>
+      <c r="H599" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  붕어(崩御)</v>
+      </c>
+      <c r="I599" s="28">
+        <v>0</v>
+      </c>
+      <c r="J599" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,9,' 다음 중 뜻이 다른 하나는?','  영전(榮轉)','  운명(運命)','  붕어(崩御)',0),</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>10</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F600" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  동백꽃</v>
+      </c>
+      <c r="G600" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  장미꽃</v>
+      </c>
+      <c r="H600" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  석류꽃</v>
+      </c>
+      <c r="I600" s="28">
+        <v>2</v>
+      </c>
+      <c r="J600" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,10,' 남자가 많은 곳에 여자가 한 명인 것을 홍일점이라 한다. 그럼 홍일점을 지칭하는 이 꽃의 이름은?','  동백꽃','  장미꽃','  석류꽃',2),</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>11</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F601" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  여수공항</v>
+      </c>
+      <c r="G601" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  대구공항</v>
+      </c>
+      <c r="H601" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  양양공항</v>
+      </c>
+      <c r="I601" s="28">
+        <v>0</v>
+      </c>
+      <c r="J601" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,11,' 다음 중 국제공항이 아닌 곳은?','  여수공항','  대구공항','  양양공항',0),</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>12</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F602" s="12" t="str">
+        <f t="shared" si="143"/>
+        <v>  물</v>
+      </c>
+      <c r="G602" s="12" t="str">
+        <f t="shared" si="144"/>
+        <v>  불</v>
+      </c>
+      <c r="H602" s="18" t="str">
+        <f t="shared" si="145"/>
+        <v>  땅</v>
+      </c>
+      <c r="I602" s="28">
+        <v>0</v>
+      </c>
+      <c r="J602" t="str">
+        <f t="shared" si="146"/>
+        <v>(51,12,' 태극기 네 모서리의 4괘 중 하나인 "감괘"는 어떤 것을 상징하는가?','  물','  불','  땅',0),</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F603" s="12" t="str">
+        <f t="shared" ref="F603:F616" si="147">IF( IFERROR(FIND("A.",C603), 0) &gt; 0, TRIM(MID( C603, SEARCH("A.", C603)+2, 100)),TRIM(C603))</f>
+        <v/>
+      </c>
+      <c r="G603" s="12" t="str">
+        <f t="shared" ref="G603:G616" si="148">IF( IFERROR(FIND("B.",D603), 0) &gt; 0, TRIM(MID( D603, SEARCH("B.", D603)+2, 100)),TRIM(D603))</f>
+        <v/>
+      </c>
+      <c r="H603" s="18" t="str">
+        <f t="shared" ref="H603:H616" si="149">IF( IFERROR(FIND("C.",E603), 0) &gt; 0, TRIM(MID( E603, SEARCH("C.", E603)+2, 100)),TRIM(E603))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B604" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F604" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v/>
+      </c>
+      <c r="G604" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v/>
+      </c>
+      <c r="H604" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v/>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>1</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F605" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  요술공주 밍키 </v>
+      </c>
+      <c r="G605" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  세일러문</v>
+      </c>
+      <c r="H605" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  은하철도999</v>
+      </c>
+      <c r="I605" s="28">
+        <v>2</v>
+      </c>
+      <c r="J605" t="str">
+        <f>"("&amp;$B$604&amp;","&amp;A605&amp;",'"&amp;B605&amp;"','"&amp;F605&amp;"','"&amp;G605&amp;"','"&amp;H605&amp;"',"&amp;I605&amp;"),"</f>
+        <v>(52,1,' 방금 본 영상은 어떤 만화의 오프닝 영상일까? ( 기차가~ 어둠을 헤치고 은하수를 건너어면~ )','  요술공주 밍키 ','  세일러문','  은하철도999',2),</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>2</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F606" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  1</v>
+      </c>
+      <c r="G606" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  10</v>
+      </c>
+      <c r="H606" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  100</v>
+      </c>
+      <c r="I606" s="28">
+        <v>2</v>
+      </c>
+      <c r="J606" t="str">
+        <f t="shared" ref="J606:J616" si="150">"("&amp;$B$604&amp;","&amp;A606&amp;",'"&amp;B606&amp;"','"&amp;F606&amp;"','"&amp;G606&amp;"','"&amp;H606&amp;"',"&amp;I606&amp;"),"</f>
+        <v>(52,2,' 1000의 10%는 얼마인가?','  1','  10','  100',2),</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>3</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F607" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  상공의 날</v>
+      </c>
+      <c r="G607" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  방재의 날</v>
+      </c>
+      <c r="H607" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  바다의 날</v>
+      </c>
+      <c r="I607" s="28">
+        <v>1</v>
+      </c>
+      <c r="J607" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,3,' 자연에 대한 경각심을 높이고 교육과 홍보를 통해 자연재해 피해 최소화를 목적으로 제정된 기념일은?','  상공의 날','  방재의 날','  바다의 날',1),</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>4</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F608" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  뛰는 것</v>
+      </c>
+      <c r="G608" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  똑같다</v>
+      </c>
+      <c r="H608" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  걷는 것</v>
+      </c>
+      <c r="I608" s="28">
+        <v>2</v>
+      </c>
+      <c r="J608" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,4,' 빗속에서 같은 시간 동안 움직인다면 걷는 것과 뛰는 것 중 어느 쪽이 비를 더 맞을까?','  뛰는 것','  똑같다','  걷는 것',2),</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>5</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F609" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  세이렌</v>
+      </c>
+      <c r="G609" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  크라켄</v>
+      </c>
+      <c r="H609" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  레비아탄</v>
+      </c>
+      <c r="I609" s="28">
+        <v>0</v>
+      </c>
+      <c r="J609" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,5,' 아름다운 목소리로 선원들을 유혹해 배를 난파시키는 전설 속의 바다 요괴는?','  세이렌','  크라켄','  레비아탄',0),</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>6</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F610" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  신채호</v>
+      </c>
+      <c r="G610" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  안중근</v>
+      </c>
+      <c r="H610" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  김두한</v>
+      </c>
+      <c r="I610" s="28">
+        <v>1</v>
+      </c>
+      <c r="J610" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,6,' "하루라도 책을 읽지 않으면 입속에 가시가 돋는다"라는 명언을 남긴 독립운동가는?','  신채호','  안중근','  김두한',1),</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>7</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F611" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  정수</v>
+      </c>
+      <c r="G611" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  무리수</v>
+      </c>
+      <c r="H611" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  초월수</v>
+      </c>
+      <c r="I611" s="28">
+        <v>0</v>
+      </c>
+      <c r="J611" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,7,' 원주율(π)의 특성이 아닌 것은?','  정수','  무리수','  초월수',0),</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>8</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F612" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  잭 더 리퍼</v>
+      </c>
+      <c r="G612" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  알레그리아</v>
+      </c>
+      <c r="H612" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  삼총사</v>
+      </c>
+      <c r="I612" s="28">
+        <v>2</v>
+      </c>
+      <c r="J612" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,8,' 17세기 프랑스를 배경으로 기사들의 우정과 활약상을 그린 뮤지컬 작품은?','  잭 더 리퍼','  알레그리아','  삼총사',2),</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>9</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F613" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  프리프라이스제</v>
+      </c>
+      <c r="G613" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  오픈프라이스제</v>
+      </c>
+      <c r="H613" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  권장소비자가격제</v>
+      </c>
+      <c r="I613" s="28">
+        <v>1</v>
+      </c>
+      <c r="J613" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,9,' 최종 판매 업자가 제품 가격을 결정해 판매하는 방식은?','  프리프라이스제','  오픈프라이스제','  권장소비자가격제',1),</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>10</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F614" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  해서(楷書)</v>
+      </c>
+      <c r="G614" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  편저(片楮)</v>
+      </c>
+      <c r="H614" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  서찰(書札)</v>
+      </c>
+      <c r="I614" s="28">
+        <v>0</v>
+      </c>
+      <c r="J614" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,10,' "편지"를 뜻하는 한자가 아닌 것은?','  해서(楷書)','  편저(片楮)','  서찰(書札)',0),</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>11</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F615" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  Joypong</v>
+      </c>
+      <c r="G615" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  Joipung</v>
+      </c>
+      <c r="H615" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  Jollypong</v>
+      </c>
+      <c r="I615" s="28">
+        <v>2</v>
+      </c>
+      <c r="J615" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,11,' 크라운제과의 대표 과자 "죠리퐁"의 영어 이름은?','  Joypong','  Joipung','  Jollypong',2),</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>12</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F616" s="12" t="str">
+        <f t="shared" si="147"/>
+        <v>  작다</v>
+      </c>
+      <c r="G616" s="12" t="str">
+        <f t="shared" si="148"/>
+        <v>  같다</v>
+      </c>
+      <c r="H616" s="18" t="str">
+        <f t="shared" si="149"/>
+        <v>  크다</v>
+      </c>
+      <c r="I616" s="28">
+        <v>2</v>
+      </c>
+      <c r="J616" t="str">
+        <f t="shared" si="150"/>
+        <v>(52,12,' 바둑알 검은 돌이 흰 돌보다 크기가 (   ).','  작다','  같다','  크다',2),</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F617" s="12" t="str">
+        <f t="shared" ref="F617:F630" si="151">IF( IFERROR(FIND("A.",C617), 0) &gt; 0, TRIM(MID( C617, SEARCH("A.", C617)+2, 100)),TRIM(C617))</f>
+        <v/>
+      </c>
+      <c r="G617" s="12" t="str">
+        <f t="shared" ref="G617:G630" si="152">IF( IFERROR(FIND("B.",D617), 0) &gt; 0, TRIM(MID( D617, SEARCH("B.", D617)+2, 100)),TRIM(D617))</f>
+        <v/>
+      </c>
+      <c r="H617" s="18" t="str">
+        <f t="shared" ref="H617:H630" si="153">IF( IFERROR(FIND("C.",E617), 0) &gt; 0, TRIM(MID( E617, SEARCH("C.", E617)+2, 100)),TRIM(E617))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B618" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F618" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v/>
+      </c>
+      <c r="G618" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v/>
+      </c>
+      <c r="H618" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v/>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>1</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F619" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  이국적</v>
+      </c>
+      <c r="G619" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  이북적</v>
+      </c>
+      <c r="H619" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  이기적</v>
+      </c>
+      <c r="I619" s="28">
+        <v>0</v>
+      </c>
+      <c r="J619" t="str">
+        <f>"("&amp;$B$618&amp;","&amp;A619&amp;",'"&amp;B619&amp;"','"&amp;F619&amp;"','"&amp;G619&amp;"','"&amp;H619&amp;"',"&amp;I619&amp;"),"</f>
+        <v>(53,1,' "자기 나라가 아닌 다른 나라에 특징적인"이란 뜻으로 쓰이는 말은?','  이국적','  이북적','  이기적',0),</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>2</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F620" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  포로포즈</v>
+      </c>
+      <c r="G620" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  프로토콜</v>
+      </c>
+      <c r="H620" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  프로포폴</v>
+      </c>
+      <c r="I620" s="28">
+        <v>1</v>
+      </c>
+      <c r="J620" t="str">
+        <f t="shared" ref="J620:J630" si="154">"("&amp;$B$618&amp;","&amp;A620&amp;",'"&amp;B620&amp;"','"&amp;F620&amp;"','"&amp;G620&amp;"','"&amp;H620&amp;"',"&amp;I620&amp;"),"</f>
+        <v>(53,2,' 컴퓨터간 정보를 주고받을 때 통신방법에 대한 규칙과 약속을 의미하는 것은?','  포로포즈','  프로토콜','  프로포폴',1),</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>3</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F621" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  퍼레이드</v>
+      </c>
+      <c r="G621" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  카니발</v>
+      </c>
+      <c r="H621" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  갈라쇼</v>
+      </c>
+      <c r="I621" s="28">
+        <v>2</v>
+      </c>
+      <c r="J621" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,3,' "축하하기 위해 벌이는 공연"이란 뜻으로 주로 클래식 음악, 피겨스케이팅 분야에서 열리는 이 행사는?','  퍼레이드','  카니발','  갈라쇼',2),</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>4</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F622" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  베를린</v>
+      </c>
+      <c r="G622" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  베니스</v>
+      </c>
+      <c r="H622" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  할리우드</v>
+      </c>
+      <c r="I622" s="28">
+        <v>2</v>
+      </c>
+      <c r="J622" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,4,' &lt;세계 3대 영화제&gt;가 열리지 않는 도시는?','  베를린','  베니스','  할리우드',2),</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>5</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F623" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  송도 동북아무역센터</v>
+      </c>
+      <c r="G623" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  롯데월드타워</v>
+      </c>
+      <c r="H623" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  63빌딩</v>
+      </c>
+      <c r="I623" s="28">
+        <v>1</v>
+      </c>
+      <c r="J623" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,5,' 우리나라에서 가장 높은 건물은?','  송도 동북아무역센터','  롯데월드타워','  63빌딩',1),</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>6</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F624" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  귀</v>
+      </c>
+      <c r="G624" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  발</v>
+      </c>
+      <c r="H624" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  머리</v>
+      </c>
+      <c r="I624" s="28">
+        <v>0</v>
+      </c>
+      <c r="J624" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,6,' &lt;등자뼈, 청소골, 망치뼈&gt; 다음과 가장 관련이 깊은 신체기관은?','  귀','  발','  머리',0),</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>7</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F625" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  오랜 소원</v>
+      </c>
+      <c r="G625" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  하얀 백발</v>
+      </c>
+      <c r="H625" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  남은 여생</v>
+      </c>
+      <c r="I625" s="28">
+        <v>0</v>
+      </c>
+      <c r="J625" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,7,' 중복된 표현이 아닌 것은?','  오랜 소원','  하얀 백발','  남은 여생',0),</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>8</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F626" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  상평통보</v>
+      </c>
+      <c r="G626" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  해동통보</v>
+      </c>
+      <c r="H626" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  해고통보</v>
+      </c>
+      <c r="I626" s="28">
+        <v>1</v>
+      </c>
+      <c r="J626" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,8,' 다음 보기 중 고려시대의 금속 화폐로 사용되었던 것은?','  상평통보','  해동통보','  해고통보',1),</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>9</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F627" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  남진-김남진</v>
+      </c>
+      <c r="G627" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  패티김-김희자</v>
+      </c>
+      <c r="H627" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  인순이-김인순</v>
+      </c>
+      <c r="I627" s="28">
+        <v>1</v>
+      </c>
+      <c r="J627" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,9,' 본명이 잘못 짝지어진 가수는?','  남진-김남진','  패티김-김희자','  인순이-김인순',1),</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>10</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F628" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  보석 치아</v>
+      </c>
+      <c r="G628" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  호블 스커트</v>
+      </c>
+      <c r="H628" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  총알 브래지어</v>
+      </c>
+      <c r="I628" s="28">
+        <v>2</v>
+      </c>
+      <c r="J628" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,10,' 1940-1950년 할리우드에서 큰 인기를 끌었던 패션 트렌드는?','  보석 치아','  호블 스커트','  총알 브래지어',2),</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>11</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F629" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  천원술</v>
+      </c>
+      <c r="G629" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  혼돈술</v>
+      </c>
+      <c r="H629" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  동방술</v>
+      </c>
+      <c r="I629" s="28">
+        <v>0</v>
+      </c>
+      <c r="J629" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,11,' 일차방정식의 근을 구하는 동양 전래의 계산법은?','  천원술','  혼돈술','  동방술',0),</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>12</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F630" s="12" t="str">
+        <f t="shared" si="151"/>
+        <v>  나 군대 간다</v>
+      </c>
+      <c r="G630" s="12" t="str">
+        <f t="shared" si="152"/>
+        <v>  회사에서 쓰는 노래</v>
+      </c>
+      <c r="H630" s="18" t="str">
+        <f t="shared" si="153"/>
+        <v>  그 놈의 결혼식</v>
+      </c>
+      <c r="I630" s="28">
+        <v>1</v>
+      </c>
+      <c r="J630" t="str">
+        <f t="shared" si="154"/>
+        <v>(53,12,' 발매된 적이 없는 가요제목은?','  나 군대 간다','  회사에서 쓰는 노래','  그 놈의 결혼식',1),</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F631" s="12" t="str">
+        <f t="shared" ref="F631:F635" si="155">IF( IFERROR(FIND("A.",C631), 0) &gt; 0, TRIM(MID( C631, SEARCH("A.", C631)+2, 100)),TRIM(C631))</f>
+        <v/>
+      </c>
+      <c r="G631" s="12" t="str">
+        <f t="shared" ref="G631:G634" si="156">IF( IFERROR(FIND("B.",D631), 0) &gt; 0, TRIM(MID( D631, SEARCH("B.", D631)+2, 100)),TRIM(D631))</f>
+        <v/>
+      </c>
+      <c r="H631" s="18" t="str">
+        <f t="shared" ref="H631:H634" si="157">IF( IFERROR(FIND("C.",E631), 0) &gt; 0, TRIM(MID( E631, SEARCH("C.", E631)+2, 100)),TRIM(E631))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B632" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F632" s="12" t="str">
+        <f t="shared" si="155"/>
+        <v/>
+      </c>
+      <c r="G632" s="12" t="str">
+        <f t="shared" si="156"/>
+        <v/>
+      </c>
+      <c r="H632" s="18" t="str">
+        <f t="shared" si="157"/>
+        <v/>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>1</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D633" s="29" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F633" s="12" t="str">
+        <f t="shared" si="155"/>
+        <v>초콜릿</v>
+      </c>
+      <c r="G633" s="12" t="str">
+        <f t="shared" si="156"/>
+        <v>잼</v>
+      </c>
+      <c r="H633" s="18" t="str">
+        <f t="shared" si="157"/>
+        <v>케이크</v>
+      </c>
+      <c r="I633">
+        <v>1</v>
+      </c>
+      <c r="J633" t="str">
+        <f>"("&amp;$B$632&amp;","&amp;A633&amp;",'"&amp;B633&amp;"','"&amp;F633&amp;"','"&amp;G633&amp;"','"&amp;H633&amp;"',"&amp;I633&amp;"),"</f>
+        <v>(54,1,'&lt;설탕,과일,퀴즈&gt; 다음 단어에서 연상되는 것은?','초콜릿','잼','케이크',1),</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>2</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C634" s="29" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F634" s="12" t="str">
+        <f t="shared" si="155"/>
+        <v>소주</v>
+      </c>
+      <c r="G634" s="12" t="str">
+        <f t="shared" si="156"/>
+        <v>맥주</v>
+      </c>
+      <c r="H634" s="18" t="str">
+        <f t="shared" si="157"/>
+        <v>양주</v>
+      </c>
+      <c r="I634">
+        <v>0</v>
+      </c>
+      <c r="J634" t="str">
+        <f t="shared" ref="J634:J644" si="158">"("&amp;$B$632&amp;","&amp;A634&amp;",'"&amp;B634&amp;"','"&amp;F634&amp;"','"&amp;G634&amp;"','"&amp;H634&amp;"',"&amp;I634&amp;"),"</f>
+        <v>(54,2,'중국 지명이 아닌 것은?','소주','맥주','양주',0),</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>3</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C635" s="29" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F635" s="12" t="str">
+        <f t="shared" ref="F635:F644" si="159">IF( IFERROR(FIND("A.",C635), 0) &gt; 0, TRIM(MID( C635, SEARCH("A.", C635)+2, 100)),TRIM(C635))</f>
+        <v>April Fool's Day</v>
+      </c>
+      <c r="G635" s="12" t="str">
+        <f t="shared" ref="G635:G644" si="160">IF( IFERROR(FIND("B.",D635), 0) &gt; 0, TRIM(MID( D635, SEARCH("B.", D635)+2, 100)),TRIM(D635))</f>
+        <v>April Liar's Day</v>
+      </c>
+      <c r="H635" s="18" t="str">
+        <f t="shared" ref="H635:H644" si="161">IF( IFERROR(FIND("C.",E635), 0) &gt; 0, TRIM(MID( E635, SEARCH("C.", E635)+2, 100)),TRIM(E635))</f>
+        <v>All Souls Day</v>
+      </c>
+      <c r="I635">
+        <v>0</v>
+      </c>
+      <c r="J635" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,3,'만우절의 영문 표기로 올바른 것은?','April Fool's Day','April Liar's Day','All Souls Day',0),</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>4</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C636" s="29" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F636" s="12" t="str">
+        <f t="shared" si="159"/>
+        <v>건물주</v>
+      </c>
+      <c r="G636" s="12" t="str">
+        <f t="shared" si="160"/>
+        <v>조물주</v>
+      </c>
+      <c r="H636" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>배관공</v>
+      </c>
+      <c r="I636">
+        <v>0</v>
+      </c>
+      <c r="J636" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,4,'&lt;슈퍼마리오&gt;에서 '마리오'의 모델이 된 실존인물의 직업은?','건물주','조물주','배관공',0),</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>5</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C637" s="29" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F637" s="12" t="str">
+        <f t="shared" si="159"/>
+        <v>첫눈이 내리는 날</v>
+      </c>
+      <c r="G637" s="12" t="str">
+        <f t="shared" si="160"/>
+        <v>감나무 열매가 열리는 날</v>
+      </c>
+      <c r="H637" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>왕자가 태어난 날</v>
+      </c>
+      <c r="I637">
+        <v>0</v>
+      </c>
+      <c r="J637" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,5,'조선시대에는 어떤 날을 만우절로 정했을까?','첫눈이 내리는 날','감나무 열매가 열리는 날','왕자가 태어난 날',0),</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>6</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E638" s="29" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F638" s="12" t="str">
+        <f t="shared" si="159"/>
+        <v>이성계</v>
+      </c>
+      <c r="G638" s="12" t="str">
+        <f t="shared" si="160"/>
+        <v>이방원</v>
+      </c>
+      <c r="H638" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>정도전</v>
+      </c>
+      <c r="I638">
+        <v>2</v>
+      </c>
+      <c r="J638" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,6,'경복궁의 이름을 지은 사람은?','이성계','이방원','정도전',2),</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>7</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D639" s="29" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F639" s="12" t="str">
+        <f t="shared" si="159"/>
+        <v>포르투갈</v>
+      </c>
+      <c r="G639" s="12" t="str">
+        <f t="shared" si="160"/>
+        <v>중국</v>
+      </c>
+      <c r="H639" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>일본</v>
+      </c>
+      <c r="I639">
+        <v>1</v>
+      </c>
+      <c r="J639" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,7,'"방귀"는 어느 나라에서 온 말일까?','포르투갈','중국','일본',1),</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>8</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D640" s="29" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="F640" s="12" t="str">
+        <f t="shared" si="159"/>
+        <v>없음</v>
+      </c>
+      <c r="G640" s="12" t="str">
+        <f t="shared" si="160"/>
+        <v>30분</v>
+      </c>
+      <c r="H640" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>1시간</v>
+      </c>
+      <c r="I640">
+        <v>1</v>
+      </c>
+      <c r="J640" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,8,'북한과의 시차는?','없음','30분','1시간',1),</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>9</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E641" s="29" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F641" s="12" t="str">
+        <f t="shared" si="159"/>
+        <v>깐돌이와 야옹이</v>
+      </c>
+      <c r="G641" s="12" t="str">
+        <f t="shared" si="160"/>
+        <v>미련한 야옹이와 깐돌이</v>
+      </c>
+      <c r="H641" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>이겨라 깐돌이</v>
+      </c>
+      <c r="I641">
+        <v>2</v>
+      </c>
+      <c r="J641" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,9,'만화 영화 &lt;톰과 제리&gt;가 우리나라에서 처음 방송될 때 제목은?','깐돌이와 야옹이','미련한 야옹이와 깐돌이','이겨라 깐돌이',2),</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>10</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C642" s="29" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F642" s="12" t="str">
+        <f t="shared" si="159"/>
+        <v>애그플레이션</v>
+      </c>
+      <c r="G642" s="12" t="str">
+        <f t="shared" si="160"/>
+        <v>스태그플레이션</v>
+      </c>
+      <c r="H642" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>에코플레이션</v>
+      </c>
+      <c r="I642">
+        <v>0</v>
+      </c>
+      <c r="J642" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,10,'곡물 가격이 상승하는 영향으로 물가가 오르는 현상을 일컫는 말은?','애그플레이션','스태그플레이션','에코플레이션',0),</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>11</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E643" s="29" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F643" s="12" t="str">
+        <f t="shared" si="159"/>
+        <v>환경의 날</v>
+      </c>
+      <c r="G643" s="12" t="str">
+        <f t="shared" si="160"/>
+        <v>국군의 날</v>
+      </c>
+      <c r="H643" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>과학의 날</v>
+      </c>
+      <c r="I643">
+        <v>2</v>
+      </c>
+      <c r="J643" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,11,'1년 중 가장 먼저 오는 기념일은?','환경의 날','국군의 날','과학의 날',2),</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>12</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E644" s="29" t="s">
+        <v>2258</v>
+      </c>
+      <c r="F644" s="12" t="str">
+        <f t="shared" si="159"/>
+        <v>고사리역</v>
+      </c>
+      <c r="G644" s="12" t="str">
+        <f t="shared" si="160"/>
+        <v>괘법 르네시떼역</v>
+      </c>
+      <c r="H644" s="18" t="str">
+        <f t="shared" si="161"/>
+        <v>도미노역</v>
+      </c>
+      <c r="I644">
+        <v>2</v>
+      </c>
+      <c r="J644" t="str">
+        <f t="shared" si="158"/>
+        <v>(54,12,'다음 중 대한민국에 현존하지 않는 역 이름은?','고사리역','괘법 르네시떼역','도미노역',2),</v>
       </c>
     </row>
   </sheetData>
@@ -31119,27 +34219,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>1947</v>
+        <v>2138</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="str">
         <f>MID(A1, FIND("1.", A1) + 2, 9999)</f>
-        <v xml:space="preserve"> P2P 등 온라인을 통해 영리적 목적으로 불법 저작물을 전송해 이득을 챙기는 사람은?</v>
-      </c>
-      <c r="D1" s="7" t="str">
+        <v xml:space="preserve"> '자기 나라가 아닌 다른 나라에 특징적인'이란 뜻으로 쓰이는 말은?</v>
+      </c>
+      <c r="D1" s="6" t="str">
         <f>A3</f>
-        <v>A.  헤비메탈</v>
+        <v>A.  이국적</v>
       </c>
       <c r="E1" s="27" t="str">
         <f>A4</f>
-        <v>B.  헤비업로더</v>
-      </c>
-      <c r="F1" s="28" t="str">
+        <v>B.  이북적</v>
+      </c>
+      <c r="F1" s="27" t="str">
         <f>A5</f>
-        <v>C.  헤비급챔피언</v>
-      </c>
-      <c r="G1" s="29">
-        <v>1</v>
+        <v>C.  이기적</v>
+      </c>
+      <c r="G1" s="28">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
@@ -31147,265 +34247,265 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="str">
         <f>MID(A8, FIND("2.", A8) + 2, 9999)</f>
-        <v xml:space="preserve"> '독백' 또는'솔리로퀴'와 같은 의미의 단어는?</v>
+        <v xml:space="preserve"> 컴퓨터간 정보를 주고받을 때 통신방법에 대한 규칙과 약속을 의미하는 것은?</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>A10</f>
-        <v>A.  에필로그</v>
-      </c>
-      <c r="E2" s="7" t="str">
+        <v>A.  포로포즈</v>
+      </c>
+      <c r="E2" s="6" t="str">
         <f>A11</f>
-        <v>B.  프롤로그</v>
-      </c>
-      <c r="F2" s="6" t="str">
+        <v>B.  프로토콜</v>
+      </c>
+      <c r="F2" s="7" t="str">
         <f>A12</f>
-        <v>C.  모놀로그</v>
-      </c>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>C.  프로포폴</v>
+      </c>
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>1948</v>
+        <v>2139</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="str">
         <f>MID(A15, FIND("3.", A15) + 2, 9999)</f>
-        <v xml:space="preserve"> 지구 대기의 약 78% 정도를 차지하는 지구 생명체의 구성 성분은?</v>
-      </c>
-      <c r="D3" s="6" t="str">
+        <v xml:space="preserve"> '축하하기 위해 벌이는 공연'이란 뜻으로 주로 클래식 음악, 피겨스케이팅 분야에서 열리는 이 행사는?</v>
+      </c>
+      <c r="D3" s="7" t="str">
         <f>A17</f>
-        <v>A.  질소</v>
+        <v>A.  퍼레이드</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>A18</f>
-        <v>B.  이산화탄소</v>
-      </c>
-      <c r="F3" s="7" t="str">
+        <v>B.  카니발</v>
+      </c>
+      <c r="F3" s="6" t="str">
         <f>A19</f>
-        <v>C.  수소</v>
-      </c>
-      <c r="G3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>C.  갈라쇼</v>
+      </c>
+      <c r="G3" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>1949</v>
+        <v>2140</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="str">
         <f>MID(A22, FIND("4.", A22) + 2, 9999)</f>
-        <v xml:space="preserve"> 서양식 테이블 매너로 올바른 것은?</v>
-      </c>
-      <c r="D4" s="6" t="str">
+        <v xml:space="preserve"> &lt;세계 3대 영화제&gt;가 열리지 않는 도시는?</v>
+      </c>
+      <c r="D4" s="7" t="str">
         <f>A24</f>
-        <v>A.  식사시 냅킨을 무릎에 올린다</v>
+        <v>A.  베를린</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>A25</f>
-        <v>B.  왼쪽에 있는 물잔을마신다</v>
-      </c>
-      <c r="F4" s="7" t="str">
+        <v>B.  베니스</v>
+      </c>
+      <c r="F4" s="6" t="str">
         <f>A26</f>
-        <v>C.  포크와 나이프는 안쪽 것부터 사용한다</v>
-      </c>
-      <c r="G4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>C.  할리우드</v>
+      </c>
+      <c r="G4" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>1950</v>
+        <v>2141</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="str">
         <f>MID(A29, FIND("5.", A29) + 2, 9999)</f>
-        <v xml:space="preserve"> 성년의 날은 매년 5월 (   ) 월요일이다.</v>
+        <v xml:space="preserve"> 우리나라에서 가장 높은 건물은?</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>A31</f>
-        <v>A.  첫째 주</v>
-      </c>
-      <c r="E5" s="7" t="str">
+        <v>A.  송도 동북아무역센터</v>
+      </c>
+      <c r="E5" s="6" t="str">
         <f>A32</f>
-        <v>B.  둘째 주</v>
-      </c>
-      <c r="F5" s="6" t="str">
+        <v>B.  롯데월드타워</v>
+      </c>
+      <c r="F5" s="7" t="str">
         <f>A33</f>
-        <v>C.  셋째 주</v>
-      </c>
-      <c r="G5" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>C.  63빌딩</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="str">
         <f>MID(A36, FIND("6.", A36) + 2, 9999)</f>
-        <v xml:space="preserve"> 한국과 국교를 수립한 최초의 공산주의 국가는?</v>
+        <v xml:space="preserve"> &lt;등자뼈, 청소골, 망치뼈&gt; 다음과 가장 관련이 깊은 신체기관은?</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>A38</f>
-        <v>A.  헝가리</v>
+        <v>A.  귀</v>
       </c>
       <c r="E6" s="7" t="str">
         <f>A39</f>
-        <v>B.  중국</v>
+        <v>B.  발</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>A40</f>
-        <v>C.  북한</v>
-      </c>
-      <c r="G6" s="29">
+        <v>C.  머리</v>
+      </c>
+      <c r="G6" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="str">
         <f>MID(A43, FIND("7.", A43) + 2, 9999)</f>
-        <v xml:space="preserve"> 90년대 후반부터 방영돼 전 국민적인 사랑을 받았던 'SBS 시트콤'은?</v>
-      </c>
-      <c r="D7" s="7" t="str">
+        <v xml:space="preserve"> 중복된 표현이 아닌 것은?</v>
+      </c>
+      <c r="D7" s="6" t="str">
         <f>A45</f>
-        <v>A.  올드미스다이어리</v>
+        <v>A.  오랜 소원</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>A46</f>
-        <v>B.  남자셋여자셋</v>
-      </c>
-      <c r="F7" s="6" t="str">
+        <v>B.  하얀 백발</v>
+      </c>
+      <c r="F7" s="7" t="str">
         <f>A47</f>
-        <v>C.  순풍산부인과</v>
-      </c>
-      <c r="G7" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>C.  남은 여생</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>1951</v>
+        <v>2142</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
         <f>MID(A50, FIND("8.", A50) + 2, 9999)</f>
-        <v xml:space="preserve"> 대표적인 스포츠 의류 브랜드 아디다스는 어느 나라의 브랜드일까?</v>
-      </c>
-      <c r="D8" s="6" t="str">
+        <v xml:space="preserve"> 다음 보기 중 고려시대의 금속 화폐로 사용되었던 것은?</v>
+      </c>
+      <c r="D8" s="7" t="str">
         <f>A52</f>
-        <v>A.  독일</v>
-      </c>
-      <c r="E8" s="7" t="str">
+        <v>A.  상평통보</v>
+      </c>
+      <c r="E8" s="6" t="str">
         <f>A53</f>
-        <v>B.  캐나다</v>
+        <v>B.  해동통보</v>
       </c>
       <c r="F8" s="7" t="str">
         <f>A54</f>
-        <v>C.  미국</v>
-      </c>
-      <c r="G8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>C.  해고통보</v>
+      </c>
+      <c r="G8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
         <f>MID(A57, FIND("9.", A57) + 2, 9999)</f>
-        <v xml:space="preserve"> 다음 음식 중 명칭이 사람 이름에서 유래하지 않은 것은?</v>
+        <v xml:space="preserve"> 본명이 잘못 짝지어진 가수는?</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>A59</f>
-        <v>A.  시저 샐러드</v>
+        <v>A.  남진-김남진</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>A60</f>
-        <v>B.  버펄로 윙</v>
+        <v>B.  패티김-김희자</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>A61</f>
-        <v>C.  에그 베네딕트</v>
-      </c>
-      <c r="G9" s="29">
+        <v>C.  인순이-김인순</v>
+      </c>
+      <c r="G9" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>1952</v>
+        <v>2143</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
         <f>MID(A64, FIND("10.", A64) + 3, 9999)</f>
-        <v xml:space="preserve"> 다음 프로그래밍 언어 중 명칭이 사람 이름에서 유래하지 않은 것은?</v>
+        <v xml:space="preserve"> 1940-1950년 할리우드에서 큰 인기를 끌었던 패션 트렌드는?</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>A66</f>
-        <v>A.  리눅스</v>
+        <v>A.  보석 치아</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>A67</f>
-        <v>B.  파스칼</v>
+        <v>B.  호블 스커트</v>
       </c>
       <c r="F10" s="6" t="str">
         <f>A68</f>
-        <v>C.  자바</v>
-      </c>
-      <c r="G10" s="29">
+        <v>C.  총알 브래지어</v>
+      </c>
+      <c r="G10" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>1953</v>
+        <v>2144</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
         <f>MID(A71, FIND("11.", A71) + 3, 9999)</f>
-        <v xml:space="preserve"> 뮤지컬 &lt;그리스&gt;에서 그리스가 뜻하는 것은?</v>
-      </c>
-      <c r="D11" s="7" t="str">
+        <v xml:space="preserve"> 일차방정식의 근을 구하는 동양 전래의 계산법은?</v>
+      </c>
+      <c r="D11" s="6" t="str">
         <f>A73</f>
-        <v>A.  자유 </v>
-      </c>
-      <c r="E11" s="6" t="str">
+        <v>A.  천원술</v>
+      </c>
+      <c r="E11" s="7" t="str">
         <f>A74</f>
-        <v>B.  기름</v>
+        <v>B.  혼돈술</v>
       </c>
       <c r="F11" s="7" t="str">
         <f>A75</f>
-        <v>C.  나라이름</v>
-      </c>
-      <c r="G11" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>C.  동방술</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>1954</v>
+        <v>2145</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="str">
         <f>MID(A78, FIND("12.", A78) + 3, 9999)</f>
-        <v xml:space="preserve"> 희토류가 아닌 것은?</v>
+        <v xml:space="preserve"> 발매된 적이 없는 가요제목은?</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>A80</f>
-        <v>A.  니켈</v>
+        <v>A.  나 군대 간다</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>A81</f>
-        <v>B.  구리</v>
+        <v>B.  회사에서 쓰는 노래</v>
       </c>
       <c r="F12" s="7" t="str">
         <f>A82</f>
-        <v>C.  우라늄</v>
-      </c>
-      <c r="G12" s="29">
+        <v>C.  그 놈의 결혼식</v>
+      </c>
+      <c r="G12" s="28">
         <v>1</v>
       </c>
     </row>
@@ -31415,9 +34515,9 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>1955</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -31425,17 +34525,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>1956</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>1957</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>985</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -31446,7 +34546,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>1958</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -31454,17 +34554,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>1959</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>1960</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>1961</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -31475,7 +34575,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>1962</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -31483,17 +34583,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>1963</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>1964</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>1965</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -31504,7 +34604,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>1966</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -31512,17 +34612,17 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>1967</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>1520</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>1566</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -31533,7 +34633,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>1968</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -31541,17 +34641,17 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>1969</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>1970</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>1971</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
@@ -31562,7 +34662,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>1972</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
@@ -31570,17 +34670,17 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
-        <v>1973</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
-        <v>1974</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
-        <v>1141</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
@@ -31591,7 +34691,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>1975</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
@@ -31599,17 +34699,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
-        <v>1976</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>1977</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
-        <v>1978</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
@@ -31620,7 +34720,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>1979</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
@@ -31628,17 +34728,17 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
-        <v>1980</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>1981</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>1982</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -31649,7 +34749,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>1983</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -31657,17 +34757,17 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
-        <v>1984</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>1985</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>1986</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
@@ -31678,7 +34778,7 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>1987</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -31686,17 +34786,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
-        <v>1988</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
-        <v>1989</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
-        <v>1990</v>
+        <v>2185</v>
       </c>
     </row>
   </sheetData>

--- a/nodejs_svr/doc/잼라이브 기출문제.xlsx
+++ b/nodejs_svr/doc/잼라이브 기출문제.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="2260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="2309">
   <si>
     <t>서태지, 양현성, 이주노가 멤버로 있었던 1세대 힙합 아이돌 그룹의 이름은?</t>
   </si>
@@ -13645,6 +13645,202 @@
   </si>
   <si>
     <t>54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수많은 동물의 행동이나 생리기능, 의사소통 등에 중요한 기능을 하는 화학물질은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페로몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[클레오파트라의 (  )가 1cm만 낮았어도 세계 역사는 다시 쓰였을지도 모른다.] 빈칸에 들어갈 말로 올바른 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속눈썹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 달력에서 찾아볼 수 없는 날은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부부의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로자의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계 환경의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘의 관계가 알맞지 않은 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포돌이와 포순이 - 이란성 쌍둥이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오성과 한음 - 사제지간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해님과 달님 - 남매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로회복제 "박카스"는 그리스 로마 신화의 신들 중 어떤 신의 이름을 따온 것일까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활력의 신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>술의 신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지혜의 신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비가 오면 우는 개구리를 쉽게 볼 수 있다. 가장 관련이 깊은 이유는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹이가 부족해서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실연당해서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호흡하기 쉬워서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계 최초로 핸드폰을 제조한 제조사는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에릭슨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노키아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모토로라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 틀린 표현은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동화 끈을 메다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방을 메다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목이 메다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선 시대에 제정된 기본예절인 오례에 속하지 않는 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흉례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거위는 야생의 어떤 새를 길들여 개량한 것일까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈매기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기러기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국의 편의점에서 볼 수 없는 이색 서비스는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항공권 발권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비데 렌탈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구두 수선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 표기는 무엇인가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 껍질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과 껍질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀 껍질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -14176,10 +14372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J644"/>
+  <dimension ref="A1:J658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J641" sqref="J641"/>
+    <sheetView tabSelected="1" topLeftCell="E621" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H633" sqref="H633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33735,7 +33931,7 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F631" s="12" t="str">
-        <f t="shared" ref="F631:F635" si="155">IF( IFERROR(FIND("A.",C631), 0) &gt; 0, TRIM(MID( C631, SEARCH("A.", C631)+2, 100)),TRIM(C631))</f>
+        <f t="shared" ref="F631:F634" si="155">IF( IFERROR(FIND("A.",C631), 0) &gt; 0, TRIM(MID( C631, SEARCH("A.", C631)+2, 100)),TRIM(C631))</f>
         <v/>
       </c>
       <c r="G631" s="12" t="str">
@@ -34194,6 +34390,472 @@
       <c r="J644" t="str">
         <f t="shared" si="158"/>
         <v>(54,12,'다음 중 대한민국에 현존하지 않는 역 이름은?','고사리역','괘법 르네시떼역','도미노역',2),</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F645" s="12" t="str">
+        <f t="shared" ref="F645:F658" si="162">IF( IFERROR(FIND("A.",C645), 0) &gt; 0, TRIM(MID( C645, SEARCH("A.", C645)+2, 100)),TRIM(C645))</f>
+        <v/>
+      </c>
+      <c r="G645" s="12" t="str">
+        <f t="shared" ref="G645:G658" si="163">IF( IFERROR(FIND("B.",D645), 0) &gt; 0, TRIM(MID( D645, SEARCH("B.", D645)+2, 100)),TRIM(D645))</f>
+        <v/>
+      </c>
+      <c r="H645" s="18" t="str">
+        <f t="shared" ref="H645:H658" si="164">IF( IFERROR(FIND("C.",E645), 0) &gt; 0, TRIM(MID( E645, SEARCH("C.", E645)+2, 100)),TRIM(E645))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A646" s="2">
+        <v>43191.833333333336</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F646" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v/>
+      </c>
+      <c r="G646" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v/>
+      </c>
+      <c r="H646" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v/>
+      </c>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>1</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C647" s="29" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F647" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>페로몬</v>
+      </c>
+      <c r="G647" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>포켓몬</v>
+      </c>
+      <c r="H647" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>구몬</v>
+      </c>
+      <c r="I647">
+        <v>0</v>
+      </c>
+      <c r="J647" t="str">
+        <f>"("&amp;$B$646&amp;","&amp;A647&amp;",'"&amp;B647&amp;"','"&amp;F647&amp;"','"&amp;G647&amp;"','"&amp;H647&amp;"',"&amp;I647&amp;"),"</f>
+        <v>(55,1,'수많은 동물의 행동이나 생리기능, 의사소통 등에 중요한 기능을 하는 화학물질은?','페로몬','포켓몬','구몬',0),</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>2</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D648" s="29" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F648" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>속눈썹</v>
+      </c>
+      <c r="G648" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>코</v>
+      </c>
+      <c r="H648" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>턱</v>
+      </c>
+      <c r="I648">
+        <v>1</v>
+      </c>
+      <c r="J648" t="str">
+        <f t="shared" ref="J648:J658" si="165">"("&amp;$B$646&amp;","&amp;A648&amp;",'"&amp;B648&amp;"','"&amp;F648&amp;"','"&amp;G648&amp;"','"&amp;H648&amp;"',"&amp;I648&amp;"),"</f>
+        <v>(55,2,'[클레오파트라의 (  )가 1cm만 낮았어도 세계 역사는 다시 쓰였을지도 모른다.] 빈칸에 들어갈 말로 올바른 것은?','속눈썹','코','턱',1),</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>3</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E649" s="29" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F649" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>부부의 날</v>
+      </c>
+      <c r="G649" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>근로자의 날</v>
+      </c>
+      <c r="H649" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>세계 환경의 날</v>
+      </c>
+      <c r="I649">
+        <v>2</v>
+      </c>
+      <c r="J649" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,3,'5월 달력에서 찾아볼 수 없는 날은?','부부의 날','근로자의 날','세계 환경의 날',2),</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>4</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D650" s="29" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F650" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>포돌이와 포순이 - 이란성 쌍둥이</v>
+      </c>
+      <c r="G650" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>오성과 한음 - 사제지간</v>
+      </c>
+      <c r="H650" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>해님과 달님 - 남매</v>
+      </c>
+      <c r="I650">
+        <v>1</v>
+      </c>
+      <c r="J650" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,4,'둘의 관계가 알맞지 않은 것은?','포돌이와 포순이 - 이란성 쌍둥이','오성과 한음 - 사제지간','해님과 달님 - 남매',1),</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>5</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D651" s="29" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F651" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>활력의 신</v>
+      </c>
+      <c r="G651" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>술의 신</v>
+      </c>
+      <c r="H651" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>지혜의 신</v>
+      </c>
+      <c r="I651">
+        <v>1</v>
+      </c>
+      <c r="J651" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,5,'피로회복제 "박카스"는 그리스 로마 신화의 신들 중 어떤 신의 이름을 따온 것일까?','활력의 신','술의 신','지혜의 신',1),</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>6</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E652" s="29" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F652" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>먹이가 부족해서</v>
+      </c>
+      <c r="G652" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>실연당해서</v>
+      </c>
+      <c r="H652" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>호흡하기 쉬워서</v>
+      </c>
+      <c r="I652">
+        <v>2</v>
+      </c>
+      <c r="J652" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,6,'비가 오면 우는 개구리를 쉽게 볼 수 있다. 가장 관련이 깊은 이유는?','먹이가 부족해서','실연당해서','호흡하기 쉬워서',2),</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>7</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E653" s="29" t="s">
+        <v>2287</v>
+      </c>
+      <c r="F653" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>에릭슨</v>
+      </c>
+      <c r="G653" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>노키아</v>
+      </c>
+      <c r="H653" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>모토로라</v>
+      </c>
+      <c r="I653">
+        <v>2</v>
+      </c>
+      <c r="J653" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,7,'세계 최초로 핸드폰을 제조한 제조사는?','에릭슨','노키아','모토로라',2),</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>8</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C654" s="29" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F654" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>운동화 끈을 메다</v>
+      </c>
+      <c r="G654" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>가방을 메다</v>
+      </c>
+      <c r="H654" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>목이 메다</v>
+      </c>
+      <c r="I654">
+        <v>0</v>
+      </c>
+      <c r="J654" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,8,'다음 중 틀린 표현은?','운동화 끈을 메다','가방을 메다','목이 메다',0),</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>9</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C655" s="29" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F655" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>혼례</v>
+      </c>
+      <c r="G655" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>흉례</v>
+      </c>
+      <c r="H655" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>빈례</v>
+      </c>
+      <c r="I655">
+        <v>0</v>
+      </c>
+      <c r="J655" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,9,'조선 시대에 제정된 기본예절인 오례에 속하지 않는 것은?','혼례','흉례','빈례',0),</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>10</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D656" s="29" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F656" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>갈매기</v>
+      </c>
+      <c r="G656" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>기러기</v>
+      </c>
+      <c r="H656" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>오리</v>
+      </c>
+      <c r="I656">
+        <v>1</v>
+      </c>
+      <c r="J656" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,10,'거위는 야생의 어떤 새를 길들여 개량한 것일까?','갈매기','기러기','오리',1),</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>11</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E657" s="29" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F657" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>항공권 발권</v>
+      </c>
+      <c r="G657" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>비데 렌탈</v>
+      </c>
+      <c r="H657" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>구두 수선</v>
+      </c>
+      <c r="I657">
+        <v>2</v>
+      </c>
+      <c r="J657" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,11,'대한민국의 편의점에서 볼 수 없는 이색 서비스는?','항공권 발권','비데 렌탈','구두 수선',2),</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>12</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E658" s="29" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F658" s="12" t="str">
+        <f t="shared" si="162"/>
+        <v>돼지 껍질</v>
+      </c>
+      <c r="G658" s="12" t="str">
+        <f t="shared" si="163"/>
+        <v>사과 껍질</v>
+      </c>
+      <c r="H658" s="18" t="str">
+        <f t="shared" si="164"/>
+        <v>달걀 껍질</v>
+      </c>
+      <c r="I658">
+        <v>2</v>
+      </c>
+      <c r="J658" t="str">
+        <f t="shared" si="165"/>
+        <v>(55,12,'잘못된 표기는 무엇인가?','돼지 껍질','사과 껍질','달걀 껍질',2),</v>
       </c>
     </row>
   </sheetData>

--- a/nodejs_svr/doc/잼라이브 기출문제.xlsx
+++ b/nodejs_svr/doc/잼라이브 기출문제.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="2309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="2358">
   <si>
     <t>서태지, 양현성, 이주노가 멤버로 있었던 1세대 힙합 아이돌 그룹의 이름은?</t>
   </si>
@@ -13100,11 +13100,561 @@
     <t xml:space="preserve"> 크라운제과의 대표 과자 "죠리퐁"의 영어 이름은?</t>
   </si>
   <si>
-    <t>1. '자기 나라가 아닌 다른 나라에 특징적인'이란 뜻으로 쓰이는 말은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+    <t>B.  이북적</t>
+  </si>
+  <si>
+    <t>C.  이기적</t>
+  </si>
+  <si>
+    <t>A.  포로포즈</t>
+  </si>
+  <si>
+    <t>C.  프로포폴</t>
+  </si>
+  <si>
+    <t>A.  퍼레이드</t>
+  </si>
+  <si>
+    <t>B.  카니발</t>
+  </si>
+  <si>
+    <t>A.  베를린</t>
+  </si>
+  <si>
+    <t>B.  베니스</t>
+  </si>
+  <si>
+    <t>A.  송도 동북아무역센터</t>
+  </si>
+  <si>
+    <t>C.  63빌딩</t>
+  </si>
+  <si>
+    <t>B.  발</t>
+  </si>
+  <si>
+    <t>C.  머리</t>
+  </si>
+  <si>
+    <t>B.  하얀 백발</t>
+  </si>
+  <si>
+    <t>C.  남은 여생</t>
+  </si>
+  <si>
+    <t>A.  상평통보</t>
+  </si>
+  <si>
+    <t>C.  해고통보</t>
+  </si>
+  <si>
+    <t>A.  남진-김남진</t>
+  </si>
+  <si>
+    <t>C.  인순이-김인순</t>
+  </si>
+  <si>
+    <t>A.  보석 치아</t>
+  </si>
+  <si>
+    <t>B.  호블 스커트</t>
+  </si>
+  <si>
+    <t>B.  혼돈술</t>
+  </si>
+  <si>
+    <t>C.  동방술</t>
+  </si>
+  <si>
+    <t>A.  나 군대 간다</t>
+  </si>
+  <si>
+    <t>C.  그 놈의 결혼식</t>
+  </si>
+  <si>
+    <t>A.  이국적</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 컴퓨터간 정보를 주고받을 때 통신방법에 대한 규칙과 약속을 의미하는 것은?</t>
+  </si>
+  <si>
+    <t>B.  프로토콜</t>
+  </si>
+  <si>
+    <t>C.  갈라쇼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;세계 3대 영화제&gt;가 열리지 않는 도시는?</t>
+  </si>
+  <si>
+    <t>C.  할리우드</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우리나라에서 가장 높은 건물은?</t>
+  </si>
+  <si>
+    <t>B.  롯데월드타워</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;등자뼈, 청소골, 망치뼈&gt; 다음과 가장 관련이 깊은 신체기관은?</t>
+  </si>
+  <si>
+    <t>A.  귀</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중복된 표현이 아닌 것은?</t>
+  </si>
+  <si>
+    <t>A.  오랜 소원</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 보기 중 고려시대의 금속 화폐로 사용되었던 것은?</t>
+  </si>
+  <si>
+    <t>B.  해동통보</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 본명이 잘못 짝지어진 가수는?</t>
+  </si>
+  <si>
+    <t>B.  패티김-김희자</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1940-1950년 할리우드에서 큰 인기를 끌었던 패션 트렌드는?</t>
+  </si>
+  <si>
+    <t>C.  총알 브래지어</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일차방정식의 근을 구하는 동양 전래의 계산법은?</t>
+  </si>
+  <si>
+    <t>A.  천원술</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 발매된 적이 없는 가요제목은?</t>
+  </si>
+  <si>
+    <t>B.  회사에서 쓰는 노래</t>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "자기 나라가 아닌 다른 나라에 특징적인"이란 뜻으로 쓰이는 말은?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "축하하기 위해 벌이는 공연"이란 뜻으로 주로 클래식 음악, 피겨스케이팅 분야에서 열리는 이 행사는?</t>
+  </si>
+  <si>
+    <t>&lt;설탕,과일,퀴즈&gt; 다음 단어에서 연상되는 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초콜릿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국 지명이 아닌 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만우절의 영문 표기로 올바른 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April Liar's Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April Fool's Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Souls Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;슈퍼마리오&gt;에서 '마리오'의 모델이 된 실존인물의 직업은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조물주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배관공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선시대에는 어떤 날을 만우절로 정했을까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫눈이 내리는 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감나무 열매가 열리는 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕자가 태어난 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경복궁의 이름을 지은 사람은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이방원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정도전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"방귀"는 어느 나라에서 온 말일까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르투갈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한과의 시차는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만화 영화 &lt;톰과 제리&gt;가 우리나라에서 처음 방송될 때 제목은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐돌이와 야옹이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미련한 야옹이와 깐돌이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이겨라 깐돌이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물 가격이 상승하는 영향으로 물가가 오르는 현상을 일컫는 말은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애그플레이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태그플레이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코플레이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1년 중 가장 먼저 오는 기념일은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국군의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 대한민국에 현존하지 않는 역 이름은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고사리역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괘법 르네시떼역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도미노역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수많은 동물의 행동이나 생리기능, 의사소통 등에 중요한 기능을 하는 화학물질은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페로몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[클레오파트라의 (  )가 1cm만 낮았어도 세계 역사는 다시 쓰였을지도 모른다.] 빈칸에 들어갈 말로 올바른 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속눈썹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 달력에서 찾아볼 수 없는 날은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부부의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로자의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계 환경의 날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘의 관계가 알맞지 않은 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포돌이와 포순이 - 이란성 쌍둥이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오성과 한음 - 사제지간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해님과 달님 - 남매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로회복제 "박카스"는 그리스 로마 신화의 신들 중 어떤 신의 이름을 따온 것일까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활력의 신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>술의 신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지혜의 신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비가 오면 우는 개구리를 쉽게 볼 수 있다. 가장 관련이 깊은 이유는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹이가 부족해서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실연당해서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호흡하기 쉬워서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계 최초로 핸드폰을 제조한 제조사는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에릭슨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노키아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모토로라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 틀린 표현은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동화 끈을 메다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방을 메다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목이 메다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선 시대에 제정된 기본예절인 오례에 속하지 않는 것은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흉례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거위는 야생의 어떤 새를 길들여 개량한 것일까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈매기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기러기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국의 편의점에서 볼 수 없는 이색 서비스는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항공권 발권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비데 렌탈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구두 수선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 표기는 무엇인가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 껍질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과 껍질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀 껍질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. [유리구슬, 버디, GirlFriend] 다음 단어를 듣고 연상되는 걸그룹은?</t>
+  </si>
+  <si>
+    <t>A.  남자친구</t>
+  </si>
+  <si>
+    <t>B.  우리 모두 친구</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -13113,24 +13663,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>이국적</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  이북적</t>
-  </si>
-  <si>
-    <t>C.  이기적</t>
-  </si>
-  <si>
-    <t>2. 컴퓨터간 정보를 주고받을 때 통신방법에 대한 규칙과 약속을 의미하는 것은?</t>
-  </si>
-  <si>
-    <t>A.  포로포즈</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>여자친구</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 태극기에 들어가지 않는 색은?</t>
+  </si>
+  <si>
+    <t>A.  빨간색</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -13139,24 +13683,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>프로토콜</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  프로포폴</t>
-  </si>
-  <si>
-    <t>3. '축하하기 위해 벌이는 공연'이란 뜻으로 주로 클래식 음악, 피겨스케이팅 분야에서 열리는 이 행사는?</t>
-  </si>
-  <si>
-    <t>A.  퍼레이드</t>
-  </si>
-  <si>
-    <t>B.  카니발</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
+      <t>노란색</t>
+    </r>
+  </si>
+  <si>
+    <t>3. 농악의 우두머리로 꽹과리를 치는 사람을 일컫는 말은?</t>
+  </si>
+  <si>
+    <t>A.  열쇠</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -13165,21 +13703,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>갈라쇼</t>
-    </r>
-  </si>
-  <si>
-    <t>4. &lt;세계 3대 영화제&gt;가 열리지 않는 도시는?</t>
-  </si>
-  <si>
-    <t>A.  베를린</t>
-  </si>
-  <si>
-    <t>B.  베니스</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
+      <t>상쇠</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  구두쇠</t>
+  </si>
+  <si>
+    <t>4. 유리, 나무와 같이 열 혹은 전기를 잘 전달하지않는 물체를 일컫는 용어는?</t>
+  </si>
+  <si>
+    <t>A.  반도체 </t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -13188,18 +13726,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>할리우드</t>
-    </r>
-  </si>
-  <si>
-    <t>5. 우리나라에서 가장 높은 건물은?</t>
-  </si>
-  <si>
-    <t>A.  송도 동북아무역센터</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>부도체</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  불량도체</t>
+  </si>
+  <si>
+    <t>5. 상처를 통해 들어와 온몸에 경직성 경련을 유발하는 감염성 질환은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
     </r>
     <r>
       <rPr>
@@ -13208,18 +13746,27 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>롯데월드타워</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  63빌딩</t>
-  </si>
-  <si>
-    <t>6. &lt;등자뼈, 청소골, 망치뼈&gt; 다음과 가장 관련이 깊은 신체기관은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>파상풍</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  성홍열</t>
+  </si>
+  <si>
+    <t>C.  괴혈병</t>
+  </si>
+  <si>
+    <t>6. 도마뱀의 '도마'는 무엇을 뜻할까?</t>
+  </si>
+  <si>
+    <t>A.  집에 사는 뱀</t>
+  </si>
+  <si>
+    <t>B.  물을 먹는 뱀</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -13228,21 +13775,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>귀</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  발</t>
-  </si>
-  <si>
-    <t>C.  머리</t>
-  </si>
-  <si>
-    <t>7. 중복된 표현이 아닌 것은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>토막 나는 뱀</t>
+    </r>
+  </si>
+  <si>
+    <t>7. 프랑스의 물리학자로 방사능 연구를 통해 최초의 방사성 원소 폴로늄과 라듐을 발견한 사람은?</t>
+  </si>
+  <si>
+    <t>A.  헬렌켈러</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -13251,24 +13795,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>오랜 소원</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  하얀 백발</t>
-  </si>
-  <si>
-    <t>C.  남은 여생</t>
-  </si>
-  <si>
-    <t>8. 다음 보기 중 고려시대의 금속 화폐로 사용되었던 것은?</t>
-  </si>
-  <si>
-    <t>A.  상평통보</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>퀴리부인</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  나이팅게일</t>
+  </si>
+  <si>
+    <t>8. 최근 세계적인 뷰티 브랜드 로레알에 4000억에 매각된 한국의 브랜드는?</t>
+  </si>
+  <si>
+    <t>A.  임블리</t>
+  </si>
+  <si>
+    <t>B.  메이썸</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -13277,21 +13821,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>해동통보</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  해고통보</t>
-  </si>
-  <si>
-    <t>9. 본명이 잘못 짝지어진 가수는?</t>
-  </si>
-  <si>
-    <t>A.  남진-김남진</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>스타일난다</t>
+    </r>
+  </si>
+  <si>
+    <t>9. 고려 말기 정몽주가 지은 시조로 고려에 대한 충절을 읊은 이것은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
     </r>
     <r>
       <rPr>
@@ -13300,20 +13838,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>패티김-김희자</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  인순이-김인순</t>
-  </si>
-  <si>
-    <t>10. 1940-1950년 할리우드에서 큰 인기를 끌었던 패션 트렌드는?</t>
-  </si>
-  <si>
-    <t>A.  보석 치아</t>
-  </si>
-  <si>
-    <t>B.  호블 스커트</t>
+      <t>단심가</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  하여가</t>
+  </si>
+  <si>
+    <t>C.  공무도하가</t>
+  </si>
+  <si>
+    <t>10. 현재 대한민국의 살인죄에 대한 공소시효는?</t>
+  </si>
+  <si>
+    <t>A.  10년</t>
+  </si>
+  <si>
+    <t>B.  25년</t>
   </si>
   <si>
     <r>
@@ -13326,15 +13867,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>총알 브래지어</t>
-    </r>
-  </si>
-  <si>
-    <t>11. 일차방정식의 근을 구하는 동양 전래의 계산법은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>없다.</t>
+    </r>
+  </si>
+  <si>
+    <t>11. 실제로 출시된 롯데 마가렛트 맛은?</t>
+  </si>
+  <si>
+    <t>A.  마가렛트 카레</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -13343,24 +13887,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>천원술</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  혼돈술</t>
-  </si>
-  <si>
-    <t>C.  동방술</t>
-  </si>
-  <si>
-    <t>12. 발매된 적이 없는 가요제목은?</t>
-  </si>
-  <si>
-    <t>A.  나 군대 간다</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>마가렛트 고로케</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  마가렛트 피자</t>
+  </si>
+  <si>
+    <t>12. 다음 중 2018 러시아 월드컵이 개최되는 도시가 아닌것은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
     </r>
     <r>
       <rPr>
@@ -13369,478 +13907,89 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>회사에서 쓰는 노래</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  그 놈의 결혼식</t>
-  </si>
-  <si>
-    <t>A.  이국적</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 컴퓨터간 정보를 주고받을 때 통신방법에 대한 규칙과 약속을 의미하는 것은?</t>
-  </si>
-  <si>
-    <t>B.  프로토콜</t>
-  </si>
-  <si>
-    <t>C.  갈라쇼</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;세계 3대 영화제&gt;가 열리지 않는 도시는?</t>
-  </si>
-  <si>
-    <t>C.  할리우드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 우리나라에서 가장 높은 건물은?</t>
-  </si>
-  <si>
-    <t>B.  롯데월드타워</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;등자뼈, 청소골, 망치뼈&gt; 다음과 가장 관련이 깊은 신체기관은?</t>
-  </si>
-  <si>
-    <t>A.  귀</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 중복된 표현이 아닌 것은?</t>
-  </si>
-  <si>
-    <t>A.  오랜 소원</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다음 보기 중 고려시대의 금속 화폐로 사용되었던 것은?</t>
-  </si>
-  <si>
-    <t>B.  해동통보</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 본명이 잘못 짝지어진 가수는?</t>
-  </si>
-  <si>
-    <t>B.  패티김-김희자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1940-1950년 할리우드에서 큰 인기를 끌었던 패션 트렌드는?</t>
-  </si>
-  <si>
-    <t>C.  총알 브래지어</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 일차방정식의 근을 구하는 동양 전래의 계산법은?</t>
-  </si>
-  <si>
-    <t>A.  천원술</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 발매된 적이 없는 가요제목은?</t>
-  </si>
-  <si>
-    <t>B.  회사에서 쓰는 노래</t>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "자기 나라가 아닌 다른 나라에 특징적인"이란 뜻으로 쓰이는 말은?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "축하하기 위해 벌이는 공연"이란 뜻으로 주로 클래식 음악, 피겨스케이팅 분야에서 열리는 이 행사는?</t>
-  </si>
-  <si>
-    <t>&lt;설탕,과일,퀴즈&gt; 다음 단어에서 연상되는 것은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초콜릿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중국 지명이 아닌 것은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>만우절의 영문 표기로 올바른 것은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>April Liar's Day</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>April Fool's Day</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Souls Day</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;슈퍼마리오&gt;에서 '마리오'의 모델이 된 실존인물의 직업은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조물주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배관공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조선시대에는 어떤 날을 만우절로 정했을까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫눈이 내리는 날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감나무 열매가 열리는 날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕자가 태어난 날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경복궁의 이름을 지은 사람은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이성계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이방원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정도전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"방귀"는 어느 나라에서 온 말일까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르투갈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>북한과의 시차는?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>만화 영화 &lt;톰과 제리&gt;가 우리나라에서 처음 방송될 때 제목은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>깐돌이와 야옹이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미련한 야옹이와 깐돌이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이겨라 깐돌이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물 가격이 상승하는 영향으로 물가가 오르는 현상을 일컫는 말은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애그플레이션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스태그플레이션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에코플레이션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1년 중 가장 먼저 오는 기념일은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경의 날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국군의 날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과학의 날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 중 대한민국에 현존하지 않는 역 이름은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고사리역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>괘법 르네시떼역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도미노역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>54</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수많은 동물의 행동이나 생리기능, 의사소통 등에 중요한 기능을 하는 화학물질은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>페로몬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포켓몬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구몬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[클레오파트라의 (  )가 1cm만 낮았어도 세계 역사는 다시 쓰였을지도 모른다.] 빈칸에 들어갈 말로 올바른 것은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>속눈썹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>턱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 달력에서 찾아볼 수 없는 날은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부부의 날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>근로자의 날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계 환경의 날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘의 관계가 알맞지 않은 것은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포돌이와 포순이 - 이란성 쌍둥이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오성과 한음 - 사제지간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해님과 달님 - 남매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로회복제 "박카스"는 그리스 로마 신화의 신들 중 어떤 신의 이름을 따온 것일까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>활력의 신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>술의 신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지혜의 신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비가 오면 우는 개구리를 쉽게 볼 수 있다. 가장 관련이 깊은 이유는?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹이가 부족해서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실연당해서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호흡하기 쉬워서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계 최초로 핸드폰을 제조한 제조사는?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에릭슨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노키아</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모토로라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 중 틀린 표현은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>운동화 끈을 메다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방을 메다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목이 메다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조선 시대에 제정된 기본예절인 오례에 속하지 않는 것은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼례</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흉례</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈례</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거위는 야생의 어떤 새를 길들여 개량한 것일까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈매기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기러기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대한민국의 편의점에서 볼 수 없는 이색 서비스는?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>항공권 발권</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비데 렌탈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구두 수선</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 표기는 무엇인가?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지 껍질</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사과 껍질</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>달걀 껍질</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
+      <t>첼랴빈스크</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  예카테린부르크</t>
+  </si>
+  <si>
+    <t>C.  니즈니노브고로드</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [유리구슬, 버디, GirlFriend] 다음 단어를 듣고 연상되는 걸그룹은?</t>
+  </si>
+  <si>
+    <t>C.  여자친구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 태극기에 들어가지 않는 색은?</t>
+  </si>
+  <si>
+    <t>C.  노란색</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 농악의 우두머리로 꽹과리를 치는 사람을 일컫는 말은?</t>
+  </si>
+  <si>
+    <t>B.  상쇠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유리, 나무와 같이 열 혹은 전기를 잘 전달하지않는 물체를 일컫는 용어는?</t>
+  </si>
+  <si>
+    <t>B.  부도체</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 상처를 통해 들어와 온몸에 경직성 경련을 유발하는 감염성 질환은?</t>
+  </si>
+  <si>
+    <t>A.  파상풍</t>
+  </si>
+  <si>
+    <t>C.  토막 나는 뱀</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 프랑스의 물리학자로 방사능 연구를 통해 최초의 방사성 원소 폴로늄과 라듐을 발견한 사람은?</t>
+  </si>
+  <si>
+    <t>B.  퀴리부인</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최근 세계적인 뷰티 브랜드 로레알에 4000억에 매각된 한국의 브랜드는?</t>
+  </si>
+  <si>
+    <t>C.  스타일난다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고려 말기 정몽주가 지은 시조로 고려에 대한 충절을 읊은 이것은?</t>
+  </si>
+  <si>
+    <t>A.  단심가</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 현재 대한민국의 살인죄에 대한 공소시효는?</t>
+  </si>
+  <si>
+    <t>C.  없다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 실제로 출시된 롯데 마가렛트 맛은?</t>
+  </si>
+  <si>
+    <t>B.  마가렛트 고로케</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 2018 러시아 월드컵이 개최되는 도시가 아닌것은?</t>
+  </si>
+  <si>
+    <t>A.  첼랴빈스크</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 도마뱀의 "도마"는 무엇을 뜻할까?</t>
+  </si>
+  <si>
+    <t>57</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -14001,7 +14150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14090,6 +14239,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14372,10 +14524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J658"/>
+  <dimension ref="A1:J686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E621" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H633" sqref="H633"/>
+    <sheetView tabSelected="1" topLeftCell="A645" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B675" sqref="B675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33482,7 +33634,7 @@
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B618" s="3" t="s">
-        <v>2208</v>
+        <v>2184</v>
       </c>
       <c r="F618" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33502,16 +33654,16 @@
         <v>1</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>2209</v>
+        <v>2185</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>2186</v>
+        <v>2162</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="E619" s="3" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="F619" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33538,16 +33690,16 @@
         <v>2</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>2187</v>
+        <v>2163</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>2188</v>
+        <v>2164</v>
       </c>
       <c r="E620" s="3" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="F620" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33574,16 +33726,16 @@
         <v>3</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>2210</v>
+        <v>2186</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="E621" s="3" t="s">
-        <v>2189</v>
+        <v>2165</v>
       </c>
       <c r="F621" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33610,16 +33762,16 @@
         <v>4</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>2190</v>
+        <v>2166</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="E622" s="3" t="s">
-        <v>2191</v>
+        <v>2167</v>
       </c>
       <c r="F622" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33646,16 +33798,16 @@
         <v>5</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>2192</v>
+        <v>2168</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>2155</v>
+        <v>2146</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>2193</v>
+        <v>2169</v>
       </c>
       <c r="E623" s="3" t="s">
-        <v>2157</v>
+        <v>2147</v>
       </c>
       <c r="F623" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33682,16 +33834,16 @@
         <v>6</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>2194</v>
+        <v>2170</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>2195</v>
+        <v>2171</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>2160</v>
+        <v>2148</v>
       </c>
       <c r="E624" s="3" t="s">
-        <v>2161</v>
+        <v>2149</v>
       </c>
       <c r="F624" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33718,16 +33870,16 @@
         <v>7</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>2196</v>
+        <v>2172</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>2197</v>
+        <v>2173</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>2164</v>
+        <v>2150</v>
       </c>
       <c r="E625" s="3" t="s">
-        <v>2165</v>
+        <v>2151</v>
       </c>
       <c r="F625" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33754,16 +33906,16 @@
         <v>8</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>2198</v>
+        <v>2174</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>2167</v>
+        <v>2152</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>2199</v>
+        <v>2175</v>
       </c>
       <c r="E626" s="3" t="s">
-        <v>2169</v>
+        <v>2153</v>
       </c>
       <c r="F626" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33790,16 +33942,16 @@
         <v>9</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>2200</v>
+        <v>2176</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>2171</v>
+        <v>2154</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>2201</v>
+        <v>2177</v>
       </c>
       <c r="E627" s="3" t="s">
-        <v>2173</v>
+        <v>2155</v>
       </c>
       <c r="F627" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33826,16 +33978,16 @@
         <v>10</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>2202</v>
+        <v>2178</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>2175</v>
+        <v>2156</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>2176</v>
+        <v>2157</v>
       </c>
       <c r="E628" s="3" t="s">
-        <v>2203</v>
+        <v>2179</v>
       </c>
       <c r="F628" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33862,16 +34014,16 @@
         <v>11</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>2204</v>
+        <v>2180</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>2205</v>
+        <v>2181</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>2180</v>
+        <v>2158</v>
       </c>
       <c r="E629" s="3" t="s">
-        <v>2181</v>
+        <v>2159</v>
       </c>
       <c r="F629" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33898,16 +34050,16 @@
         <v>12</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>2206</v>
+        <v>2182</v>
       </c>
       <c r="C630" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D630" s="3" t="s">
         <v>2183</v>
       </c>
-      <c r="D630" s="3" t="s">
-        <v>2207</v>
-      </c>
       <c r="E630" s="3" t="s">
-        <v>2185</v>
+        <v>2161</v>
       </c>
       <c r="F630" s="12" t="str">
         <f t="shared" si="151"/>
@@ -33945,7 +34097,7 @@
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B632" s="3" t="s">
-        <v>2259</v>
+        <v>2235</v>
       </c>
       <c r="F632" s="12" t="str">
         <f t="shared" si="155"/>
@@ -33965,16 +34117,16 @@
         <v>1</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>2211</v>
+        <v>2187</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>2212</v>
+        <v>2188</v>
       </c>
       <c r="D633" s="29" t="s">
-        <v>2213</v>
+        <v>2189</v>
       </c>
       <c r="E633" s="3" t="s">
-        <v>2214</v>
+        <v>2190</v>
       </c>
       <c r="F633" s="12" t="str">
         <f t="shared" si="155"/>
@@ -34001,16 +34153,16 @@
         <v>2</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>2215</v>
+        <v>2191</v>
       </c>
       <c r="C634" s="29" t="s">
-        <v>2216</v>
+        <v>2192</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>2217</v>
+        <v>2193</v>
       </c>
       <c r="E634" s="3" t="s">
-        <v>2218</v>
+        <v>2194</v>
       </c>
       <c r="F634" s="12" t="str">
         <f t="shared" si="155"/>
@@ -34037,16 +34189,16 @@
         <v>3</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>2219</v>
+        <v>2195</v>
       </c>
       <c r="C635" s="29" t="s">
-        <v>2221</v>
+        <v>2197</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2220</v>
+        <v>2196</v>
       </c>
       <c r="E635" s="3" t="s">
-        <v>2222</v>
+        <v>2198</v>
       </c>
       <c r="F635" s="12" t="str">
         <f t="shared" ref="F635:F644" si="159">IF( IFERROR(FIND("A.",C635), 0) &gt; 0, TRIM(MID( C635, SEARCH("A.", C635)+2, 100)),TRIM(C635))</f>
@@ -34073,16 +34225,16 @@
         <v>4</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>2223</v>
+        <v>2199</v>
       </c>
       <c r="C636" s="29" t="s">
-        <v>2224</v>
+        <v>2200</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2225</v>
+        <v>2201</v>
       </c>
       <c r="E636" s="3" t="s">
-        <v>2226</v>
+        <v>2202</v>
       </c>
       <c r="F636" s="12" t="str">
         <f t="shared" si="159"/>
@@ -34109,16 +34261,16 @@
         <v>5</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>2227</v>
+        <v>2203</v>
       </c>
       <c r="C637" s="29" t="s">
-        <v>2228</v>
+        <v>2204</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2229</v>
+        <v>2205</v>
       </c>
       <c r="E637" s="3" t="s">
-        <v>2230</v>
+        <v>2206</v>
       </c>
       <c r="F637" s="12" t="str">
         <f t="shared" si="159"/>
@@ -34145,16 +34297,16 @@
         <v>6</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>2231</v>
+        <v>2207</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>2232</v>
+        <v>2208</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2233</v>
+        <v>2209</v>
       </c>
       <c r="E638" s="29" t="s">
-        <v>2234</v>
+        <v>2210</v>
       </c>
       <c r="F638" s="12" t="str">
         <f t="shared" si="159"/>
@@ -34181,16 +34333,16 @@
         <v>7</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>2235</v>
+        <v>2211</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>2236</v>
+        <v>2212</v>
       </c>
       <c r="D639" s="29" t="s">
-        <v>2237</v>
+        <v>2213</v>
       </c>
       <c r="E639" s="3" t="s">
-        <v>2238</v>
+        <v>2214</v>
       </c>
       <c r="F639" s="12" t="str">
         <f t="shared" si="159"/>
@@ -34217,16 +34369,16 @@
         <v>8</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>2239</v>
+        <v>2215</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>2240</v>
+        <v>2216</v>
       </c>
       <c r="D640" s="29" t="s">
-        <v>2241</v>
+        <v>2217</v>
       </c>
       <c r="E640" s="3" t="s">
-        <v>2242</v>
+        <v>2218</v>
       </c>
       <c r="F640" s="12" t="str">
         <f t="shared" si="159"/>
@@ -34253,16 +34405,16 @@
         <v>9</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>2243</v>
+        <v>2219</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>2244</v>
+        <v>2220</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2245</v>
+        <v>2221</v>
       </c>
       <c r="E641" s="29" t="s">
-        <v>2246</v>
+        <v>2222</v>
       </c>
       <c r="F641" s="12" t="str">
         <f t="shared" si="159"/>
@@ -34289,16 +34441,16 @@
         <v>10</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>2247</v>
+        <v>2223</v>
       </c>
       <c r="C642" s="29" t="s">
-        <v>2248</v>
+        <v>2224</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2249</v>
+        <v>2225</v>
       </c>
       <c r="E642" s="3" t="s">
-        <v>2250</v>
+        <v>2226</v>
       </c>
       <c r="F642" s="12" t="str">
         <f t="shared" si="159"/>
@@ -34325,16 +34477,16 @@
         <v>11</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>2251</v>
+        <v>2227</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>2252</v>
+        <v>2228</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2253</v>
+        <v>2229</v>
       </c>
       <c r="E643" s="29" t="s">
-        <v>2254</v>
+        <v>2230</v>
       </c>
       <c r="F643" s="12" t="str">
         <f t="shared" si="159"/>
@@ -34361,16 +34513,16 @@
         <v>12</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>2255</v>
+        <v>2231</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>2256</v>
+        <v>2232</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2257</v>
+        <v>2233</v>
       </c>
       <c r="E644" s="29" t="s">
-        <v>2258</v>
+        <v>2234</v>
       </c>
       <c r="F644" s="12" t="str">
         <f t="shared" si="159"/>
@@ -34411,7 +34563,7 @@
         <v>43191.833333333336</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>2308</v>
+        <v>2284</v>
       </c>
       <c r="F646" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34431,16 +34583,16 @@
         <v>1</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>2260</v>
+        <v>2236</v>
       </c>
       <c r="C647" s="29" t="s">
-        <v>2261</v>
+        <v>2237</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2262</v>
+        <v>2238</v>
       </c>
       <c r="E647" s="3" t="s">
-        <v>2263</v>
+        <v>2239</v>
       </c>
       <c r="F647" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34467,16 +34619,16 @@
         <v>2</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>2264</v>
+        <v>2240</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>2265</v>
+        <v>2241</v>
       </c>
       <c r="D648" s="29" t="s">
-        <v>2266</v>
+        <v>2242</v>
       </c>
       <c r="E648" s="3" t="s">
-        <v>2267</v>
+        <v>2243</v>
       </c>
       <c r="F648" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34503,16 +34655,16 @@
         <v>3</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>2268</v>
+        <v>2244</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>2269</v>
+        <v>2245</v>
       </c>
       <c r="D649" s="3" t="s">
-        <v>2270</v>
+        <v>2246</v>
       </c>
       <c r="E649" s="29" t="s">
-        <v>2271</v>
+        <v>2247</v>
       </c>
       <c r="F649" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34539,16 +34691,16 @@
         <v>4</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>2272</v>
+        <v>2248</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>2273</v>
+        <v>2249</v>
       </c>
       <c r="D650" s="29" t="s">
-        <v>2274</v>
+        <v>2250</v>
       </c>
       <c r="E650" s="3" t="s">
-        <v>2275</v>
+        <v>2251</v>
       </c>
       <c r="F650" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34575,16 +34727,16 @@
         <v>5</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>2276</v>
+        <v>2252</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>2277</v>
+        <v>2253</v>
       </c>
       <c r="D651" s="29" t="s">
-        <v>2278</v>
+        <v>2254</v>
       </c>
       <c r="E651" s="3" t="s">
-        <v>2279</v>
+        <v>2255</v>
       </c>
       <c r="F651" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34611,16 +34763,16 @@
         <v>6</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>2280</v>
+        <v>2256</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>2281</v>
+        <v>2257</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>2282</v>
+        <v>2258</v>
       </c>
       <c r="E652" s="29" t="s">
-        <v>2283</v>
+        <v>2259</v>
       </c>
       <c r="F652" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34647,16 +34799,16 @@
         <v>7</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>2284</v>
+        <v>2260</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>2285</v>
+        <v>2261</v>
       </c>
       <c r="D653" s="3" t="s">
-        <v>2286</v>
+        <v>2262</v>
       </c>
       <c r="E653" s="29" t="s">
-        <v>2287</v>
+        <v>2263</v>
       </c>
       <c r="F653" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34683,16 +34835,16 @@
         <v>8</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>2288</v>
+        <v>2264</v>
       </c>
       <c r="C654" s="29" t="s">
-        <v>2289</v>
+        <v>2265</v>
       </c>
       <c r="D654" s="3" t="s">
-        <v>2290</v>
+        <v>2266</v>
       </c>
       <c r="E654" s="3" t="s">
-        <v>2291</v>
+        <v>2267</v>
       </c>
       <c r="F654" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34719,16 +34871,16 @@
         <v>9</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>2292</v>
+        <v>2268</v>
       </c>
       <c r="C655" s="29" t="s">
-        <v>2293</v>
+        <v>2269</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>2294</v>
+        <v>2270</v>
       </c>
       <c r="E655" s="3" t="s">
-        <v>2295</v>
+        <v>2271</v>
       </c>
       <c r="F655" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34755,16 +34907,16 @@
         <v>10</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>2296</v>
+        <v>2272</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>2297</v>
+        <v>2273</v>
       </c>
       <c r="D656" s="29" t="s">
-        <v>2298</v>
+        <v>2274</v>
       </c>
       <c r="E656" s="3" t="s">
-        <v>2299</v>
+        <v>2275</v>
       </c>
       <c r="F656" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34791,16 +34943,16 @@
         <v>11</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>2300</v>
+        <v>2276</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>2301</v>
+        <v>2277</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>2302</v>
+        <v>2278</v>
       </c>
       <c r="E657" s="29" t="s">
-        <v>2303</v>
+        <v>2279</v>
       </c>
       <c r="F657" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34827,16 +34979,16 @@
         <v>12</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>2304</v>
+        <v>2280</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>2305</v>
+        <v>2281</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>2306</v>
+        <v>2282</v>
       </c>
       <c r="E658" s="29" t="s">
-        <v>2307</v>
+        <v>2283</v>
       </c>
       <c r="F658" s="12" t="str">
         <f t="shared" si="162"/>
@@ -34856,6 +35008,540 @@
       <c r="J658" t="str">
         <f t="shared" si="165"/>
         <v>(55,12,'잘못된 표기는 무엇인가?','돼지 껍질','사과 껍질','달걀 껍질',2),</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F659" s="12" t="str">
+        <f t="shared" ref="F659:F672" si="166">IF( IFERROR(FIND("A.",C659), 0) &gt; 0, TRIM(MID( C659, SEARCH("A.", C659)+2, 100)),TRIM(C659))</f>
+        <v/>
+      </c>
+      <c r="G659" s="12" t="str">
+        <f t="shared" ref="G659:G672" si="167">IF( IFERROR(FIND("B.",D659), 0) &gt; 0, TRIM(MID( D659, SEARCH("B.", D659)+2, 100)),TRIM(D659))</f>
+        <v/>
+      </c>
+      <c r="H659" s="18" t="str">
+        <f t="shared" ref="H659:H672" si="168">IF( IFERROR(FIND("C.",E659), 0) &gt; 0, TRIM(MID( E659, SEARCH("C.", E659)+2, 100)),TRIM(E659))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A660" s="2">
+        <v>43246.583333333336</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>2285</v>
+      </c>
+      <c r="F660" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v/>
+      </c>
+      <c r="G660" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v/>
+      </c>
+      <c r="H660" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v/>
+      </c>
+    </row>
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>1</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>2334</v>
+      </c>
+      <c r="F661" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  남자친구</v>
+      </c>
+      <c r="G661" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  우리 모두 친구</v>
+      </c>
+      <c r="H661" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  여자친구</v>
+      </c>
+      <c r="I661" s="28">
+        <v>2</v>
+      </c>
+      <c r="J661" t="str">
+        <f>"("&amp;$B$660&amp;","&amp;A661&amp;",'"&amp;B661&amp;"','"&amp;F661&amp;"','"&amp;G661&amp;"','"&amp;H661&amp;"',"&amp;I661&amp;"),"</f>
+        <v>(56,1,' [유리구슬, 버디, GirlFriend] 다음 단어를 듣고 연상되는 걸그룹은?','  남자친구','  우리 모두 친구','  여자친구',2),</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>2</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F662" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  빨간색</v>
+      </c>
+      <c r="G662" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  검은색</v>
+      </c>
+      <c r="H662" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  노란색</v>
+      </c>
+      <c r="I662" s="28">
+        <v>2</v>
+      </c>
+      <c r="J662" t="str">
+        <f t="shared" ref="J662:J672" si="169">"("&amp;$B$660&amp;","&amp;A662&amp;",'"&amp;B662&amp;"','"&amp;F662&amp;"','"&amp;G662&amp;"','"&amp;H662&amp;"',"&amp;I662&amp;"),"</f>
+        <v>(56,2,' 태극기에 들어가지 않는 색은?','  빨간색','  검은색','  노란색',2),</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>3</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>2338</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F663" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  열쇠</v>
+      </c>
+      <c r="G663" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  상쇠</v>
+      </c>
+      <c r="H663" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  구두쇠</v>
+      </c>
+      <c r="I663" s="28">
+        <v>1</v>
+      </c>
+      <c r="J663" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,3,' 농악의 우두머리로 꽹과리를 치는 사람을 일컫는 말은?','  열쇠','  상쇠','  구두쇠',1),</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>4</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F664" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  반도체 </v>
+      </c>
+      <c r="G664" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  부도체</v>
+      </c>
+      <c r="H664" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  불량도체</v>
+      </c>
+      <c r="I664" s="28">
+        <v>1</v>
+      </c>
+      <c r="J664" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,4,' 유리, 나무와 같이 열 혹은 전기를 잘 전달하지않는 물체를 일컫는 용어는?','  반도체 ','  부도체','  불량도체',1),</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>5</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F665" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  파상풍</v>
+      </c>
+      <c r="G665" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  성홍열</v>
+      </c>
+      <c r="H665" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  괴혈병</v>
+      </c>
+      <c r="I665" s="28">
+        <v>0</v>
+      </c>
+      <c r="J665" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,5,' 상처를 통해 들어와 온몸에 경직성 경련을 유발하는 감염성 질환은?','  파상풍','  성홍열','  괴혈병',0),</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>6</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F666" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  집에 사는 뱀</v>
+      </c>
+      <c r="G666" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  물을 먹는 뱀</v>
+      </c>
+      <c r="H666" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  토막 나는 뱀</v>
+      </c>
+      <c r="I666" s="28">
+        <v>2</v>
+      </c>
+      <c r="J666" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,6,' 도마뱀의 "도마"는 무엇을 뜻할까?','  집에 사는 뱀','  물을 먹는 뱀','  토막 나는 뱀',2),</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>7</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F667" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  헬렌켈러</v>
+      </c>
+      <c r="G667" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  퀴리부인</v>
+      </c>
+      <c r="H667" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  나이팅게일</v>
+      </c>
+      <c r="I667" s="28">
+        <v>1</v>
+      </c>
+      <c r="J667" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,7,' 프랑스의 물리학자로 방사능 연구를 통해 최초의 방사성 원소 폴로늄과 라듐을 발견한 사람은?','  헬렌켈러','  퀴리부인','  나이팅게일',1),</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>8</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F668" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  임블리</v>
+      </c>
+      <c r="G668" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  메이썸</v>
+      </c>
+      <c r="H668" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  스타일난다</v>
+      </c>
+      <c r="I668" s="28">
+        <v>2</v>
+      </c>
+      <c r="J668" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,8,' 최근 세계적인 뷰티 브랜드 로레알에 4000억에 매각된 한국의 브랜드는?','  임블리','  메이썸','  스타일난다',2),</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>9</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F669" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  단심가</v>
+      </c>
+      <c r="G669" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  하여가</v>
+      </c>
+      <c r="H669" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  공무도하가</v>
+      </c>
+      <c r="I669" s="28">
+        <v>0</v>
+      </c>
+      <c r="J669" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,9,' 고려 말기 정몽주가 지은 시조로 고려에 대한 충절을 읊은 이것은?','  단심가','  하여가','  공무도하가',0),</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>10</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F670" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  10년</v>
+      </c>
+      <c r="G670" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  25년</v>
+      </c>
+      <c r="H670" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  없다.</v>
+      </c>
+      <c r="I670" s="28">
+        <v>2</v>
+      </c>
+      <c r="J670" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,10,' 현재 대한민국의 살인죄에 대한 공소시효는?','  10년','  25년','  없다.',2),</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>11</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F671" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  마가렛트 카레</v>
+      </c>
+      <c r="G671" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  마가렛트 고로케</v>
+      </c>
+      <c r="H671" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  마가렛트 피자</v>
+      </c>
+      <c r="I671" s="28">
+        <v>1</v>
+      </c>
+      <c r="J671" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,11,' 실제로 출시된 롯데 마가렛트 맛은?','  마가렛트 카레','  마가렛트 고로케','  마가렛트 피자',1),</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>12</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F672" s="12" t="str">
+        <f t="shared" si="166"/>
+        <v>  첼랴빈스크</v>
+      </c>
+      <c r="G672" s="12" t="str">
+        <f t="shared" si="167"/>
+        <v>  예카테린부르크</v>
+      </c>
+      <c r="H672" s="18" t="str">
+        <f t="shared" si="168"/>
+        <v>  니즈니노브고로드</v>
+      </c>
+      <c r="I672" s="28">
+        <v>0</v>
+      </c>
+      <c r="J672" t="str">
+        <f t="shared" si="169"/>
+        <v>(56,12,' 다음 중 2018 러시아 월드컵이 개최되는 도시가 아닌것은?','  첼랴빈스크','  예카테린부르크','  니즈니노브고로드',0),</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" s="2">
+        <v>43246.833333333336</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -34879,29 +35565,29 @@
     <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>2138</v>
+        <v>2286</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="str">
         <f>MID(A1, FIND("1.", A1) + 2, 9999)</f>
-        <v xml:space="preserve"> '자기 나라가 아닌 다른 나라에 특징적인'이란 뜻으로 쓰이는 말은?</v>
-      </c>
-      <c r="D1" s="6" t="str">
+        <v xml:space="preserve"> [유리구슬, 버디, GirlFriend] 다음 단어를 듣고 연상되는 걸그룹은?</v>
+      </c>
+      <c r="D1" s="7" t="str">
         <f>A3</f>
-        <v>A.  이국적</v>
+        <v>A.  남자친구</v>
       </c>
       <c r="E1" s="27" t="str">
         <f>A4</f>
-        <v>B.  이북적</v>
-      </c>
-      <c r="F1" s="27" t="str">
+        <v>B.  우리 모두 친구</v>
+      </c>
+      <c r="F1" s="30" t="str">
         <f>A5</f>
-        <v>C.  이기적</v>
+        <v>C.  여자친구</v>
       </c>
       <c r="G1" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
@@ -34909,266 +35595,266 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="str">
         <f>MID(A8, FIND("2.", A8) + 2, 9999)</f>
-        <v xml:space="preserve"> 컴퓨터간 정보를 주고받을 때 통신방법에 대한 규칙과 약속을 의미하는 것은?</v>
+        <v xml:space="preserve"> 태극기에 들어가지 않는 색은?</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>A10</f>
-        <v>A.  포로포즈</v>
-      </c>
-      <c r="E2" s="6" t="str">
+        <v>A.  빨간색</v>
+      </c>
+      <c r="E2" s="7" t="str">
         <f>A11</f>
-        <v>B.  프로토콜</v>
-      </c>
-      <c r="F2" s="7" t="str">
+        <v>B.  검은색</v>
+      </c>
+      <c r="F2" s="6" t="str">
         <f>A12</f>
-        <v>C.  프로포폴</v>
+        <v>C.  노란색</v>
       </c>
       <c r="G2" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>2139</v>
+        <v>2287</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="str">
         <f>MID(A15, FIND("3.", A15) + 2, 9999)</f>
-        <v xml:space="preserve"> '축하하기 위해 벌이는 공연'이란 뜻으로 주로 클래식 음악, 피겨스케이팅 분야에서 열리는 이 행사는?</v>
+        <v xml:space="preserve"> 농악의 우두머리로 꽹과리를 치는 사람을 일컫는 말은?</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>A17</f>
-        <v>A.  퍼레이드</v>
-      </c>
-      <c r="E3" s="7" t="str">
+        <v>A.  열쇠</v>
+      </c>
+      <c r="E3" s="6" t="str">
         <f>A18</f>
-        <v>B.  카니발</v>
-      </c>
-      <c r="F3" s="6" t="str">
+        <v>B.  상쇠</v>
+      </c>
+      <c r="F3" s="7" t="str">
         <f>A19</f>
-        <v>C.  갈라쇼</v>
+        <v>C.  구두쇠</v>
       </c>
       <c r="G3" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>2140</v>
+        <v>2288</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="str">
         <f>MID(A22, FIND("4.", A22) + 2, 9999)</f>
-        <v xml:space="preserve"> &lt;세계 3대 영화제&gt;가 열리지 않는 도시는?</v>
+        <v xml:space="preserve"> 유리, 나무와 같이 열 혹은 전기를 잘 전달하지않는 물체를 일컫는 용어는?</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>A24</f>
-        <v>A.  베를린</v>
-      </c>
-      <c r="E4" s="7" t="str">
+        <v>A.  반도체 </v>
+      </c>
+      <c r="E4" s="6" t="str">
         <f>A25</f>
-        <v>B.  베니스</v>
-      </c>
-      <c r="F4" s="6" t="str">
+        <v>B.  부도체</v>
+      </c>
+      <c r="F4" s="7" t="str">
         <f>A26</f>
-        <v>C.  할리우드</v>
+        <v>C.  불량도체</v>
       </c>
       <c r="G4" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>2141</v>
+        <v>2289</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="str">
         <f>MID(A29, FIND("5.", A29) + 2, 9999)</f>
-        <v xml:space="preserve"> 우리나라에서 가장 높은 건물은?</v>
-      </c>
-      <c r="D5" s="7" t="str">
+        <v xml:space="preserve"> 상처를 통해 들어와 온몸에 경직성 경련을 유발하는 감염성 질환은?</v>
+      </c>
+      <c r="D5" s="6" t="str">
         <f>A31</f>
-        <v>A.  송도 동북아무역센터</v>
-      </c>
-      <c r="E5" s="6" t="str">
+        <v>A.  파상풍</v>
+      </c>
+      <c r="E5" s="7" t="str">
         <f>A32</f>
-        <v>B.  롯데월드타워</v>
+        <v>B.  성홍열</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>A33</f>
-        <v>C.  63빌딩</v>
+        <v>C.  괴혈병</v>
       </c>
       <c r="G5" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="str">
         <f>MID(A36, FIND("6.", A36) + 2, 9999)</f>
-        <v xml:space="preserve"> &lt;등자뼈, 청소골, 망치뼈&gt; 다음과 가장 관련이 깊은 신체기관은?</v>
-      </c>
-      <c r="D6" s="6" t="str">
+        <v xml:space="preserve"> 도마뱀의 '도마'는 무엇을 뜻할까?</v>
+      </c>
+      <c r="D6" s="7" t="str">
         <f>A38</f>
-        <v>A.  귀</v>
+        <v>A.  집에 사는 뱀</v>
       </c>
       <c r="E6" s="7" t="str">
         <f>A39</f>
-        <v>B.  발</v>
-      </c>
-      <c r="F6" s="7" t="str">
+        <v>B.  물을 먹는 뱀</v>
+      </c>
+      <c r="F6" s="6" t="str">
         <f>A40</f>
-        <v>C.  머리</v>
+        <v>C.  토막 나는 뱀</v>
       </c>
       <c r="G6" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="str">
         <f>MID(A43, FIND("7.", A43) + 2, 9999)</f>
-        <v xml:space="preserve"> 중복된 표현이 아닌 것은?</v>
-      </c>
-      <c r="D7" s="6" t="str">
+        <v xml:space="preserve"> 프랑스의 물리학자로 방사능 연구를 통해 최초의 방사성 원소 폴로늄과 라듐을 발견한 사람은?</v>
+      </c>
+      <c r="D7" s="7" t="str">
         <f>A45</f>
-        <v>A.  오랜 소원</v>
-      </c>
-      <c r="E7" s="7" t="str">
+        <v>A.  헬렌켈러</v>
+      </c>
+      <c r="E7" s="6" t="str">
         <f>A46</f>
-        <v>B.  하얀 백발</v>
+        <v>B.  퀴리부인</v>
       </c>
       <c r="F7" s="7" t="str">
         <f>A47</f>
-        <v>C.  남은 여생</v>
+        <v>C.  나이팅게일</v>
       </c>
       <c r="G7" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>2142</v>
+        <v>2290</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
         <f>MID(A50, FIND("8.", A50) + 2, 9999)</f>
-        <v xml:space="preserve"> 다음 보기 중 고려시대의 금속 화폐로 사용되었던 것은?</v>
+        <v xml:space="preserve"> 최근 세계적인 뷰티 브랜드 로레알에 4000억에 매각된 한국의 브랜드는?</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>A52</f>
-        <v>A.  상평통보</v>
-      </c>
-      <c r="E8" s="6" t="str">
+        <v>A.  임블리</v>
+      </c>
+      <c r="E8" s="7" t="str">
         <f>A53</f>
-        <v>B.  해동통보</v>
-      </c>
-      <c r="F8" s="7" t="str">
+        <v>B.  메이썸</v>
+      </c>
+      <c r="F8" s="6" t="str">
         <f>A54</f>
-        <v>C.  해고통보</v>
+        <v>C.  스타일난다</v>
       </c>
       <c r="G8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
         <f>MID(A57, FIND("9.", A57) + 2, 9999)</f>
-        <v xml:space="preserve"> 본명이 잘못 짝지어진 가수는?</v>
-      </c>
-      <c r="D9" s="7" t="str">
+        <v xml:space="preserve"> 고려 말기 정몽주가 지은 시조로 고려에 대한 충절을 읊은 이것은?</v>
+      </c>
+      <c r="D9" s="6" t="str">
         <f>A59</f>
-        <v>A.  남진-김남진</v>
-      </c>
-      <c r="E9" s="6" t="str">
+        <v>A.  단심가</v>
+      </c>
+      <c r="E9" s="7" t="str">
         <f>A60</f>
-        <v>B.  패티김-김희자</v>
+        <v>B.  하여가</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>A61</f>
-        <v>C.  인순이-김인순</v>
+        <v>C.  공무도하가</v>
       </c>
       <c r="G9" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>2143</v>
+        <v>2291</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
         <f>MID(A64, FIND("10.", A64) + 3, 9999)</f>
-        <v xml:space="preserve"> 1940-1950년 할리우드에서 큰 인기를 끌었던 패션 트렌드는?</v>
+        <v xml:space="preserve"> 현재 대한민국의 살인죄에 대한 공소시효는?</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>A66</f>
-        <v>A.  보석 치아</v>
+        <v>A.  10년</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>A67</f>
-        <v>B.  호블 스커트</v>
+        <v>B.  25년</v>
       </c>
       <c r="F10" s="6" t="str">
         <f>A68</f>
-        <v>C.  총알 브래지어</v>
+        <v>C.  없다.</v>
       </c>
       <c r="G10" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>2144</v>
+        <v>1033</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
         <f>MID(A71, FIND("11.", A71) + 3, 9999)</f>
-        <v xml:space="preserve"> 일차방정식의 근을 구하는 동양 전래의 계산법은?</v>
-      </c>
-      <c r="D11" s="6" t="str">
+        <v xml:space="preserve"> 실제로 출시된 롯데 마가렛트 맛은?</v>
+      </c>
+      <c r="D11" s="7" t="str">
         <f>A73</f>
-        <v>A.  천원술</v>
-      </c>
-      <c r="E11" s="7" t="str">
+        <v>A.  마가렛트 카레</v>
+      </c>
+      <c r="E11" s="6" t="str">
         <f>A74</f>
-        <v>B.  혼돈술</v>
+        <v>B.  마가렛트 고로케</v>
       </c>
       <c r="F11" s="7" t="str">
         <f>A75</f>
-        <v>C.  동방술</v>
+        <v>C.  마가렛트 피자</v>
       </c>
       <c r="G11" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>2145</v>
+        <v>2292</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="str">
         <f>MID(A78, FIND("12.", A78) + 3, 9999)</f>
-        <v xml:space="preserve"> 발매된 적이 없는 가요제목은?</v>
-      </c>
-      <c r="D12" s="7" t="str">
+        <v xml:space="preserve"> 다음 중 2018 러시아 월드컵이 개최되는 도시가 아닌것은?</v>
+      </c>
+      <c r="D12" s="6" t="str">
         <f>A80</f>
-        <v>A.  나 군대 간다</v>
-      </c>
-      <c r="E12" s="6" t="str">
+        <v>A.  첼랴빈스크</v>
+      </c>
+      <c r="E12" s="7" t="str">
         <f>A81</f>
-        <v>B.  회사에서 쓰는 노래</v>
+        <v>B.  예카테린부르크</v>
       </c>
       <c r="F12" s="7" t="str">
         <f>A82</f>
-        <v>C.  그 놈의 결혼식</v>
+        <v>C.  니즈니노브고로드</v>
       </c>
       <c r="G12" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -35177,9 +35863,9 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>2146</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -35187,17 +35873,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>2147</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>2148</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>2149</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -35208,7 +35894,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>2150</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -35216,17 +35902,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>2151</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>2152</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>2153</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -35237,7 +35923,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>2154</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -35245,17 +35931,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>2155</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>2156</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>2157</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -35266,7 +35952,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>2158</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -35274,17 +35960,17 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>2159</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>2160</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>2161</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -35293,9 +35979,9 @@
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>2162</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -35303,17 +35989,17 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>2163</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>2164</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>2165</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
@@ -35324,7 +36010,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>2166</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
@@ -35332,17 +36018,17 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
-        <v>2167</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
-        <v>2168</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
-        <v>2169</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
@@ -35353,7 +36039,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>2170</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
@@ -35361,17 +36047,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
-        <v>2171</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>2172</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
-        <v>2173</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
@@ -35382,7 +36068,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>2174</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
@@ -35390,17 +36076,17 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
-        <v>2175</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>2176</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>2177</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -35411,7 +36097,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>2178</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -35419,17 +36105,17 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
-        <v>2179</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>2180</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>2181</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
@@ -35440,7 +36126,7 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>2182</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -35448,17 +36134,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
-        <v>2183</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
-        <v>2184</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
-        <v>2185</v>
+        <v>2332</v>
       </c>
     </row>
   </sheetData>

--- a/nodejs_svr/doc/잼라이브 기출문제.xlsx
+++ b/nodejs_svr/doc/잼라이브 기출문제.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="2358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="2453">
   <si>
     <t>서태지, 양현성, 이주노가 멤버로 있었던 1세대 힙합 아이돌 그룹의 이름은?</t>
   </si>
@@ -13644,13 +13644,299 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. [유리구슬, 버디, GirlFriend] 다음 단어를 듣고 연상되는 걸그룹은?</t>
-  </si>
-  <si>
     <t>A.  남자친구</t>
   </si>
   <si>
     <t>B.  우리 모두 친구</t>
+  </si>
+  <si>
+    <t>A.  빨간색</t>
+  </si>
+  <si>
+    <t>A.  열쇠</t>
+  </si>
+  <si>
+    <t>C.  구두쇠</t>
+  </si>
+  <si>
+    <t>A.  반도체 </t>
+  </si>
+  <si>
+    <t>C.  불량도체</t>
+  </si>
+  <si>
+    <t>B.  성홍열</t>
+  </si>
+  <si>
+    <t>C.  괴혈병</t>
+  </si>
+  <si>
+    <t>A.  집에 사는 뱀</t>
+  </si>
+  <si>
+    <t>B.  물을 먹는 뱀</t>
+  </si>
+  <si>
+    <t>A.  헬렌켈러</t>
+  </si>
+  <si>
+    <t>C.  나이팅게일</t>
+  </si>
+  <si>
+    <t>A.  임블리</t>
+  </si>
+  <si>
+    <t>B.  메이썸</t>
+  </si>
+  <si>
+    <t>B.  하여가</t>
+  </si>
+  <si>
+    <t>C.  공무도하가</t>
+  </si>
+  <si>
+    <t>A.  10년</t>
+  </si>
+  <si>
+    <t>B.  25년</t>
+  </si>
+  <si>
+    <t>A.  마가렛트 카레</t>
+  </si>
+  <si>
+    <t>C.  마가렛트 피자</t>
+  </si>
+  <si>
+    <t>B.  예카테린부르크</t>
+  </si>
+  <si>
+    <t>C.  니즈니노브고로드</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [유리구슬, 버디, GirlFriend] 다음 단어를 듣고 연상되는 걸그룹은?</t>
+  </si>
+  <si>
+    <t>C.  여자친구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 태극기에 들어가지 않는 색은?</t>
+  </si>
+  <si>
+    <t>C.  노란색</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 농악의 우두머리로 꽹과리를 치는 사람을 일컫는 말은?</t>
+  </si>
+  <si>
+    <t>B.  상쇠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유리, 나무와 같이 열 혹은 전기를 잘 전달하지않는 물체를 일컫는 용어는?</t>
+  </si>
+  <si>
+    <t>B.  부도체</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 상처를 통해 들어와 온몸에 경직성 경련을 유발하는 감염성 질환은?</t>
+  </si>
+  <si>
+    <t>A.  파상풍</t>
+  </si>
+  <si>
+    <t>C.  토막 나는 뱀</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 프랑스의 물리학자로 방사능 연구를 통해 최초의 방사성 원소 폴로늄과 라듐을 발견한 사람은?</t>
+  </si>
+  <si>
+    <t>B.  퀴리부인</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최근 세계적인 뷰티 브랜드 로레알에 4000억에 매각된 한국의 브랜드는?</t>
+  </si>
+  <si>
+    <t>C.  스타일난다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고려 말기 정몽주가 지은 시조로 고려에 대한 충절을 읊은 이것은?</t>
+  </si>
+  <si>
+    <t>A.  단심가</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 현재 대한민국의 살인죄에 대한 공소시효는?</t>
+  </si>
+  <si>
+    <t>C.  없다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 실제로 출시된 롯데 마가렛트 맛은?</t>
+  </si>
+  <si>
+    <t>B.  마가렛트 고로케</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 2018 러시아 월드컵이 개최되는 도시가 아닌것은?</t>
+  </si>
+  <si>
+    <t>A.  첼랴빈스크</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 도마뱀의 "도마"는 무엇을 뜻할까?</t>
+  </si>
+  <si>
+    <t>A.  파스텔</t>
+  </si>
+  <si>
+    <t>B.  호스텔</t>
+  </si>
+  <si>
+    <t>B.  장영실</t>
+  </si>
+  <si>
+    <t>C.  세종대왕</t>
+  </si>
+  <si>
+    <t>A.  야누스</t>
+  </si>
+  <si>
+    <t>B.  사대천왕</t>
+  </si>
+  <si>
+    <t>B.  선을 넘는 녀석들</t>
+  </si>
+  <si>
+    <t>C.  하룻밤만 재워줘</t>
+  </si>
+  <si>
+    <t>A.  쟁반</t>
+  </si>
+  <si>
+    <t>B.  소반</t>
+  </si>
+  <si>
+    <t>C.  그리스</t>
+  </si>
+  <si>
+    <t>A.  보이지 않는 원숭이</t>
+  </si>
+  <si>
+    <t>B.  보이지 않는 코알라</t>
+  </si>
+  <si>
+    <t>B.  에어프랑스</t>
+  </si>
+  <si>
+    <t>C.  대한항공</t>
+  </si>
+  <si>
+    <t>A.  뉴질랜드 - 에피규어 치즈</t>
+  </si>
+  <si>
+    <t>C.  한국 - 삭힌 홍어</t>
+  </si>
+  <si>
+    <t>A.  지밀상궁</t>
+  </si>
+  <si>
+    <t>C.  보모상궁</t>
+  </si>
+  <si>
+    <t>A.  수수하다</t>
+  </si>
+  <si>
+    <t>C.  팔팔하다</t>
+  </si>
+  <si>
+    <t>B.  0.3ppm 이상</t>
+  </si>
+  <si>
+    <t>C.  0.12ppm 이상</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 은하철도 999에서 철이와 여행을 함께하는 여자 주인공의 이름은?</t>
+  </si>
+  <si>
+    <t>C.  메텔</t>
+  </si>
+  <si>
+    <t>A.  김정호</t>
+  </si>
+  <si>
+    <t>C.  토르</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 해외여행을 주제로 한 예능 프로그램이 아닌 것은?</t>
+  </si>
+  <si>
+    <t>A.  달팽이 호텔</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 예물로 가져온 좋은 음식 또는 맛있게 잘 차린 음식이나 반찬을 가리키는 말은?</t>
+  </si>
+  <si>
+    <t>C.  차반</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 수학에서 숫자 0을 최초로 사용한 나라는?</t>
+  </si>
+  <si>
+    <t>A.  인도</t>
+  </si>
+  <si>
+    <t>C.  보이지 않는 고릴라</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 인천공항 제2여객터미널에서 이용할 수 없는 항공사는?</t>
+  </si>
+  <si>
+    <t>A.  아시아나</t>
+  </si>
+  <si>
+    <t>B.  스웨덴 - 수르스트뢰밍</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 조선시대 상궁 중 가장 지위가 높은 상궁은?</t>
+  </si>
+  <si>
+    <t>B.  제조상궁</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다음 중 순 우리말이 아닌 것은?</t>
+  </si>
+  <si>
+    <t>B.  구구하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오존 경보는 오존 농도가 시간당 평균 얼마 이상일 때 실시될까?</t>
+  </si>
+  <si>
+    <t>A.  0.5ppm 이상</t>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "대동여지도"를 만든 역사적인 인물은?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고대 게르만족의 신으로, "묠니르"라는 철퇴를 사용하는 이 인물의 이름은?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "한 가지에 집중하면, 실제로 존재하는 다른 것을 보지 못하는 현상"을 일컫는 용어는?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 여행 정보 사이트 "트립어드바이저 재팬"이 발표한 세계적으로 유명한 악취 음식 1위는?</t>
+  </si>
+  <si>
+    <t>1. 영화배우 신현준이 연기한 캐릭터가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>A.  황장군</t>
+  </si>
+  <si>
+    <t>B.  기봉이</t>
   </si>
   <si>
     <r>
@@ -13663,18 +13949,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>여자친구</t>
-    </r>
-  </si>
-  <si>
-    <t>2. 태극기에 들어가지 않는 색은?</t>
-  </si>
-  <si>
-    <t>A.  빨간색</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
+      <t>즐라탄</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 한국에 있는 대학교는?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
     </r>
     <r>
       <rPr>
@@ -13683,14 +13966,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>노란색</t>
-    </r>
-  </si>
-  <si>
-    <t>3. 농악의 우두머리로 꽹과리를 치는 사람을 일컫는 말은?</t>
-  </si>
-  <si>
-    <t>A.  열쇠</t>
+      <t>서울대학교</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  하버드대학교</t>
+  </si>
+  <si>
+    <t>C.  동경대학교</t>
+  </si>
+  <si>
+    <t>3. 북한의 수도는?</t>
+  </si>
+  <si>
+    <t>A.  개성</t>
   </si>
   <si>
     <r>
@@ -13703,21 +13992,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>상쇠</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  구두쇠</t>
-  </si>
-  <si>
-    <t>4. 유리, 나무와 같이 열 혹은 전기를 잘 전달하지않는 물체를 일컫는 용어는?</t>
-  </si>
-  <si>
-    <t>A.  반도체 </t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>평양</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  신의주</t>
+  </si>
+  <si>
+    <t>4. 손님이 주류를 가져가면 레스토랑에서 무료로 잔을 제공하고 코르크를 개봉해 주는 서비스의 이름은?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
     </r>
     <r>
       <rPr>
@@ -13726,14 +14012,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>부도체</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  불량도체</t>
-  </si>
-  <si>
-    <t>5. 상처를 통해 들어와 온몸에 경직성 경련을 유발하는 감염성 질환은?</t>
+      <t>콜키지 프리</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  와인 프리</t>
+  </si>
+  <si>
+    <t>C.  글라스 프리</t>
+  </si>
+  <si>
+    <t>5. 나리 나리 개나리 입에 따다 물고요 병아리 떼 (   ) 봄 나들이 갑니다. (   )의 가사는?</t>
   </si>
   <si>
     <r>
@@ -13746,23 +14035,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>파상풍</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  성홍열</t>
-  </si>
-  <si>
-    <t>C.  괴혈병</t>
-  </si>
-  <si>
-    <t>6. 도마뱀의 '도마'는 무엇을 뜻할까?</t>
-  </si>
-  <si>
-    <t>A.  집에 사는 뱀</t>
-  </si>
-  <si>
-    <t>B.  물을 먹는 뱀</t>
+      <t>종종종</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  쫑쫑쫑</t>
+  </si>
+  <si>
+    <t>C.  총총총</t>
+  </si>
+  <si>
+    <t>6. 대부분의 비행기 창문은 (   )로 되어 있다.</t>
+  </si>
+  <si>
+    <t>A.  폴리카보네이트</t>
+  </si>
+  <si>
+    <t>B.  강화유리</t>
   </si>
   <si>
     <r>
@@ -13775,18 +14064,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>토막 나는 뱀</t>
-    </r>
-  </si>
-  <si>
-    <t>7. 프랑스의 물리학자로 방사능 연구를 통해 최초의 방사성 원소 폴로늄과 라듐을 발견한 사람은?</t>
-  </si>
-  <si>
-    <t>A.  헬렌켈러</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>아크릴</t>
+    </r>
+  </si>
+  <si>
+    <t>7. 한국을 빛낸 백명의 위인들 1절에 나오지 않는 위인은?</t>
+  </si>
+  <si>
+    <t>A.  계백장군</t>
+  </si>
+  <si>
+    <t>B.  광개토대왕</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -13795,24 +14087,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>퀴리부인</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  나이팅게일</t>
-  </si>
-  <si>
-    <t>8. 최근 세계적인 뷰티 브랜드 로레알에 4000억에 매각된 한국의 브랜드는?</t>
-  </si>
-  <si>
-    <t>A.  임블리</t>
-  </si>
-  <si>
-    <t>B.  메이썸</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
+      <t>원효대사</t>
+    </r>
+  </si>
+  <si>
+    <t>8. 올바른 맞춤법 표기는?</t>
+  </si>
+  <si>
+    <t>A.  부체가 심해서 파산했어</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -13821,15 +14107,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>스타일난다</t>
-    </r>
-  </si>
-  <si>
-    <t>9. 고려 말기 정몽주가 지은 시조로 고려에 대한 충절을 읊은 이것은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>소고기는 부챗살이 맛있어</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  가게부채가 늘 문제야</t>
+  </si>
+  <si>
+    <t>9. 수소와 산소를 반응시켜 전기와 물을 만드는 장치로 수소전기차의 핵심부품은?</t>
+  </si>
+  <si>
+    <t>A.  수소전기 스텍</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -13838,27 +14130,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>단심가</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  하여가</t>
-  </si>
-  <si>
-    <t>C.  공무도하가</t>
-  </si>
-  <si>
-    <t>10. 현재 대한민국의 살인죄에 대한 공소시효는?</t>
-  </si>
-  <si>
-    <t>A.  10년</t>
-  </si>
-  <si>
-    <t>B.  25년</t>
-  </si>
-  <si>
-    <r>
-      <t>C.  </t>
+      <t>연료전지 스텍</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  전기연료 스텍</t>
+  </si>
+  <si>
+    <t>10. 눈에는 눈, 이에는 이와 같이 피해 정도와 동일한 손해를 가해자에게 내리는 보복 법칙을 무엇이라 할까?</t>
+  </si>
+  <si>
+    <t>A.  함무라비 법칙</t>
+  </si>
+  <si>
+    <r>
+      <t>B.  </t>
     </r>
     <r>
       <rPr>
@@ -13867,18 +14153,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>없다.</t>
-    </r>
-  </si>
-  <si>
-    <t>11. 실제로 출시된 롯데 마가렛트 맛은?</t>
-  </si>
-  <si>
-    <t>A.  마가렛트 카레</t>
-  </si>
-  <si>
-    <r>
-      <t>B.  </t>
+      <t>탈리오 법칙</t>
+    </r>
+  </si>
+  <si>
+    <t>C.  솔로몬 법칙</t>
+  </si>
+  <si>
+    <t>11. 에스키모 민족은 전통적으로 바다표범의 내장을 제거한 후 이것을 넣어서 먹었다. 이것은 무엇일까?</t>
+  </si>
+  <si>
+    <r>
+      <t>A.  </t>
     </r>
     <r>
       <rPr>
@@ -13887,18 +14173,27 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>마가렛트 고로케</t>
-    </r>
-  </si>
-  <si>
-    <t>C.  마가렛트 피자</t>
-  </si>
-  <si>
-    <t>12. 다음 중 2018 러시아 월드컵이 개최되는 도시가 아닌것은?</t>
-  </si>
-  <si>
-    <r>
-      <t>A.  </t>
+      <t>새</t>
+    </r>
+  </si>
+  <si>
+    <t>B.  럼주</t>
+  </si>
+  <si>
+    <t>C.  청어</t>
+  </si>
+  <si>
+    <t>12. 세상의 모든 소리를 표현할 수 있는 과학적인 글자 '훈민정음'은 창제 당시 총 몇 자 였을까?</t>
+  </si>
+  <si>
+    <t>A.  24자</t>
+  </si>
+  <si>
+    <t>B.  26자</t>
+  </si>
+  <si>
+    <r>
+      <t>C.  </t>
     </r>
     <r>
       <rPr>
@@ -13907,90 +14202,81 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>첼랴빈스크</t>
-    </r>
-  </si>
-  <si>
-    <t>B.  예카테린부르크</t>
-  </si>
-  <si>
-    <t>C.  니즈니노브고로드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [유리구슬, 버디, GirlFriend] 다음 단어를 듣고 연상되는 걸그룹은?</t>
-  </si>
-  <si>
-    <t>C.  여자친구</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 태극기에 들어가지 않는 색은?</t>
-  </si>
-  <si>
-    <t>C.  노란색</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 농악의 우두머리로 꽹과리를 치는 사람을 일컫는 말은?</t>
-  </si>
-  <si>
-    <t>B.  상쇠</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 유리, 나무와 같이 열 혹은 전기를 잘 전달하지않는 물체를 일컫는 용어는?</t>
-  </si>
-  <si>
-    <t>B.  부도체</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상처를 통해 들어와 온몸에 경직성 경련을 유발하는 감염성 질환은?</t>
-  </si>
-  <si>
-    <t>A.  파상풍</t>
-  </si>
-  <si>
-    <t>C.  토막 나는 뱀</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 프랑스의 물리학자로 방사능 연구를 통해 최초의 방사성 원소 폴로늄과 라듐을 발견한 사람은?</t>
-  </si>
-  <si>
-    <t>B.  퀴리부인</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 최근 세계적인 뷰티 브랜드 로레알에 4000억에 매각된 한국의 브랜드는?</t>
-  </si>
-  <si>
-    <t>C.  스타일난다</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 고려 말기 정몽주가 지은 시조로 고려에 대한 충절을 읊은 이것은?</t>
-  </si>
-  <si>
-    <t>A.  단심가</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 현재 대한민국의 살인죄에 대한 공소시효는?</t>
-  </si>
-  <si>
-    <t>C.  없다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 실제로 출시된 롯데 마가렛트 맛은?</t>
-  </si>
-  <si>
-    <t>B.  마가렛트 고로케</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다음 중 2018 러시아 월드컵이 개최되는 도시가 아닌것은?</t>
-  </si>
-  <si>
-    <t>A.  첼랴빈스크</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도마뱀의 "도마"는 무엇을 뜻할까?</t>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>28자</t>
+    </r>
+  </si>
+  <si>
+    <t> 영화배우 신현준이 연기한 캐릭터가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>C.  즐라탄</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한국에 있는 대학교는?</t>
+  </si>
+  <si>
+    <t>A.  서울대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 북한의 수도는?</t>
+  </si>
+  <si>
+    <t>B.  평양</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 손님이 주류를 가져가면 레스토랑에서 무료로 잔을 제공하고 코르크를 개봉해 주는 서비스의 이름은?</t>
+  </si>
+  <si>
+    <t>A.  콜키지 프리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 나리 나리 개나리 입에 따다 물고요 병아리 떼 (   ) 봄 나들이 갑니다. (   )의 가사는?</t>
+  </si>
+  <si>
+    <t>A.  종종종</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대부분의 비행기 창문은 (   )로 되어 있다.</t>
+  </si>
+  <si>
+    <t>C.  아크릴</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한국을 빛낸 백명의 위인들 1절에 나오지 않는 위인은?</t>
+  </si>
+  <si>
+    <t>C.  원효대사</t>
+  </si>
+  <si>
+    <t>B.  소고기는 부챗살이 맛있어</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 수소와 산소를 반응시켜 전기와 물을 만드는 장치로 수소전기차의 핵심부품은?</t>
+  </si>
+  <si>
+    <t>B.  연료전지 스텍</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 눈에는 눈, 이에는 이와 같이 피해 정도와 동일한 손해를 가해자에게 내리는 보복 법칙을 무엇이라 할까?</t>
+  </si>
+  <si>
+    <t>B.  탈리오 법칙</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 에스키모 민족은 전통적으로 바다표범의 내장을 제거한 후 이것을 넣어서 먹었다. 이것은 무엇일까?</t>
+  </si>
+  <si>
+    <t>A.  새</t>
+  </si>
+  <si>
+    <t>C.  28자</t>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 세상의 모든 소리를 표현할 수 있는 과학적인 글자 "훈민정음"은 창제 당시 총 몇 자 였을까?</t>
   </si>
 </sst>
 </file>
@@ -14524,10 +14810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J686"/>
+  <dimension ref="A1:J700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A645" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B675" sqref="B675"/>
+    <sheetView tabSelected="1" topLeftCell="A675" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G702" sqref="G702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35049,16 +35335,16 @@
         <v>1</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>2333</v>
+        <v>2309</v>
       </c>
       <c r="C661" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D661" s="3" t="s">
         <v>2287</v>
       </c>
-      <c r="D661" s="3" t="s">
-        <v>2288</v>
-      </c>
       <c r="E661" s="3" t="s">
-        <v>2334</v>
+        <v>2310</v>
       </c>
       <c r="F661" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35085,16 +35371,16 @@
         <v>2</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>2335</v>
+        <v>2311</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="D662" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="E662" s="3" t="s">
-        <v>2336</v>
+        <v>2312</v>
       </c>
       <c r="F662" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35121,16 +35407,16 @@
         <v>3</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>2337</v>
+        <v>2313</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="D663" s="3" t="s">
-        <v>2338</v>
+        <v>2314</v>
       </c>
       <c r="E663" s="3" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="F663" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35157,16 +35443,16 @@
         <v>4</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>2339</v>
+        <v>2315</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>2298</v>
+        <v>2291</v>
       </c>
       <c r="D664" s="3" t="s">
-        <v>2340</v>
+        <v>2316</v>
       </c>
       <c r="E664" s="3" t="s">
-        <v>2300</v>
+        <v>2292</v>
       </c>
       <c r="F664" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35193,16 +35479,16 @@
         <v>5</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>2341</v>
+        <v>2317</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>2342</v>
+        <v>2318</v>
       </c>
       <c r="D665" s="3" t="s">
-        <v>2303</v>
+        <v>2293</v>
       </c>
       <c r="E665" s="3" t="s">
-        <v>2304</v>
+        <v>2294</v>
       </c>
       <c r="F665" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35229,16 +35515,16 @@
         <v>6</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>2356</v>
+        <v>2332</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>2306</v>
+        <v>2295</v>
       </c>
       <c r="D666" s="3" t="s">
-        <v>2307</v>
+        <v>2296</v>
       </c>
       <c r="E666" s="3" t="s">
-        <v>2343</v>
+        <v>2319</v>
       </c>
       <c r="F666" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35265,16 +35551,16 @@
         <v>7</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>2344</v>
+        <v>2320</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>2310</v>
+        <v>2297</v>
       </c>
       <c r="D667" s="3" t="s">
-        <v>2345</v>
+        <v>2321</v>
       </c>
       <c r="E667" s="3" t="s">
-        <v>2312</v>
+        <v>2298</v>
       </c>
       <c r="F667" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35301,16 +35587,16 @@
         <v>8</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>2346</v>
+        <v>2322</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>2314</v>
+        <v>2299</v>
       </c>
       <c r="D668" s="3" t="s">
-        <v>2315</v>
+        <v>2300</v>
       </c>
       <c r="E668" s="3" t="s">
-        <v>2347</v>
+        <v>2323</v>
       </c>
       <c r="F668" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35337,16 +35623,16 @@
         <v>9</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>2348</v>
+        <v>2324</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>2349</v>
+        <v>2325</v>
       </c>
       <c r="D669" s="3" t="s">
-        <v>2319</v>
+        <v>2301</v>
       </c>
       <c r="E669" s="3" t="s">
-        <v>2320</v>
+        <v>2302</v>
       </c>
       <c r="F669" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35373,16 +35659,16 @@
         <v>10</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>2350</v>
+        <v>2326</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>2322</v>
+        <v>2303</v>
       </c>
       <c r="D670" s="3" t="s">
-        <v>2323</v>
+        <v>2304</v>
       </c>
       <c r="E670" s="3" t="s">
-        <v>2351</v>
+        <v>2327</v>
       </c>
       <c r="F670" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35409,16 +35695,16 @@
         <v>11</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>2352</v>
+        <v>2328</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>2326</v>
+        <v>2305</v>
       </c>
       <c r="D671" s="3" t="s">
-        <v>2353</v>
+        <v>2329</v>
       </c>
       <c r="E671" s="3" t="s">
-        <v>2328</v>
+        <v>2306</v>
       </c>
       <c r="F671" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35445,16 +35731,16 @@
         <v>12</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>2354</v>
+        <v>2330</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>2355</v>
+        <v>2331</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>2331</v>
+        <v>2307</v>
       </c>
       <c r="E672" s="3" t="s">
-        <v>2332</v>
+        <v>2308</v>
       </c>
       <c r="F672" s="12" t="str">
         <f t="shared" si="166"/>
@@ -35476,72 +35762,931 @@
         <v>(56,12,' 다음 중 2018 러시아 월드컵이 개최되는 도시가 아닌것은?','  첼랴빈스크','  예카테린부르크','  니즈니노브고로드',0),</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A674" s="2">
-        <v>43246.833333333336</v>
-      </c>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F673" s="12" t="str">
+        <f t="shared" ref="F673:F686" si="170">IF( IFERROR(FIND("A.",C673), 0) &gt; 0, TRIM(MID( C673, SEARCH("A.", C673)+2, 100)),TRIM(C673))</f>
+        <v/>
+      </c>
+      <c r="G673" s="12" t="str">
+        <f t="shared" ref="G673:G686" si="171">IF( IFERROR(FIND("B.",D673), 0) &gt; 0, TRIM(MID( D673, SEARCH("B.", D673)+2, 100)),TRIM(D673))</f>
+        <v/>
+      </c>
+      <c r="H673" s="18" t="str">
+        <f t="shared" ref="H673:H686" si="172">IF( IFERROR(FIND("C.",E673), 0) &gt; 0, TRIM(MID( E673, SEARCH("C.", E673)+2, 100)),TRIM(E673))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A674" s="2"/>
       <c r="B674" s="3" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2376</v>
+      </c>
+      <c r="F674" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v/>
+      </c>
+      <c r="G674" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v/>
+      </c>
+      <c r="H674" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v/>
+      </c>
+    </row>
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>1</v>
       </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B675" s="3" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>2334</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F675" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  파스텔</v>
+      </c>
+      <c r="G675" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  호스텔</v>
+      </c>
+      <c r="H675" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  메텔</v>
+      </c>
+      <c r="I675" s="28">
+        <v>2</v>
+      </c>
+      <c r="J675" t="str">
+        <f>"("&amp;$B$674&amp;","&amp;A675&amp;",'"&amp;B675&amp;"','"&amp;F675&amp;"','"&amp;G675&amp;"','"&amp;H675&amp;"',"&amp;I675&amp;"),"</f>
+        <v>(58,1,' 은하철도 999에서 철이와 여행을 함께하는 여자 주인공의 이름은?','  파스텔','  호스텔','  메텔',2),</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>2</v>
       </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B676" s="3" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F676" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  김정호</v>
+      </c>
+      <c r="G676" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  장영실</v>
+      </c>
+      <c r="H676" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  세종대왕</v>
+      </c>
+      <c r="I676" s="28">
+        <v>0</v>
+      </c>
+      <c r="J676" t="str">
+        <f t="shared" ref="J676:J686" si="173">"("&amp;$B$674&amp;","&amp;A676&amp;",'"&amp;B676&amp;"','"&amp;F676&amp;"','"&amp;G676&amp;"','"&amp;H676&amp;"',"&amp;I676&amp;"),"</f>
+        <v>(58,2,' "대동여지도"를 만든 역사적인 인물은?','  김정호','  장영실','  세종대왕',0),</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>3</v>
       </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B677" s="3" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>2338</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="F677" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  야누스</v>
+      </c>
+      <c r="G677" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  사대천왕</v>
+      </c>
+      <c r="H677" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  토르</v>
+      </c>
+      <c r="I677" s="28">
+        <v>2</v>
+      </c>
+      <c r="J677" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,3,' 고대 게르만족의 신으로, "묠니르"라는 철퇴를 사용하는 이 인물의 이름은?','  야누스','  사대천왕','  토르',2),</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>4</v>
       </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B678" s="3" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F678" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  달팽이 호텔</v>
+      </c>
+      <c r="G678" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  선을 넘는 녀석들</v>
+      </c>
+      <c r="H678" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  하룻밤만 재워줘</v>
+      </c>
+      <c r="I678" s="28">
+        <v>0</v>
+      </c>
+      <c r="J678" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,4,' 해외여행을 주제로 한 예능 프로그램이 아닌 것은?','  달팽이 호텔','  선을 넘는 녀석들','  하룻밤만 재워줘',0),</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>5</v>
       </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B679" s="3" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F679" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  쟁반</v>
+      </c>
+      <c r="G679" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  소반</v>
+      </c>
+      <c r="H679" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  차반</v>
+      </c>
+      <c r="I679" s="28">
+        <v>2</v>
+      </c>
+      <c r="J679" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,5,' 예물로 가져온 좋은 음식 또는 맛있게 잘 차린 음식이나 반찬을 가리키는 말은?','  쟁반','  소반','  차반',2),</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>6</v>
       </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B680" s="3" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F680" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  인도</v>
+      </c>
+      <c r="G680" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  중국</v>
+      </c>
+      <c r="H680" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  그리스</v>
+      </c>
+      <c r="I680" s="28">
+        <v>0</v>
+      </c>
+      <c r="J680" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,6,' 수학에서 숫자 0을 최초로 사용한 나라는?','  인도','  중국','  그리스',0),</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>7</v>
       </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B681" s="3" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F681" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  보이지 않는 원숭이</v>
+      </c>
+      <c r="G681" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  보이지 않는 코알라</v>
+      </c>
+      <c r="H681" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  보이지 않는 고릴라</v>
+      </c>
+      <c r="I681" s="28">
+        <v>2</v>
+      </c>
+      <c r="J681" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,7,' "한 가지에 집중하면, 실제로 존재하는 다른 것을 보지 못하는 현상"을 일컫는 용어는?','  보이지 않는 원숭이','  보이지 않는 코알라','  보이지 않는 고릴라',2),</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>8</v>
       </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B682" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>2346</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F682" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  아시아나</v>
+      </c>
+      <c r="G682" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  에어프랑스</v>
+      </c>
+      <c r="H682" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  대한항공</v>
+      </c>
+      <c r="I682" s="28">
+        <v>0</v>
+      </c>
+      <c r="J682" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,8,' 인천공항 제2여객터미널에서 이용할 수 없는 항공사는?','  아시아나','  에어프랑스','  대한항공',0),</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>9</v>
       </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B683" s="3" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F683" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  뉴질랜드 - 에피규어 치즈</v>
+      </c>
+      <c r="G683" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  스웨덴 - 수르스트뢰밍</v>
+      </c>
+      <c r="H683" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  한국 - 삭힌 홍어</v>
+      </c>
+      <c r="I683" s="28">
+        <v>1</v>
+      </c>
+      <c r="J683" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,9,' 여행 정보 사이트 "트립어드바이저 재팬"이 발표한 세계적으로 유명한 악취 음식 1위는?','  뉴질랜드 - 에피규어 치즈','  스웨덴 - 수르스트뢰밍','  한국 - 삭힌 홍어',1),</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>10</v>
       </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B684" s="3" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F684" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  지밀상궁</v>
+      </c>
+      <c r="G684" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  제조상궁</v>
+      </c>
+      <c r="H684" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  보모상궁</v>
+      </c>
+      <c r="I684" s="28">
+        <v>1</v>
+      </c>
+      <c r="J684" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,10,' 다음 조선시대 상궁 중 가장 지위가 높은 상궁은?','  지밀상궁','  제조상궁','  보모상궁',1),</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>11</v>
       </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B685" s="3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F685" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  수수하다</v>
+      </c>
+      <c r="G685" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  구구하다</v>
+      </c>
+      <c r="H685" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  팔팔하다</v>
+      </c>
+      <c r="I685" s="28">
+        <v>1</v>
+      </c>
+      <c r="J685" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,11,' 다음 중 순 우리말이 아닌 것은?','  수수하다','  구구하다','  팔팔하다',1),</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>12</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F686" s="12" t="str">
+        <f t="shared" si="170"/>
+        <v>  0.5ppm 이상</v>
+      </c>
+      <c r="G686" s="12" t="str">
+        <f t="shared" si="171"/>
+        <v>  0.3ppm 이상</v>
+      </c>
+      <c r="H686" s="18" t="str">
+        <f t="shared" si="172"/>
+        <v>  0.12ppm 이상</v>
+      </c>
+      <c r="I686" s="28">
+        <v>0</v>
+      </c>
+      <c r="J686" t="str">
+        <f t="shared" si="173"/>
+        <v>(58,12,' 오존 경보는 오존 농도가 시간당 평균 얼마 이상일 때 실시될까?','  0.5ppm 이상','  0.3ppm 이상','  0.12ppm 이상',0),</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F687" s="12" t="str">
+        <f t="shared" ref="F687:F700" si="174">IF( IFERROR(FIND("A.",C687), 0) &gt; 0, TRIM(MID( C687, SEARCH("A.", C687)+2, 100)),TRIM(C687))</f>
+        <v/>
+      </c>
+      <c r="G687" s="12" t="str">
+        <f t="shared" ref="G687:G700" si="175">IF( IFERROR(FIND("B.",D687), 0) &gt; 0, TRIM(MID( D687, SEARCH("B.", D687)+2, 100)),TRIM(D687))</f>
+        <v/>
+      </c>
+      <c r="H687" s="18" t="str">
+        <f t="shared" ref="H687:H700" si="176">IF( IFERROR(FIND("C.",E687), 0) &gt; 0, TRIM(MID( E687, SEARCH("C.", E687)+2, 100)),TRIM(E687))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B688" s="3" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F688" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v/>
+      </c>
+      <c r="G688" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v/>
+      </c>
+      <c r="H688" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v/>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>1</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F689" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  황장군</v>
+      </c>
+      <c r="G689" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  기봉이</v>
+      </c>
+      <c r="H689" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  즐라탄</v>
+      </c>
+      <c r="I689" s="28">
+        <v>2</v>
+      </c>
+      <c r="J689" t="str">
+        <f>"("&amp;$B$688&amp;","&amp;A689&amp;",'"&amp;B689&amp;"','"&amp;F689&amp;"','"&amp;G689&amp;"','"&amp;H689&amp;"',"&amp;I689&amp;"),"</f>
+        <v>(59,1,' 영화배우 신현준이 연기한 캐릭터가 아닌 것은?','  황장군','  기봉이','  즐라탄',2),</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>2</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F690" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  서울대학교</v>
+      </c>
+      <c r="G690" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  하버드대학교</v>
+      </c>
+      <c r="H690" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  동경대학교</v>
+      </c>
+      <c r="I690" s="28">
+        <v>0</v>
+      </c>
+      <c r="J690" t="str">
+        <f t="shared" ref="J690:J700" si="177">"("&amp;$B$688&amp;","&amp;A690&amp;",'"&amp;B690&amp;"','"&amp;F690&amp;"','"&amp;G690&amp;"','"&amp;H690&amp;"',"&amp;I690&amp;"),"</f>
+        <v>(59,2,' 한국에 있는 대학교는?','  서울대학교','  하버드대학교','  동경대학교',0),</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>3</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F691" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  개성</v>
+      </c>
+      <c r="G691" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  평양</v>
+      </c>
+      <c r="H691" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  신의주</v>
+      </c>
+      <c r="I691" s="28">
+        <v>1</v>
+      </c>
+      <c r="J691" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,3,' 북한의 수도는?','  개성','  평양','  신의주',1),</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>4</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F692" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  콜키지 프리</v>
+      </c>
+      <c r="G692" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  와인 프리</v>
+      </c>
+      <c r="H692" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  글라스 프리</v>
+      </c>
+      <c r="I692" s="28">
+        <v>0</v>
+      </c>
+      <c r="J692" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,4,' 손님이 주류를 가져가면 레스토랑에서 무료로 잔을 제공하고 코르크를 개봉해 주는 서비스의 이름은?','  콜키지 프리','  와인 프리','  글라스 프리',0),</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>5</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F693" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  종종종</v>
+      </c>
+      <c r="G693" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  쫑쫑쫑</v>
+      </c>
+      <c r="H693" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  총총총</v>
+      </c>
+      <c r="I693" s="28">
+        <v>0</v>
+      </c>
+      <c r="J693" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,5,' 나리 나리 개나리 입에 따다 물고요 병아리 떼 (   ) 봄 나들이 갑니다. (   )의 가사는?','  종종종','  쫑쫑쫑','  총총총',0),</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>6</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F694" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  폴리카보네이트</v>
+      </c>
+      <c r="G694" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  강화유리</v>
+      </c>
+      <c r="H694" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  아크릴</v>
+      </c>
+      <c r="I694" s="28">
+        <v>2</v>
+      </c>
+      <c r="J694" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,6,' 대부분의 비행기 창문은 (   )로 되어 있다.','  폴리카보네이트','  강화유리','  아크릴',2),</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>7</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F695" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  계백장군</v>
+      </c>
+      <c r="G695" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  광개토대왕</v>
+      </c>
+      <c r="H695" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  원효대사</v>
+      </c>
+      <c r="I695" s="28">
+        <v>2</v>
+      </c>
+      <c r="J695" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,7,' 한국을 빛낸 백명의 위인들 1절에 나오지 않는 위인은?','  계백장군','  광개토대왕','  원효대사',2),</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>8</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F696" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  부체가 심해서 파산했어</v>
+      </c>
+      <c r="G696" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  소고기는 부챗살이 맛있어</v>
+      </c>
+      <c r="H696" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  가게부채가 늘 문제야</v>
+      </c>
+      <c r="I696" s="28">
+        <v>1</v>
+      </c>
+      <c r="J696" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,8,' 올바른 맞춤법 표기는?','  부체가 심해서 파산했어','  소고기는 부챗살이 맛있어','  가게부채가 늘 문제야',1),</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>9</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F697" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  수소전기 스텍</v>
+      </c>
+      <c r="G697" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  연료전지 스텍</v>
+      </c>
+      <c r="H697" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  전기연료 스텍</v>
+      </c>
+      <c r="I697" s="28">
+        <v>1</v>
+      </c>
+      <c r="J697" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,9,' 수소와 산소를 반응시켜 전기와 물을 만드는 장치로 수소전기차의 핵심부품은?','  수소전기 스텍','  연료전지 스텍','  전기연료 스텍',1),</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>10</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F698" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  함무라비 법칙</v>
+      </c>
+      <c r="G698" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  탈리오 법칙</v>
+      </c>
+      <c r="H698" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  솔로몬 법칙</v>
+      </c>
+      <c r="I698" s="28">
+        <v>1</v>
+      </c>
+      <c r="J698" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,10,' 눈에는 눈, 이에는 이와 같이 피해 정도와 동일한 손해를 가해자에게 내리는 보복 법칙을 무엇이라 할까?','  함무라비 법칙','  탈리오 법칙','  솔로몬 법칙',1),</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>11</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F699" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  새</v>
+      </c>
+      <c r="G699" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  럼주</v>
+      </c>
+      <c r="H699" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  청어</v>
+      </c>
+      <c r="I699" s="28">
+        <v>0</v>
+      </c>
+      <c r="J699" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,11,' 에스키모 민족은 전통적으로 바다표범의 내장을 제거한 후 이것을 넣어서 먹었다. 이것은 무엇일까?','  새','  럼주','  청어',0),</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>12</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F700" s="12" t="str">
+        <f t="shared" si="174"/>
+        <v>  24자</v>
+      </c>
+      <c r="G700" s="12" t="str">
+        <f t="shared" si="175"/>
+        <v>  26자</v>
+      </c>
+      <c r="H700" s="18" t="str">
+        <f t="shared" si="176"/>
+        <v>  28자</v>
+      </c>
+      <c r="I700" s="28">
+        <v>2</v>
+      </c>
+      <c r="J700" t="str">
+        <f t="shared" si="177"/>
+        <v>(59,12,' 세상의 모든 소리를 표현할 수 있는 과학적인 글자 "훈민정음"은 창제 당시 총 몇 자 였을까?','  24자','  26자','  28자',2),</v>
       </c>
     </row>
   </sheetData>
@@ -35567,24 +36712,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>2286</v>
+        <v>2381</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="str">
         <f>MID(A1, FIND("1.", A1) + 2, 9999)</f>
-        <v xml:space="preserve"> [유리구슬, 버디, GirlFriend] 다음 단어를 듣고 연상되는 걸그룹은?</v>
+        <v> 영화배우 신현준이 연기한 캐릭터가 아닌 것은?</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>A3</f>
-        <v>A.  남자친구</v>
+        <v>A.  황장군</v>
       </c>
       <c r="E1" s="27" t="str">
         <f>A4</f>
-        <v>B.  우리 모두 친구</v>
+        <v>B.  기봉이</v>
       </c>
       <c r="F1" s="30" t="str">
         <f>A5</f>
-        <v>C.  여자친구</v>
+        <v>C.  즐라탄</v>
       </c>
       <c r="G1" s="28">
         <v>2</v>
@@ -35595,44 +36740,44 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="str">
         <f>MID(A8, FIND("2.", A8) + 2, 9999)</f>
-        <v xml:space="preserve"> 태극기에 들어가지 않는 색은?</v>
-      </c>
-      <c r="D2" s="7" t="str">
+        <v xml:space="preserve"> 한국에 있는 대학교는?</v>
+      </c>
+      <c r="D2" s="6" t="str">
         <f>A10</f>
-        <v>A.  빨간색</v>
+        <v>A.  서울대학교</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>A11</f>
-        <v>B.  검은색</v>
-      </c>
-      <c r="F2" s="6" t="str">
+        <v>B.  하버드대학교</v>
+      </c>
+      <c r="F2" s="7" t="str">
         <f>A12</f>
-        <v>C.  노란색</v>
+        <v>C.  동경대학교</v>
       </c>
       <c r="G2" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>2287</v>
+        <v>2382</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="str">
         <f>MID(A15, FIND("3.", A15) + 2, 9999)</f>
-        <v xml:space="preserve"> 농악의 우두머리로 꽹과리를 치는 사람을 일컫는 말은?</v>
+        <v xml:space="preserve"> 북한의 수도는?</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>A17</f>
-        <v>A.  열쇠</v>
+        <v>A.  개성</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>A18</f>
-        <v>B.  상쇠</v>
+        <v>B.  평양</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>A19</f>
-        <v>C.  구두쇠</v>
+        <v>C.  신의주</v>
       </c>
       <c r="G3" s="28">
         <v>1</v>
@@ -35640,221 +36785,221 @@
     </row>
     <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>2288</v>
+        <v>2383</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="str">
         <f>MID(A22, FIND("4.", A22) + 2, 9999)</f>
-        <v xml:space="preserve"> 유리, 나무와 같이 열 혹은 전기를 잘 전달하지않는 물체를 일컫는 용어는?</v>
-      </c>
-      <c r="D4" s="7" t="str">
+        <v xml:space="preserve"> 손님이 주류를 가져가면 레스토랑에서 무료로 잔을 제공하고 코르크를 개봉해 주는 서비스의 이름은?</v>
+      </c>
+      <c r="D4" s="6" t="str">
         <f>A24</f>
-        <v>A.  반도체 </v>
-      </c>
-      <c r="E4" s="6" t="str">
+        <v>A.  콜키지 프리</v>
+      </c>
+      <c r="E4" s="7" t="str">
         <f>A25</f>
-        <v>B.  부도체</v>
+        <v>B.  와인 프리</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>A26</f>
-        <v>C.  불량도체</v>
+        <v>C.  글라스 프리</v>
       </c>
       <c r="G4" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>2289</v>
+        <v>2384</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="str">
         <f>MID(A29, FIND("5.", A29) + 2, 9999)</f>
-        <v xml:space="preserve"> 상처를 통해 들어와 온몸에 경직성 경련을 유발하는 감염성 질환은?</v>
+        <v xml:space="preserve"> 나리 나리 개나리 입에 따다 물고요 병아리 떼 (   ) 봄 나들이 갑니다. (   )의 가사는?</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>A31</f>
-        <v>A.  파상풍</v>
+        <v>A.  종종종</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>A32</f>
-        <v>B.  성홍열</v>
+        <v>B.  쫑쫑쫑</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>A33</f>
-        <v>C.  괴혈병</v>
+        <v>C.  총총총</v>
       </c>
       <c r="G5" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="str">
         <f>MID(A36, FIND("6.", A36) + 2, 9999)</f>
-        <v xml:space="preserve"> 도마뱀의 '도마'는 무엇을 뜻할까?</v>
+        <v xml:space="preserve"> 대부분의 비행기 창문은 (   )로 되어 있다.</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>A38</f>
-        <v>A.  집에 사는 뱀</v>
+        <v>A.  폴리카보네이트</v>
       </c>
       <c r="E6" s="7" t="str">
         <f>A39</f>
-        <v>B.  물을 먹는 뱀</v>
+        <v>B.  강화유리</v>
       </c>
       <c r="F6" s="6" t="str">
         <f>A40</f>
-        <v>C.  토막 나는 뱀</v>
+        <v>C.  아크릴</v>
       </c>
       <c r="G6" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="str">
         <f>MID(A43, FIND("7.", A43) + 2, 9999)</f>
-        <v xml:space="preserve"> 프랑스의 물리학자로 방사능 연구를 통해 최초의 방사성 원소 폴로늄과 라듐을 발견한 사람은?</v>
+        <v xml:space="preserve"> 한국을 빛낸 백명의 위인들 1절에 나오지 않는 위인은?</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>A45</f>
-        <v>A.  헬렌켈러</v>
-      </c>
-      <c r="E7" s="6" t="str">
+        <v>A.  계백장군</v>
+      </c>
+      <c r="E7" s="7" t="str">
         <f>A46</f>
-        <v>B.  퀴리부인</v>
-      </c>
-      <c r="F7" s="7" t="str">
+        <v>B.  광개토대왕</v>
+      </c>
+      <c r="F7" s="6" t="str">
         <f>A47</f>
-        <v>C.  나이팅게일</v>
+        <v>C.  원효대사</v>
       </c>
       <c r="G7" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="63" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>2290</v>
+        <v>2385</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
         <f>MID(A50, FIND("8.", A50) + 2, 9999)</f>
-        <v xml:space="preserve"> 최근 세계적인 뷰티 브랜드 로레알에 4000억에 매각된 한국의 브랜드는?</v>
+        <v xml:space="preserve"> 올바른 맞춤법 표기는?</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>A52</f>
-        <v>A.  임블리</v>
-      </c>
-      <c r="E8" s="7" t="str">
+        <v>A.  부체가 심해서 파산했어</v>
+      </c>
+      <c r="E8" s="6" t="str">
         <f>A53</f>
-        <v>B.  메이썸</v>
-      </c>
-      <c r="F8" s="6" t="str">
+        <v>B.  소고기는 부챗살이 맛있어</v>
+      </c>
+      <c r="F8" s="7" t="str">
         <f>A54</f>
-        <v>C.  스타일난다</v>
+        <v>C.  가게부채가 늘 문제야</v>
       </c>
       <c r="G8" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
         <f>MID(A57, FIND("9.", A57) + 2, 9999)</f>
-        <v xml:space="preserve"> 고려 말기 정몽주가 지은 시조로 고려에 대한 충절을 읊은 이것은?</v>
-      </c>
-      <c r="D9" s="6" t="str">
+        <v xml:space="preserve"> 수소와 산소를 반응시켜 전기와 물을 만드는 장치로 수소전기차의 핵심부품은?</v>
+      </c>
+      <c r="D9" s="7" t="str">
         <f>A59</f>
-        <v>A.  단심가</v>
-      </c>
-      <c r="E9" s="7" t="str">
+        <v>A.  수소전기 스텍</v>
+      </c>
+      <c r="E9" s="6" t="str">
         <f>A60</f>
-        <v>B.  하여가</v>
+        <v>B.  연료전지 스텍</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>A61</f>
-        <v>C.  공무도하가</v>
+        <v>C.  전기연료 스텍</v>
       </c>
       <c r="G9" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>2291</v>
+        <v>2386</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
         <f>MID(A64, FIND("10.", A64) + 3, 9999)</f>
-        <v xml:space="preserve"> 현재 대한민국의 살인죄에 대한 공소시효는?</v>
+        <v xml:space="preserve"> 눈에는 눈, 이에는 이와 같이 피해 정도와 동일한 손해를 가해자에게 내리는 보복 법칙을 무엇이라 할까?</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>A66</f>
-        <v>A.  10년</v>
-      </c>
-      <c r="E10" s="7" t="str">
+        <v>A.  함무라비 법칙</v>
+      </c>
+      <c r="E10" s="6" t="str">
         <f>A67</f>
-        <v>B.  25년</v>
-      </c>
-      <c r="F10" s="6" t="str">
+        <v>B.  탈리오 법칙</v>
+      </c>
+      <c r="F10" s="7" t="str">
         <f>A68</f>
-        <v>C.  없다.</v>
+        <v>C.  솔로몬 법칙</v>
       </c>
       <c r="G10" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>1033</v>
+        <v>2387</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
         <f>MID(A71, FIND("11.", A71) + 3, 9999)</f>
-        <v xml:space="preserve"> 실제로 출시된 롯데 마가렛트 맛은?</v>
-      </c>
-      <c r="D11" s="7" t="str">
+        <v xml:space="preserve"> 에스키모 민족은 전통적으로 바다표범의 내장을 제거한 후 이것을 넣어서 먹었다. 이것은 무엇일까?</v>
+      </c>
+      <c r="D11" s="6" t="str">
         <f>A73</f>
-        <v>A.  마가렛트 카레</v>
-      </c>
-      <c r="E11" s="6" t="str">
+        <v>A.  새</v>
+      </c>
+      <c r="E11" s="7" t="str">
         <f>A74</f>
-        <v>B.  마가렛트 고로케</v>
+        <v>B.  럼주</v>
       </c>
       <c r="F11" s="7" t="str">
         <f>A75</f>
-        <v>C.  마가렛트 피자</v>
+        <v>C.  청어</v>
       </c>
       <c r="G11" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>2292</v>
+        <v>2388</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="str">
         <f>MID(A78, FIND("12.", A78) + 3, 9999)</f>
-        <v xml:space="preserve"> 다음 중 2018 러시아 월드컵이 개최되는 도시가 아닌것은?</v>
-      </c>
-      <c r="D12" s="6" t="str">
+        <v xml:space="preserve"> 세상의 모든 소리를 표현할 수 있는 과학적인 글자 '훈민정음'은 창제 당시 총 몇 자 였을까?</v>
+      </c>
+      <c r="D12" s="7" t="str">
         <f>A80</f>
-        <v>A.  첼랴빈스크</v>
+        <v>A.  24자</v>
       </c>
       <c r="E12" s="7" t="str">
         <f>A81</f>
-        <v>B.  예카테린부르크</v>
-      </c>
-      <c r="F12" s="7" t="str">
+        <v>B.  26자</v>
+      </c>
+      <c r="F12" s="6" t="str">
         <f>A82</f>
-        <v>C.  니즈니노브고로드</v>
+        <v>C.  28자</v>
       </c>
       <c r="G12" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -35865,7 +37010,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>2293</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -35873,17 +37018,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>2294</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>2295</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>2296</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -35892,9 +37037,9 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>2297</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -35902,17 +37047,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>2298</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>2299</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>2300</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -35921,9 +37066,9 @@
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>2301</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -35931,17 +37076,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>2302</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>2303</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>2304</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -35952,7 +37097,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>2305</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -35960,17 +37105,17 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>2306</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>2307</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>2308</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -35979,9 +37124,9 @@
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>2309</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -35989,17 +37134,17 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>2310</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>2311</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>2312</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
@@ -36010,7 +37155,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>2313</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
@@ -36018,17 +37163,17 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
-        <v>2314</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
-        <v>2315</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
-        <v>2316</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
@@ -36037,9 +37182,9 @@
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>2317</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
@@ -36047,17 +37192,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
-        <v>2318</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>2319</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
-        <v>2320</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
@@ -36066,9 +37211,9 @@
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>2321</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
@@ -36076,17 +37221,17 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
-        <v>2322</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>2323</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>2324</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -36095,9 +37240,9 @@
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>2325</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -36105,17 +37250,17 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
-        <v>2326</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>2327</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>2328</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
@@ -36124,9 +37269,9 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>2329</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -36134,17 +37279,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
-        <v>2330</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
-        <v>2331</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
-        <v>2332</v>
+        <v>2428</v>
       </c>
     </row>
   </sheetData>
